--- a/rfuse/merged_summary.xlsx
+++ b/rfuse/merged_summary.xlsx
@@ -484,10 +484,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="4" t="n"/>
+      <c r="B3" s="4" t="n">
+        <v>5714</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>11200</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>16600</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>21600</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -495,10 +503,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="4" t="n"/>
+      <c r="B4" s="4" t="n">
+        <v>6247</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>12900</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>17700</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>23500</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -506,10 +522,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="4" t="n"/>
+      <c r="B5" s="4" t="n">
+        <v>6268</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>19200</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -595,10 +619,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="4" t="n"/>
+      <c r="B14" s="4" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>88.40000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -606,10 +638,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="E15" s="4" t="n"/>
+      <c r="B15" s="4" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>96.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -617,10 +657,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n"/>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="n"/>
+      <c r="B16" s="4" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -706,10 +754,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
+      <c r="B25" s="4" t="n">
+        <v>174.74983</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>178.76486</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>180.70354</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>184.40112</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -717,10 +773,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
+      <c r="B26" s="4" t="n">
+        <v>159.6543</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>153.38775</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>168.73814</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>169.44949</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -728,10 +792,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
+      <c r="B27" s="4" t="n">
+        <v>159.08873</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>151.19658</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>154.2982</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>155.13049</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
@@ -817,10 +889,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n"/>
-      <c r="C36" s="4" t="n"/>
-      <c r="D36" s="4" t="n"/>
-      <c r="E36" s="4" t="n"/>
+      <c r="B36" s="4" t="n">
+        <v>2976</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>5535</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>7897</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>10200</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -828,10 +908,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n"/>
-      <c r="C37" s="4" t="n"/>
-      <c r="D37" s="4" t="n"/>
-      <c r="E37" s="4" t="n"/>
+      <c r="B37" s="4" t="n">
+        <v>4266</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>7236</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>12800</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>11800</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
@@ -839,10 +927,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n"/>
-      <c r="C38" s="4" t="n"/>
-      <c r="D38" s="4" t="n"/>
-      <c r="E38" s="4" t="n"/>
+      <c r="B38" s="4" t="n">
+        <v>3271</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>5610</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>7511</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>10200</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -928,10 +1024,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n"/>
-      <c r="C47" s="4" t="n"/>
-      <c r="D47" s="4" t="n"/>
-      <c r="E47" s="4" t="n"/>
+      <c r="B47" s="4" t="n">
+        <v>390</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>726</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>1035</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>1342</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
@@ -939,10 +1043,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n"/>
-      <c r="C48" s="4" t="n"/>
-      <c r="D48" s="4" t="n"/>
-      <c r="E48" s="4" t="n"/>
+      <c r="B48" s="4" t="n">
+        <v>559</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>949</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>1678</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>1543</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
@@ -950,10 +1062,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n"/>
-      <c r="C49" s="4" t="n"/>
-      <c r="D49" s="4" t="n"/>
-      <c r="E49" s="4" t="n"/>
+      <c r="B49" s="4" t="n">
+        <v>429</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>735</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>984</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>1342</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -1039,10 +1159,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n"/>
-      <c r="C58" s="4" t="n"/>
-      <c r="D58" s="4" t="n"/>
-      <c r="E58" s="4" t="n"/>
+      <c r="B58" s="4" t="n">
+        <v>334.88</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>360.47</v>
+      </c>
+      <c r="D58" s="4" t="n">
+        <v>375.48</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>386.45</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -1050,10 +1178,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n"/>
-      <c r="C59" s="4" t="n"/>
-      <c r="D59" s="4" t="n"/>
-      <c r="E59" s="4" t="n"/>
+      <c r="B59" s="4" t="n">
+        <v>233.29</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>270.66</v>
+      </c>
+      <c r="D59" s="4" t="n">
+        <v>222.53</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>330.77</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
@@ -1061,10 +1197,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n"/>
-      <c r="C60" s="4" t="n"/>
-      <c r="D60" s="4" t="n"/>
-      <c r="E60" s="4" t="n"/>
+      <c r="B60" s="4" t="n">
+        <v>297.54</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>347.44</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <v>389.63</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>377.76</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
@@ -1150,10 +1294,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n"/>
-      <c r="C69" s="4" t="n"/>
-      <c r="D69" s="4" t="n"/>
-      <c r="E69" s="4" t="n"/>
+      <c r="B69" s="4" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C69" s="4" t="n">
+        <v>28600</v>
+      </c>
+      <c r="D69" s="4" t="n">
+        <v>41700</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>70400</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
@@ -1161,10 +1313,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n"/>
-      <c r="C70" s="4" t="n"/>
-      <c r="D70" s="4" t="n"/>
-      <c r="E70" s="4" t="n"/>
+      <c r="B70" s="4" t="n">
+        <v>19600</v>
+      </c>
+      <c r="C70" s="4" t="n">
+        <v>36100</v>
+      </c>
+      <c r="D70" s="4" t="n">
+        <v>55600</v>
+      </c>
+      <c r="E70" s="4" t="n">
+        <v>56800</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
@@ -1172,10 +1332,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n"/>
-      <c r="C71" s="4" t="n"/>
-      <c r="D71" s="4" t="n"/>
-      <c r="E71" s="4" t="n"/>
+      <c r="B71" s="4" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C71" s="4" t="n">
+        <v>11200</v>
+      </c>
+      <c r="D71" s="4" t="n">
+        <v>15400</v>
+      </c>
+      <c r="E71" s="4" t="n">
+        <v>61600</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
@@ -1261,10 +1429,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n"/>
-      <c r="C80" s="4" t="n"/>
-      <c r="D80" s="4" t="n"/>
-      <c r="E80" s="4" t="n"/>
+      <c r="B80" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="C80" s="4" t="n">
+        <v>117</v>
+      </c>
+      <c r="D80" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="E80" s="4" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
@@ -1272,10 +1448,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n"/>
-      <c r="C81" s="4" t="n"/>
-      <c r="D81" s="4" t="n"/>
-      <c r="E81" s="4" t="n"/>
+      <c r="B81" s="4" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="C81" s="4" t="n">
+        <v>148</v>
+      </c>
+      <c r="D81" s="4" t="n">
+        <v>228</v>
+      </c>
+      <c r="E81" s="4" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
@@ -1283,10 +1467,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n"/>
-      <c r="C82" s="4" t="n"/>
-      <c r="D82" s="4" t="n"/>
-      <c r="E82" s="4" t="n"/>
+      <c r="B82" s="4" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="C82" s="4" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="D82" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="E82" s="4" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
@@ -1372,10 +1564,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n"/>
-      <c r="C91" s="4" t="n"/>
-      <c r="D91" s="4" t="n"/>
-      <c r="E91" s="4" t="n"/>
+      <c r="B91" s="4" t="n">
+        <v>2.79167</v>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>25.51849</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <v>23.20088</v>
+      </c>
+      <c r="E91" s="4" t="n">
+        <v>2.45775</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
@@ -1383,10 +1583,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n"/>
-      <c r="C92" s="4" t="n"/>
-      <c r="D92" s="4" t="n"/>
-      <c r="E92" s="4" t="n"/>
+      <c r="B92" s="4" t="n">
+        <v>46.31</v>
+      </c>
+      <c r="C92" s="4" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="D92" s="4" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="E92" s="4" t="n">
+        <v>42.81</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
@@ -1394,10 +1602,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n"/>
-      <c r="C93" s="4" t="n"/>
-      <c r="D93" s="4" t="n"/>
-      <c r="E93" s="4" t="n"/>
+      <c r="B93" s="4" t="n">
+        <v>44.49</v>
+      </c>
+      <c r="C93" s="4" t="n">
+        <v>102.23</v>
+      </c>
+      <c r="D93" s="4" t="n">
+        <v>80.39</v>
+      </c>
+      <c r="E93" s="4" t="n">
+        <v>32.43</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
@@ -1483,10 +1699,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n"/>
-      <c r="C102" s="4" t="n"/>
-      <c r="D102" s="4" t="n"/>
-      <c r="E102" s="4" t="n"/>
+      <c r="B102" s="4" t="n">
+        <v>1508</v>
+      </c>
+      <c r="C102" s="4" t="n">
+        <v>1546</v>
+      </c>
+      <c r="D102" s="4" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E102" s="4" t="n">
+        <v>2067</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
@@ -1494,10 +1718,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n"/>
-      <c r="C103" s="4" t="n"/>
-      <c r="D103" s="4" t="n"/>
-      <c r="E103" s="4" t="n"/>
+      <c r="B103" s="4" t="n">
+        <v>1224</v>
+      </c>
+      <c r="C103" s="4" t="n">
+        <v>2235</v>
+      </c>
+      <c r="D103" s="4" t="n">
+        <v>3147</v>
+      </c>
+      <c r="E103" s="4" t="n">
+        <v>3138</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
@@ -1505,10 +1737,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n"/>
-      <c r="C104" s="4" t="n"/>
-      <c r="D104" s="4" t="n"/>
-      <c r="E104" s="4" t="n"/>
+      <c r="B104" s="4" t="n">
+        <v>1179</v>
+      </c>
+      <c r="C104" s="4" t="n">
+        <v>2398</v>
+      </c>
+      <c r="D104" s="4" t="n">
+        <v>2752</v>
+      </c>
+      <c r="E104" s="4" t="n">
+        <v>2864</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
@@ -1594,10 +1834,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n"/>
-      <c r="C113" s="4" t="n"/>
-      <c r="D113" s="4" t="n"/>
-      <c r="E113" s="4" t="n"/>
+      <c r="B113" s="4" t="n">
+        <v>198</v>
+      </c>
+      <c r="C113" s="4" t="n">
+        <v>203</v>
+      </c>
+      <c r="D113" s="4" t="n">
+        <v>244</v>
+      </c>
+      <c r="E113" s="4" t="n">
+        <v>271</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
@@ -1605,10 +1853,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n"/>
-      <c r="C114" s="4" t="n"/>
-      <c r="D114" s="4" t="n"/>
-      <c r="E114" s="4" t="n"/>
+      <c r="B114" s="4" t="n">
+        <v>161</v>
+      </c>
+      <c r="C114" s="4" t="n">
+        <v>293</v>
+      </c>
+      <c r="D114" s="4" t="n">
+        <v>413</v>
+      </c>
+      <c r="E114" s="4" t="n">
+        <v>411</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
@@ -1616,10 +1872,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n"/>
-      <c r="C115" s="4" t="n"/>
-      <c r="D115" s="4" t="n"/>
-      <c r="E115" s="4" t="n"/>
+      <c r="B115" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="C115" s="4" t="n">
+        <v>314</v>
+      </c>
+      <c r="D115" s="4" t="n">
+        <v>361</v>
+      </c>
+      <c r="E115" s="4" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
@@ -1705,10 +1969,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n"/>
-      <c r="C124" s="4" t="n"/>
-      <c r="D124" s="4" t="n"/>
-      <c r="E124" s="4" t="n"/>
+      <c r="B124" s="4" t="n">
+        <v>108.79</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="E124" s="4" t="n">
+        <v>56.96</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
@@ -1716,10 +1988,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n"/>
-      <c r="C125" s="4" t="n"/>
-      <c r="D125" s="4" t="n"/>
-      <c r="E125" s="4" t="n"/>
+      <c r="B125" s="4" t="n">
+        <v>337.48</v>
+      </c>
+      <c r="C125" s="4" t="n">
+        <v>228.05</v>
+      </c>
+      <c r="D125" s="4" t="n">
+        <v>196.47</v>
+      </c>
+      <c r="E125" s="4" t="n">
+        <v>285.35</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
@@ -1727,10 +2007,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n"/>
-      <c r="C126" s="4" t="n"/>
-      <c r="D126" s="4" t="n"/>
-      <c r="E126" s="4" t="n"/>
+      <c r="B126" s="4" t="n">
+        <v>493.49</v>
+      </c>
+      <c r="C126" s="4" t="n">
+        <v>399.62</v>
+      </c>
+      <c r="D126" s="4" t="n">
+        <v>455.96</v>
+      </c>
+      <c r="E126" s="4" t="n">
+        <v>364.17</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
@@ -1816,10 +2104,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n"/>
-      <c r="C135" s="4" t="n"/>
-      <c r="D135" s="4" t="n"/>
-      <c r="E135" s="4" t="n"/>
+      <c r="B135" s="4" t="n">
+        <v>231000</v>
+      </c>
+      <c r="C135" s="4" t="n">
+        <v>324000</v>
+      </c>
+      <c r="D135" s="4" t="n">
+        <v>429000</v>
+      </c>
+      <c r="E135" s="4" t="n">
+        <v>502000</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
@@ -1827,10 +2123,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n"/>
-      <c r="C136" s="4" t="n"/>
-      <c r="D136" s="4" t="n"/>
-      <c r="E136" s="4" t="n"/>
+      <c r="B136" s="4" t="n">
+        <v>218000</v>
+      </c>
+      <c r="C136" s="4" t="n">
+        <v>279000</v>
+      </c>
+      <c r="D136" s="4" t="n">
+        <v>371000</v>
+      </c>
+      <c r="E136" s="4" t="n">
+        <v>749000</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
@@ -1838,10 +2142,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n"/>
-      <c r="C137" s="4" t="n"/>
-      <c r="D137" s="4" t="n"/>
-      <c r="E137" s="4" t="n"/>
+      <c r="B137" s="4" t="n">
+        <v>116000</v>
+      </c>
+      <c r="C137" s="4" t="n">
+        <v>229000</v>
+      </c>
+      <c r="D137" s="4" t="n">
+        <v>349000</v>
+      </c>
+      <c r="E137" s="4" t="n">
+        <v>449000</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
@@ -1927,10 +2239,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n"/>
-      <c r="C146" s="4" t="n"/>
-      <c r="D146" s="4" t="n"/>
-      <c r="E146" s="4" t="n"/>
+      <c r="B146" s="4" t="n">
+        <v>945</v>
+      </c>
+      <c r="C146" s="4" t="n">
+        <v>1329</v>
+      </c>
+      <c r="D146" s="4" t="n">
+        <v>1758</v>
+      </c>
+      <c r="E146" s="4" t="n">
+        <v>2057</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
@@ -1938,10 +2258,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n"/>
-      <c r="C147" s="4" t="n"/>
-      <c r="D147" s="4" t="n"/>
-      <c r="E147" s="4" t="n"/>
+      <c r="B147" s="4" t="n">
+        <v>895</v>
+      </c>
+      <c r="C147" s="4" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D147" s="4" t="n">
+        <v>1519</v>
+      </c>
+      <c r="E147" s="4" t="n">
+        <v>3068</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
@@ -1949,10 +2277,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n"/>
-      <c r="C148" s="4" t="n"/>
-      <c r="D148" s="4" t="n"/>
-      <c r="E148" s="4" t="n"/>
+      <c r="B148" s="4" t="n">
+        <v>474</v>
+      </c>
+      <c r="C148" s="4" t="n">
+        <v>939</v>
+      </c>
+      <c r="D148" s="4" t="n">
+        <v>1428</v>
+      </c>
+      <c r="E148" s="4" t="n">
+        <v>1839</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
@@ -2038,10 +2374,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n"/>
-      <c r="C157" s="4" t="n"/>
-      <c r="D157" s="4" t="n"/>
-      <c r="E157" s="4" t="n"/>
+      <c r="B157" s="4" t="n">
+        <v>4.19258</v>
+      </c>
+      <c r="C157" s="4" t="n">
+        <v>6.03486</v>
+      </c>
+      <c r="D157" s="4" t="n">
+        <v>6.85142</v>
+      </c>
+      <c r="E157" s="4" t="n">
+        <v>7.83961</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
@@ -2049,10 +2393,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n"/>
-      <c r="C158" s="4" t="n"/>
-      <c r="D158" s="4" t="n"/>
-      <c r="E158" s="4" t="n"/>
+      <c r="B158" s="4" t="n">
+        <v>4.46817</v>
+      </c>
+      <c r="C158" s="4" t="n">
+        <v>5.89138</v>
+      </c>
+      <c r="D158" s="4" t="n">
+        <v>7.85371</v>
+      </c>
+      <c r="E158" s="4" t="n">
+        <v>4.95728</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
@@ -2060,10 +2412,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n"/>
-      <c r="C159" s="4" t="n"/>
-      <c r="D159" s="4" t="n"/>
-      <c r="E159" s="4" t="n"/>
+      <c r="B159" s="4" t="n">
+        <v>8.378</v>
+      </c>
+      <c r="C159" s="4" t="n">
+        <v>8.376760000000001</v>
+      </c>
+      <c r="D159" s="4" t="n">
+        <v>8.25699</v>
+      </c>
+      <c r="E159" s="4" t="n">
+        <v>8.5496</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
@@ -2149,10 +2509,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n"/>
-      <c r="C168" s="4" t="n"/>
-      <c r="D168" s="4" t="n"/>
-      <c r="E168" s="4" t="n"/>
+      <c r="B168" s="4" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C168" s="4" t="n">
+        <v>10400</v>
+      </c>
+      <c r="D168" s="4" t="n">
+        <v>13900</v>
+      </c>
+      <c r="E168" s="4" t="n">
+        <v>16300</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
@@ -2160,10 +2528,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n"/>
-      <c r="C169" s="4" t="n"/>
-      <c r="D169" s="4" t="n"/>
-      <c r="E169" s="4" t="n"/>
+      <c r="B169" s="4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C169" s="4" t="n">
+        <v>23800</v>
+      </c>
+      <c r="D169" s="4" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E169" s="4" t="n">
+        <v>16700</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
@@ -2171,10 +2547,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n"/>
-      <c r="C170" s="4" t="n"/>
-      <c r="D170" s="4" t="n"/>
-      <c r="E170" s="4" t="n"/>
+      <c r="B170" s="4" t="n">
+        <v>3580</v>
+      </c>
+      <c r="C170" s="4" t="n">
+        <v>7160</v>
+      </c>
+      <c r="D170" s="4" t="n">
+        <v>11900</v>
+      </c>
+      <c r="E170" s="4" t="n">
+        <v>14900</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
@@ -2260,10 +2644,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n"/>
-      <c r="C179" s="4" t="n"/>
-      <c r="D179" s="4" t="n"/>
-      <c r="E179" s="4" t="n"/>
+      <c r="B179" s="4" t="n">
+        <v>771</v>
+      </c>
+      <c r="C179" s="4" t="n">
+        <v>1363</v>
+      </c>
+      <c r="D179" s="4" t="n">
+        <v>1822</v>
+      </c>
+      <c r="E179" s="4" t="n">
+        <v>2139</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
@@ -2271,10 +2663,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n"/>
-      <c r="C180" s="4" t="n"/>
-      <c r="D180" s="4" t="n"/>
-      <c r="E180" s="4" t="n"/>
+      <c r="B180" s="4" t="n">
+        <v>1699</v>
+      </c>
+      <c r="C180" s="4" t="n">
+        <v>3121</v>
+      </c>
+      <c r="D180" s="4" t="n">
+        <v>2486</v>
+      </c>
+      <c r="E180" s="4" t="n">
+        <v>2182</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
@@ -2282,10 +2682,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n"/>
-      <c r="C181" s="4" t="n"/>
-      <c r="D181" s="4" t="n"/>
-      <c r="E181" s="4" t="n"/>
+      <c r="B181" s="4" t="n">
+        <v>469</v>
+      </c>
+      <c r="C181" s="4" t="n">
+        <v>939</v>
+      </c>
+      <c r="D181" s="4" t="n">
+        <v>1561</v>
+      </c>
+      <c r="E181" s="4" t="n">
+        <v>1952</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
@@ -2371,10 +2779,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n"/>
-      <c r="C190" s="4" t="n"/>
-      <c r="D190" s="4" t="n"/>
-      <c r="E190" s="4" t="n"/>
+      <c r="B190" s="4" t="n">
+        <v>168.7</v>
+      </c>
+      <c r="C190" s="4" t="n">
+        <v>186.45</v>
+      </c>
+      <c r="D190" s="4" t="n">
+        <v>213.89</v>
+      </c>
+      <c r="E190" s="4" t="n">
+        <v>243.23</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
@@ -2382,10 +2798,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n"/>
-      <c r="C191" s="4" t="n"/>
-      <c r="D191" s="4" t="n"/>
-      <c r="E191" s="4" t="n"/>
+      <c r="B191" s="4" t="n">
+        <v>75.87</v>
+      </c>
+      <c r="C191" s="4" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="D191" s="4" t="n">
+        <v>156.11</v>
+      </c>
+      <c r="E191" s="4" t="n">
+        <v>235.38</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
@@ -2393,10 +2817,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n"/>
-      <c r="C192" s="4" t="n"/>
-      <c r="D192" s="4" t="n"/>
-      <c r="E192" s="4" t="n"/>
+      <c r="B192" s="4" t="n">
+        <v>272.26</v>
+      </c>
+      <c r="C192" s="4" t="n">
+        <v>273.29</v>
+      </c>
+      <c r="D192" s="4" t="n">
+        <v>245.7</v>
+      </c>
+      <c r="E192" s="4" t="n">
+        <v>256.77</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
@@ -2482,10 +2914,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B201" s="4" t="n"/>
-      <c r="C201" s="4" t="n"/>
-      <c r="D201" s="4" t="n"/>
-      <c r="E201" s="4" t="n"/>
+      <c r="B201" s="4" t="n">
+        <v>129000</v>
+      </c>
+      <c r="C201" s="4" t="n">
+        <v>180000</v>
+      </c>
+      <c r="D201" s="4" t="n">
+        <v>246000</v>
+      </c>
+      <c r="E201" s="4" t="n">
+        <v>274000</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
@@ -2493,10 +2933,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B202" s="4" t="n"/>
-      <c r="C202" s="4" t="n"/>
-      <c r="D202" s="4" t="n"/>
-      <c r="E202" s="4" t="n"/>
+      <c r="B202" s="4" t="n">
+        <v>57200</v>
+      </c>
+      <c r="C202" s="4" t="n">
+        <v>101000</v>
+      </c>
+      <c r="D202" s="4" t="n">
+        <v>144000</v>
+      </c>
+      <c r="E202" s="4" t="n">
+        <v>176000</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="inlineStr">
@@ -2504,10 +2952,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B203" s="4" t="n"/>
-      <c r="C203" s="4" t="n"/>
-      <c r="D203" s="4" t="n"/>
-      <c r="E203" s="4" t="n"/>
+      <c r="B203" s="4" t="n">
+        <v>4476</v>
+      </c>
+      <c r="C203" s="4" t="n">
+        <v>8937</v>
+      </c>
+      <c r="D203" s="4" t="n">
+        <v>13500</v>
+      </c>
+      <c r="E203" s="4" t="n">
+        <v>17800</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
@@ -2593,10 +3049,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B212" s="4" t="n"/>
-      <c r="C212" s="4" t="n"/>
-      <c r="D212" s="4" t="n"/>
-      <c r="E212" s="4" t="n"/>
+      <c r="B212" s="4" t="n">
+        <v>526</v>
+      </c>
+      <c r="C212" s="4" t="n">
+        <v>737</v>
+      </c>
+      <c r="D212" s="4" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E212" s="4" t="n">
+        <v>1121</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="inlineStr">
@@ -2604,10 +3068,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B213" s="4" t="n"/>
-      <c r="C213" s="4" t="n"/>
-      <c r="D213" s="4" t="n"/>
-      <c r="E213" s="4" t="n"/>
+      <c r="B213" s="4" t="n">
+        <v>234</v>
+      </c>
+      <c r="C213" s="4" t="n">
+        <v>415</v>
+      </c>
+      <c r="D213" s="4" t="n">
+        <v>590</v>
+      </c>
+      <c r="E213" s="4" t="n">
+        <v>720</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
@@ -2615,10 +3087,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B214" s="4" t="n"/>
-      <c r="C214" s="4" t="n"/>
-      <c r="D214" s="4" t="n"/>
-      <c r="E214" s="4" t="n"/>
+      <c r="B214" s="4" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C214" s="4" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D214" s="4" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E214" s="4" t="n">
+        <v>73.09999999999999</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
@@ -2704,10 +3184,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B223" s="4" t="n"/>
-      <c r="C223" s="4" t="n"/>
-      <c r="D223" s="4" t="n"/>
-      <c r="E223" s="4" t="n"/>
+      <c r="B223" s="4" t="n">
+        <v>2.24133</v>
+      </c>
+      <c r="C223" s="4" t="n">
+        <v>2.20897</v>
+      </c>
+      <c r="D223" s="4" t="n">
+        <v>1.99737</v>
+      </c>
+      <c r="E223" s="4" t="n">
+        <v>2.14621</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
@@ -2715,10 +3203,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B224" s="4" t="n"/>
-      <c r="C224" s="4" t="n"/>
-      <c r="D224" s="4" t="n"/>
-      <c r="E224" s="4" t="n"/>
+      <c r="B224" s="4" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="C224" s="4" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="D224" s="4" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E224" s="4" t="n">
+        <v>11.88</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="3" t="inlineStr">
@@ -2726,10 +3222,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B225" s="4" t="n"/>
-      <c r="C225" s="4" t="n"/>
-      <c r="D225" s="4" t="n"/>
-      <c r="E225" s="4" t="n"/>
+      <c r="B225" s="4" t="n">
+        <v>219.17</v>
+      </c>
+      <c r="C225" s="4" t="n">
+        <v>221.88</v>
+      </c>
+      <c r="D225" s="4" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="E225" s="4" t="n">
+        <v>220.04</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
@@ -2815,10 +3319,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B234" s="4" t="n"/>
-      <c r="C234" s="4" t="n"/>
-      <c r="D234" s="4" t="n"/>
-      <c r="E234" s="4" t="n"/>
+      <c r="B234" s="4" t="n">
+        <v>4471</v>
+      </c>
+      <c r="C234" s="4" t="n">
+        <v>5919</v>
+      </c>
+      <c r="D234" s="4" t="n">
+        <v>9660</v>
+      </c>
+      <c r="E234" s="4" t="n">
+        <v>9246</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="3" t="inlineStr">
@@ -2826,10 +3338,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B235" s="4" t="n"/>
-      <c r="C235" s="4" t="n"/>
-      <c r="D235" s="4" t="n"/>
-      <c r="E235" s="4" t="n"/>
+      <c r="B235" s="4" t="n">
+        <v>2782</v>
+      </c>
+      <c r="C235" s="4" t="n">
+        <v>6671</v>
+      </c>
+      <c r="D235" s="4" t="n">
+        <v>8084</v>
+      </c>
+      <c r="E235" s="4" t="n">
+        <v>8641</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
@@ -2837,10 +3357,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B236" s="4" t="n"/>
-      <c r="C236" s="4" t="n"/>
-      <c r="D236" s="4" t="n"/>
-      <c r="E236" s="4" t="n"/>
+      <c r="B236" s="4" t="n">
+        <v>1412</v>
+      </c>
+      <c r="C236" s="4" t="n">
+        <v>2659</v>
+      </c>
+      <c r="D236" s="4" t="n">
+        <v>4272</v>
+      </c>
+      <c r="E236" s="4" t="n">
+        <v>5231</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
@@ -2926,10 +3454,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B245" s="4" t="n"/>
-      <c r="C245" s="4" t="n"/>
-      <c r="D245" s="4" t="n"/>
-      <c r="E245" s="4" t="n"/>
+      <c r="B245" s="4" t="n">
+        <v>586</v>
+      </c>
+      <c r="C245" s="4" t="n">
+        <v>776</v>
+      </c>
+      <c r="D245" s="4" t="n">
+        <v>1266</v>
+      </c>
+      <c r="E245" s="4" t="n">
+        <v>1212</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
@@ -2937,10 +3473,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B246" s="4" t="n"/>
-      <c r="C246" s="4" t="n"/>
-      <c r="D246" s="4" t="n"/>
-      <c r="E246" s="4" t="n"/>
+      <c r="B246" s="4" t="n">
+        <v>365</v>
+      </c>
+      <c r="C246" s="4" t="n">
+        <v>874</v>
+      </c>
+      <c r="D246" s="4" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E246" s="4" t="n">
+        <v>1133</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="3" t="inlineStr">
@@ -2948,10 +3492,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B247" s="4" t="n"/>
-      <c r="C247" s="4" t="n"/>
-      <c r="D247" s="4" t="n"/>
-      <c r="E247" s="4" t="n"/>
+      <c r="B247" s="4" t="n">
+        <v>185</v>
+      </c>
+      <c r="C247" s="4" t="n">
+        <v>349</v>
+      </c>
+      <c r="D247" s="4" t="n">
+        <v>560</v>
+      </c>
+      <c r="E247" s="4" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
@@ -3037,10 +3589,18 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B256" s="4" t="n"/>
-      <c r="C256" s="4" t="n"/>
-      <c r="D256" s="4" t="n"/>
-      <c r="E256" s="4" t="n"/>
+      <c r="B256" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="C256" s="4" t="n">
+        <v>61.58</v>
+      </c>
+      <c r="D256" s="4" t="n">
+        <v>51.47</v>
+      </c>
+      <c r="E256" s="4" t="n">
+        <v>52.05</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
@@ -3048,10 +3608,18 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B257" s="4" t="n"/>
-      <c r="C257" s="4" t="n"/>
-      <c r="D257" s="4" t="n"/>
-      <c r="E257" s="4" t="n"/>
+      <c r="B257" s="4" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="C257" s="4" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="D257" s="4" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="E257" s="4" t="n">
+        <v>96.67</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
@@ -3059,10 +3627,18 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B258" s="4" t="n"/>
-      <c r="C258" s="4" t="n"/>
-      <c r="D258" s="4" t="n"/>
-      <c r="E258" s="4" t="n"/>
+      <c r="B258" s="4" t="n">
+        <v>531.39</v>
+      </c>
+      <c r="C258" s="4" t="n">
+        <v>537.8200000000001</v>
+      </c>
+      <c r="D258" s="4" t="n">
+        <v>535.64</v>
+      </c>
+      <c r="E258" s="4" t="n">
+        <v>533.97</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="3" t="inlineStr">

--- a/rfuse/merged_summary.xlsx
+++ b/rfuse/merged_summary.xlsx
@@ -484,18 +484,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>5714</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>11200</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>16600</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>21600</v>
-      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -503,18 +495,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>6247</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>12900</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>17700</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>23500</v>
-      </c>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -522,18 +506,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>6268</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>19200</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>25000</v>
-      </c>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -542,16 +518,16 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5714</v>
+        <v>5818</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>21600</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="7">
@@ -561,16 +537,16 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6247</v>
+        <v>6324</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>12900</v>
+        <v>11800</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>17700</v>
+        <v>16900</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>23500</v>
+        <v>22300</v>
       </c>
     </row>
     <row r="8">
@@ -580,16 +556,16 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>6268</v>
+        <v>16900</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13000</v>
+        <v>45700</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>19200</v>
+        <v>40300</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>25000</v>
+        <v>40600</v>
       </c>
     </row>
     <row r="12">
@@ -619,18 +595,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>88.40000000000001</v>
-      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -638,18 +606,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -657,18 +617,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>103</v>
-      </c>
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -677,16 +629,16 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>45.7</v>
+        <v>46.4</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>67.8</v>
+        <v>68.2</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>88.40000000000001</v>
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -696,16 +648,16 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>52.9</v>
+        <v>48.1</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>72.40000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>96.2</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -715,16 +667,16 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>25.7</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>53.2</v>
+        <v>187</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>78.40000000000001</v>
+        <v>165</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>103</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
@@ -754,18 +706,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>174.74983</v>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>178.76486</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>180.70354</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <v>184.40112</v>
-      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="4" t="n"/>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -773,18 +717,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
-        <v>159.6543</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>153.38775</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>168.73814</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v>169.44949</v>
-      </c>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="4" t="n"/>
+      <c r="E26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -792,18 +728,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
-        <v>159.08873</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>151.19658</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>154.2982</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v>155.13049</v>
-      </c>
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
@@ -812,16 +740,16 @@
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>174.74983</v>
+        <v>171.70989</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>178.76486</v>
+        <v>176.01606</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>180.70354</v>
+        <v>179.54562</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>184.40112</v>
+        <v>182.23684</v>
       </c>
     </row>
     <row r="29">
@@ -831,16 +759,16 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>159.6543</v>
+        <v>157.71748</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>153.38775</v>
+        <v>169.04784</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>168.73814</v>
+        <v>175.80612</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>169.44949</v>
+        <v>177.18539</v>
       </c>
     </row>
     <row r="30">
@@ -850,16 +778,16 @@
         </is>
       </c>
       <c r="B30" s="4" t="n">
-        <v>159.08873</v>
+        <v>58.74355000000001</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>151.19658</v>
+        <v>41.97553</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>154.2982</v>
+        <v>64.34284</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>155.13049</v>
+        <v>87.98022</v>
       </c>
     </row>
     <row r="34">
@@ -889,18 +817,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
-        <v>2976</v>
-      </c>
-      <c r="C36" s="4" t="n">
-        <v>5535</v>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>7897</v>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v>10200</v>
-      </c>
+      <c r="B36" s="4" t="n"/>
+      <c r="C36" s="4" t="n"/>
+      <c r="D36" s="4" t="n"/>
+      <c r="E36" s="4" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -908,18 +828,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
-        <v>4266</v>
-      </c>
-      <c r="C37" s="4" t="n">
-        <v>7236</v>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>12800</v>
-      </c>
-      <c r="E37" s="4" t="n">
-        <v>11800</v>
-      </c>
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="4" t="n"/>
+      <c r="D37" s="4" t="n"/>
+      <c r="E37" s="4" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
@@ -927,18 +839,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
-        <v>3271</v>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>5610</v>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>7511</v>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v>10200</v>
-      </c>
+      <c r="B38" s="4" t="n"/>
+      <c r="C38" s="4" t="n"/>
+      <c r="D38" s="4" t="n"/>
+      <c r="E38" s="4" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -947,16 +851,16 @@
         </is>
       </c>
       <c r="B39" s="4" t="n">
-        <v>2976</v>
+        <v>3038</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>5535</v>
+        <v>5641</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>7897</v>
+        <v>8084</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>10200</v>
+        <v>9990</v>
       </c>
     </row>
     <row r="40">
@@ -966,16 +870,16 @@
         </is>
       </c>
       <c r="B40" s="4" t="n">
-        <v>4266</v>
+        <v>2820</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>7236</v>
+        <v>4785</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>12800</v>
+        <v>7228</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>11800</v>
+        <v>8770</v>
       </c>
     </row>
     <row r="41">
@@ -985,16 +889,16 @@
         </is>
       </c>
       <c r="B41" s="4" t="n">
-        <v>3271</v>
+        <v>2994</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>5610</v>
+        <v>7013</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>7511</v>
+        <v>10400</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>10200</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="45">
@@ -1024,18 +928,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
-        <v>390</v>
-      </c>
-      <c r="C47" s="4" t="n">
-        <v>726</v>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>1035</v>
-      </c>
-      <c r="E47" s="4" t="n">
-        <v>1342</v>
-      </c>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="4" t="n"/>
+      <c r="D47" s="4" t="n"/>
+      <c r="E47" s="4" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
@@ -1043,18 +939,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
-        <v>559</v>
-      </c>
-      <c r="C48" s="4" t="n">
-        <v>949</v>
-      </c>
-      <c r="D48" s="4" t="n">
-        <v>1678</v>
-      </c>
-      <c r="E48" s="4" t="n">
-        <v>1543</v>
-      </c>
+      <c r="B48" s="4" t="n"/>
+      <c r="C48" s="4" t="n"/>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="4" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
@@ -1062,18 +950,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
-        <v>429</v>
-      </c>
-      <c r="C49" s="4" t="n">
-        <v>735</v>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>984</v>
-      </c>
-      <c r="E49" s="4" t="n">
-        <v>1342</v>
-      </c>
+      <c r="B49" s="4" t="n"/>
+      <c r="C49" s="4" t="n"/>
+      <c r="D49" s="4" t="n"/>
+      <c r="E49" s="4" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -1082,16 +962,16 @@
         </is>
       </c>
       <c r="B50" s="4" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1035</v>
+        <v>1060</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1342</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="51">
@@ -1101,16 +981,16 @@
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>559</v>
+        <v>370</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>949</v>
+        <v>627</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1678</v>
+        <v>947</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1543</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="52">
@@ -1120,16 +1000,16 @@
         </is>
       </c>
       <c r="B52" s="4" t="n">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>735</v>
+        <v>919</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>984</v>
+        <v>1360</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1342</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="56">
@@ -1159,18 +1039,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
-        <v>334.88</v>
-      </c>
-      <c r="C58" s="4" t="n">
-        <v>360.47</v>
-      </c>
-      <c r="D58" s="4" t="n">
-        <v>375.48</v>
-      </c>
-      <c r="E58" s="4" t="n">
-        <v>386.45</v>
-      </c>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="4" t="n"/>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="4" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -1178,18 +1050,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
-        <v>233.29</v>
-      </c>
-      <c r="C59" s="4" t="n">
-        <v>270.66</v>
-      </c>
-      <c r="D59" s="4" t="n">
-        <v>222.53</v>
-      </c>
-      <c r="E59" s="4" t="n">
-        <v>330.77</v>
-      </c>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="4" t="n"/>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="4" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
@@ -1197,18 +1061,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
-        <v>297.54</v>
-      </c>
-      <c r="C60" s="4" t="n">
-        <v>347.44</v>
-      </c>
-      <c r="D60" s="4" t="n">
-        <v>389.63</v>
-      </c>
-      <c r="E60" s="4" t="n">
-        <v>377.76</v>
-      </c>
+      <c r="B60" s="4" t="n"/>
+      <c r="C60" s="4" t="n"/>
+      <c r="D60" s="4" t="n"/>
+      <c r="E60" s="4" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
@@ -1217,16 +1073,16 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>334.88</v>
+        <v>328.5</v>
       </c>
       <c r="C61" s="4" t="n">
-        <v>360.47</v>
+        <v>352.23</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>375.48</v>
+        <v>364.8</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>386.45</v>
+        <v>381.38</v>
       </c>
     </row>
     <row r="62">
@@ -1236,16 +1092,16 @@
         </is>
       </c>
       <c r="B62" s="4" t="n">
-        <v>233.29</v>
+        <v>353.96</v>
       </c>
       <c r="C62" s="4" t="n">
-        <v>270.66</v>
+        <v>408.66</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>222.53</v>
+        <v>401.57</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>330.77</v>
+        <v>448.9</v>
       </c>
     </row>
     <row r="63">
@@ -1255,16 +1111,16 @@
         </is>
       </c>
       <c r="B63" s="4" t="n">
-        <v>297.54</v>
+        <v>329.08</v>
       </c>
       <c r="C63" s="4" t="n">
-        <v>347.44</v>
+        <v>278.5</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>389.63</v>
+        <v>282.36</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>377.76</v>
+        <v>325.25</v>
       </c>
     </row>
     <row r="67">
@@ -1294,18 +1150,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C69" s="4" t="n">
-        <v>28600</v>
-      </c>
-      <c r="D69" s="4" t="n">
-        <v>41700</v>
-      </c>
-      <c r="E69" s="4" t="n">
-        <v>70400</v>
-      </c>
+      <c r="B69" s="4" t="n"/>
+      <c r="C69" s="4" t="n"/>
+      <c r="D69" s="4" t="n"/>
+      <c r="E69" s="4" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
@@ -1313,18 +1161,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
-        <v>19600</v>
-      </c>
-      <c r="C70" s="4" t="n">
-        <v>36100</v>
-      </c>
-      <c r="D70" s="4" t="n">
-        <v>55600</v>
-      </c>
-      <c r="E70" s="4" t="n">
-        <v>56800</v>
-      </c>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="4" t="n"/>
+      <c r="D70" s="4" t="n"/>
+      <c r="E70" s="4" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
@@ -1332,18 +1172,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
-        <v>19700</v>
-      </c>
-      <c r="C71" s="4" t="n">
-        <v>11200</v>
-      </c>
-      <c r="D71" s="4" t="n">
-        <v>15400</v>
-      </c>
-      <c r="E71" s="4" t="n">
-        <v>61600</v>
-      </c>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="4" t="n"/>
+      <c r="D71" s="4" t="n"/>
+      <c r="E71" s="4" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
@@ -1352,16 +1184,16 @@
         </is>
       </c>
       <c r="B72" s="4" t="n">
-        <v>37800</v>
+        <v>17700</v>
       </c>
       <c r="C72" s="4" t="n">
-        <v>28600</v>
+        <v>35800</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>41700</v>
+        <v>38300</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>70400</v>
+        <v>47200</v>
       </c>
     </row>
     <row r="73">
@@ -1371,16 +1203,16 @@
         </is>
       </c>
       <c r="B73" s="4" t="n">
-        <v>19600</v>
+        <v>57300</v>
       </c>
       <c r="C73" s="4" t="n">
-        <v>36100</v>
+        <v>61700</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>55600</v>
+        <v>86300</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>56800</v>
+        <v>88600</v>
       </c>
     </row>
     <row r="74">
@@ -1390,16 +1222,16 @@
         </is>
       </c>
       <c r="B74" s="4" t="n">
-        <v>19700</v>
+        <v>46200</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>11200</v>
+        <v>62800</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>15400</v>
+        <v>74100</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>61600</v>
+        <v>96300</v>
       </c>
     </row>
     <row r="78">
@@ -1429,18 +1261,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
-        <v>155</v>
-      </c>
-      <c r="C80" s="4" t="n">
-        <v>117</v>
-      </c>
-      <c r="D80" s="4" t="n">
-        <v>171</v>
-      </c>
-      <c r="E80" s="4" t="n">
-        <v>288</v>
-      </c>
+      <c r="B80" s="4" t="n"/>
+      <c r="C80" s="4" t="n"/>
+      <c r="D80" s="4" t="n"/>
+      <c r="E80" s="4" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
@@ -1448,18 +1272,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="C81" s="4" t="n">
-        <v>148</v>
-      </c>
-      <c r="D81" s="4" t="n">
-        <v>228</v>
-      </c>
-      <c r="E81" s="4" t="n">
-        <v>233</v>
-      </c>
+      <c r="B81" s="4" t="n"/>
+      <c r="C81" s="4" t="n"/>
+      <c r="D81" s="4" t="n"/>
+      <c r="E81" s="4" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
@@ -1467,18 +1283,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="C82" s="4" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="D82" s="4" t="n">
-        <v>63</v>
-      </c>
-      <c r="E82" s="4" t="n">
-        <v>252</v>
-      </c>
+      <c r="B82" s="4" t="n"/>
+      <c r="C82" s="4" t="n"/>
+      <c r="D82" s="4" t="n"/>
+      <c r="E82" s="4" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
@@ -1487,16 +1295,16 @@
         </is>
       </c>
       <c r="B83" s="4" t="n">
-        <v>155</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C83" s="4" t="n">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>288</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84">
@@ -1506,16 +1314,16 @@
         </is>
       </c>
       <c r="B84" s="4" t="n">
-        <v>80.40000000000001</v>
+        <v>235</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>233</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85">
@@ -1525,16 +1333,16 @@
         </is>
       </c>
       <c r="B85" s="4" t="n">
-        <v>80.7</v>
+        <v>189</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>45.9</v>
+        <v>257</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>63</v>
+        <v>304</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>252</v>
+        <v>394</v>
       </c>
     </row>
     <row r="89">
@@ -1564,18 +1372,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
-        <v>2.79167</v>
-      </c>
-      <c r="C91" s="4" t="n">
-        <v>25.51849</v>
-      </c>
-      <c r="D91" s="4" t="n">
-        <v>23.20088</v>
-      </c>
-      <c r="E91" s="4" t="n">
-        <v>2.45775</v>
-      </c>
+      <c r="B91" s="4" t="n"/>
+      <c r="C91" s="4" t="n"/>
+      <c r="D91" s="4" t="n"/>
+      <c r="E91" s="4" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
@@ -1583,18 +1383,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
-        <v>46.31</v>
-      </c>
-      <c r="C92" s="4" t="n">
-        <v>33.76</v>
-      </c>
-      <c r="D92" s="4" t="n">
-        <v>28.39</v>
-      </c>
-      <c r="E92" s="4" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="B92" s="4" t="n"/>
+      <c r="C92" s="4" t="n"/>
+      <c r="D92" s="4" t="n"/>
+      <c r="E92" s="4" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
@@ -1602,18 +1394,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
-        <v>44.49</v>
-      </c>
-      <c r="C93" s="4" t="n">
-        <v>102.23</v>
-      </c>
-      <c r="D93" s="4" t="n">
-        <v>80.39</v>
-      </c>
-      <c r="E93" s="4" t="n">
-        <v>32.43</v>
-      </c>
+      <c r="B93" s="4" t="n"/>
+      <c r="C93" s="4" t="n"/>
+      <c r="D93" s="4" t="n"/>
+      <c r="E93" s="4" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
@@ -1622,16 +1406,16 @@
         </is>
       </c>
       <c r="B94" s="4" t="n">
-        <v>2.79167</v>
+        <v>27.2554</v>
       </c>
       <c r="C94" s="4" t="n">
-        <v>25.51849</v>
+        <v>28.1189</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>23.20088</v>
+        <v>28.55453</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>2.45775</v>
+        <v>28.997</v>
       </c>
     </row>
     <row r="95">
@@ -1641,16 +1425,16 @@
         </is>
       </c>
       <c r="B95" s="4" t="n">
-        <v>46.31</v>
+        <v>12.02</v>
       </c>
       <c r="C95" s="4" t="n">
-        <v>33.76</v>
+        <v>14.03</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>28.39</v>
+        <v>11.31</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>42.81</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="96">
@@ -1660,16 +1444,16 @@
         </is>
       </c>
       <c r="B96" s="4" t="n">
-        <v>44.49</v>
+        <v>12.7</v>
       </c>
       <c r="C96" s="4" t="n">
-        <v>102.23</v>
+        <v>11.75</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>80.39</v>
+        <v>14.41</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>32.43</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="100">
@@ -1699,18 +1483,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
-        <v>1508</v>
-      </c>
-      <c r="C102" s="4" t="n">
-        <v>1546</v>
-      </c>
-      <c r="D102" s="4" t="n">
-        <v>1862</v>
-      </c>
-      <c r="E102" s="4" t="n">
-        <v>2067</v>
-      </c>
+      <c r="B102" s="4" t="n"/>
+      <c r="C102" s="4" t="n"/>
+      <c r="D102" s="4" t="n"/>
+      <c r="E102" s="4" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
@@ -1718,18 +1494,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
-        <v>1224</v>
-      </c>
-      <c r="C103" s="4" t="n">
-        <v>2235</v>
-      </c>
-      <c r="D103" s="4" t="n">
-        <v>3147</v>
-      </c>
-      <c r="E103" s="4" t="n">
-        <v>3138</v>
-      </c>
+      <c r="B103" s="4" t="n"/>
+      <c r="C103" s="4" t="n"/>
+      <c r="D103" s="4" t="n"/>
+      <c r="E103" s="4" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
@@ -1737,18 +1505,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
-        <v>1179</v>
-      </c>
-      <c r="C104" s="4" t="n">
-        <v>2398</v>
-      </c>
-      <c r="D104" s="4" t="n">
-        <v>2752</v>
-      </c>
-      <c r="E104" s="4" t="n">
-        <v>2864</v>
-      </c>
+      <c r="B104" s="4" t="n"/>
+      <c r="C104" s="4" t="n"/>
+      <c r="D104" s="4" t="n"/>
+      <c r="E104" s="4" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
@@ -1757,16 +1517,16 @@
         </is>
       </c>
       <c r="B105" s="4" t="n">
-        <v>1508</v>
+        <v>1484</v>
       </c>
       <c r="C105" s="4" t="n">
-        <v>1546</v>
+        <v>1572</v>
       </c>
       <c r="D105" s="4" t="n">
-        <v>1862</v>
+        <v>1989</v>
       </c>
       <c r="E105" s="4" t="n">
-        <v>2067</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="106">
@@ -1776,16 +1536,16 @@
         </is>
       </c>
       <c r="B106" s="4" t="n">
-        <v>1224</v>
+        <v>1984</v>
       </c>
       <c r="C106" s="4" t="n">
-        <v>2235</v>
+        <v>2209</v>
       </c>
       <c r="D106" s="4" t="n">
-        <v>3147</v>
+        <v>3038</v>
       </c>
       <c r="E106" s="4" t="n">
-        <v>3138</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="107">
@@ -1795,16 +1555,16 @@
         </is>
       </c>
       <c r="B107" s="4" t="n">
-        <v>1179</v>
+        <v>1662</v>
       </c>
       <c r="C107" s="4" t="n">
-        <v>2398</v>
+        <v>2455</v>
       </c>
       <c r="D107" s="4" t="n">
-        <v>2752</v>
+        <v>2522</v>
       </c>
       <c r="E107" s="4" t="n">
-        <v>2864</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="111">
@@ -1834,18 +1594,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
-        <v>198</v>
-      </c>
-      <c r="C113" s="4" t="n">
-        <v>203</v>
-      </c>
-      <c r="D113" s="4" t="n">
-        <v>244</v>
-      </c>
-      <c r="E113" s="4" t="n">
-        <v>271</v>
-      </c>
+      <c r="B113" s="4" t="n"/>
+      <c r="C113" s="4" t="n"/>
+      <c r="D113" s="4" t="n"/>
+      <c r="E113" s="4" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
@@ -1853,18 +1605,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
-        <v>161</v>
-      </c>
-      <c r="C114" s="4" t="n">
-        <v>293</v>
-      </c>
-      <c r="D114" s="4" t="n">
-        <v>413</v>
-      </c>
-      <c r="E114" s="4" t="n">
-        <v>411</v>
-      </c>
+      <c r="B114" s="4" t="n"/>
+      <c r="C114" s="4" t="n"/>
+      <c r="D114" s="4" t="n"/>
+      <c r="E114" s="4" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
@@ -1872,18 +1616,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
-        <v>155</v>
-      </c>
-      <c r="C115" s="4" t="n">
-        <v>314</v>
-      </c>
-      <c r="D115" s="4" t="n">
-        <v>361</v>
-      </c>
-      <c r="E115" s="4" t="n">
-        <v>375</v>
-      </c>
+      <c r="B115" s="4" t="n"/>
+      <c r="C115" s="4" t="n"/>
+      <c r="D115" s="4" t="n"/>
+      <c r="E115" s="4" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
@@ -1892,16 +1628,16 @@
         </is>
       </c>
       <c r="B116" s="4" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C116" s="4" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D116" s="4" t="n">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="E116" s="4" t="n">
-        <v>271</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117">
@@ -1911,16 +1647,16 @@
         </is>
       </c>
       <c r="B117" s="4" t="n">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="C117" s="4" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D117" s="4" t="n">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="E117" s="4" t="n">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118">
@@ -1930,16 +1666,16 @@
         </is>
       </c>
       <c r="B118" s="4" t="n">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="C118" s="4" t="n">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D118" s="4" t="n">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="E118" s="4" t="n">
-        <v>375</v>
+        <v>412</v>
       </c>
     </row>
     <row r="122">
@@ -1969,18 +1705,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
-        <v>108.79</v>
-      </c>
-      <c r="C124" s="4" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="D124" s="4" t="n">
-        <v>67.29000000000001</v>
-      </c>
-      <c r="E124" s="4" t="n">
-        <v>56.96</v>
-      </c>
+      <c r="B124" s="4" t="n"/>
+      <c r="C124" s="4" t="n"/>
+      <c r="D124" s="4" t="n"/>
+      <c r="E124" s="4" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
@@ -1988,18 +1716,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
-        <v>337.48</v>
-      </c>
-      <c r="C125" s="4" t="n">
-        <v>228.05</v>
-      </c>
-      <c r="D125" s="4" t="n">
-        <v>196.47</v>
-      </c>
-      <c r="E125" s="4" t="n">
-        <v>285.35</v>
-      </c>
+      <c r="B125" s="4" t="n"/>
+      <c r="C125" s="4" t="n"/>
+      <c r="D125" s="4" t="n"/>
+      <c r="E125" s="4" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
@@ -2007,18 +1727,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
-        <v>493.49</v>
-      </c>
-      <c r="C126" s="4" t="n">
-        <v>399.62</v>
-      </c>
-      <c r="D126" s="4" t="n">
-        <v>455.96</v>
-      </c>
-      <c r="E126" s="4" t="n">
-        <v>364.17</v>
-      </c>
+      <c r="B126" s="4" t="n"/>
+      <c r="C126" s="4" t="n"/>
+      <c r="D126" s="4" t="n"/>
+      <c r="E126" s="4" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
@@ -2027,16 +1739,16 @@
         </is>
       </c>
       <c r="B127" s="4" t="n">
-        <v>108.79</v>
+        <v>61.33</v>
       </c>
       <c r="C127" s="4" t="n">
-        <v>69.8</v>
+        <v>58.93</v>
       </c>
       <c r="D127" s="4" t="n">
-        <v>67.29000000000001</v>
+        <v>60.81</v>
       </c>
       <c r="E127" s="4" t="n">
-        <v>56.96</v>
+        <v>69.48</v>
       </c>
     </row>
     <row r="128">
@@ -2046,16 +1758,16 @@
         </is>
       </c>
       <c r="B128" s="4" t="n">
-        <v>337.48</v>
+        <v>120.41</v>
       </c>
       <c r="C128" s="4" t="n">
-        <v>228.05</v>
+        <v>134.65</v>
       </c>
       <c r="D128" s="4" t="n">
-        <v>196.47</v>
+        <v>143.05</v>
       </c>
       <c r="E128" s="4" t="n">
-        <v>285.35</v>
+        <v>146.41</v>
       </c>
     </row>
     <row r="129">
@@ -2065,16 +1777,16 @@
         </is>
       </c>
       <c r="B129" s="4" t="n">
-        <v>493.49</v>
+        <v>165.71</v>
       </c>
       <c r="C129" s="4" t="n">
-        <v>399.62</v>
+        <v>176.76</v>
       </c>
       <c r="D129" s="4" t="n">
-        <v>455.96</v>
+        <v>177.63</v>
       </c>
       <c r="E129" s="4" t="n">
-        <v>364.17</v>
+        <v>178.67</v>
       </c>
     </row>
     <row r="133">
@@ -2104,18 +1816,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
-        <v>231000</v>
-      </c>
-      <c r="C135" s="4" t="n">
-        <v>324000</v>
-      </c>
-      <c r="D135" s="4" t="n">
-        <v>429000</v>
-      </c>
-      <c r="E135" s="4" t="n">
-        <v>502000</v>
-      </c>
+      <c r="B135" s="4" t="n"/>
+      <c r="C135" s="4" t="n"/>
+      <c r="D135" s="4" t="n"/>
+      <c r="E135" s="4" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
@@ -2123,18 +1827,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
-        <v>218000</v>
-      </c>
-      <c r="C136" s="4" t="n">
-        <v>279000</v>
-      </c>
-      <c r="D136" s="4" t="n">
-        <v>371000</v>
-      </c>
-      <c r="E136" s="4" t="n">
-        <v>749000</v>
-      </c>
+      <c r="B136" s="4" t="n"/>
+      <c r="C136" s="4" t="n"/>
+      <c r="D136" s="4" t="n"/>
+      <c r="E136" s="4" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
@@ -2142,18 +1838,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
-        <v>116000</v>
-      </c>
-      <c r="C137" s="4" t="n">
-        <v>229000</v>
-      </c>
-      <c r="D137" s="4" t="n">
-        <v>349000</v>
-      </c>
-      <c r="E137" s="4" t="n">
-        <v>449000</v>
-      </c>
+      <c r="B137" s="4" t="n"/>
+      <c r="C137" s="4" t="n"/>
+      <c r="D137" s="4" t="n"/>
+      <c r="E137" s="4" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
@@ -2162,13 +1850,13 @@
         </is>
       </c>
       <c r="B138" s="4" t="n">
-        <v>231000</v>
+        <v>221000</v>
       </c>
       <c r="C138" s="4" t="n">
-        <v>324000</v>
+        <v>305000</v>
       </c>
       <c r="D138" s="4" t="n">
-        <v>429000</v>
+        <v>443000</v>
       </c>
       <c r="E138" s="4" t="n">
         <v>502000</v>
@@ -2181,16 +1869,16 @@
         </is>
       </c>
       <c r="B139" s="4" t="n">
-        <v>218000</v>
+        <v>197000</v>
       </c>
       <c r="C139" s="4" t="n">
-        <v>279000</v>
+        <v>323000</v>
       </c>
       <c r="D139" s="4" t="n">
-        <v>371000</v>
+        <v>352000</v>
       </c>
       <c r="E139" s="4" t="n">
-        <v>749000</v>
+        <v>428000</v>
       </c>
     </row>
     <row r="140">
@@ -2200,16 +1888,16 @@
         </is>
       </c>
       <c r="B140" s="4" t="n">
-        <v>116000</v>
+        <v>155000</v>
       </c>
       <c r="C140" s="4" t="n">
-        <v>229000</v>
+        <v>270000</v>
       </c>
       <c r="D140" s="4" t="n">
-        <v>349000</v>
+        <v>365000</v>
       </c>
       <c r="E140" s="4" t="n">
-        <v>449000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="144">
@@ -2239,18 +1927,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
-        <v>945</v>
-      </c>
-      <c r="C146" s="4" t="n">
-        <v>1329</v>
-      </c>
-      <c r="D146" s="4" t="n">
-        <v>1758</v>
-      </c>
-      <c r="E146" s="4" t="n">
-        <v>2057</v>
-      </c>
+      <c r="B146" s="4" t="n"/>
+      <c r="C146" s="4" t="n"/>
+      <c r="D146" s="4" t="n"/>
+      <c r="E146" s="4" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
@@ -2258,18 +1938,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
-        <v>895</v>
-      </c>
-      <c r="C147" s="4" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D147" s="4" t="n">
-        <v>1519</v>
-      </c>
-      <c r="E147" s="4" t="n">
-        <v>3068</v>
-      </c>
+      <c r="B147" s="4" t="n"/>
+      <c r="C147" s="4" t="n"/>
+      <c r="D147" s="4" t="n"/>
+      <c r="E147" s="4" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
@@ -2277,18 +1949,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
-        <v>474</v>
-      </c>
-      <c r="C148" s="4" t="n">
-        <v>939</v>
-      </c>
-      <c r="D148" s="4" t="n">
-        <v>1428</v>
-      </c>
-      <c r="E148" s="4" t="n">
-        <v>1839</v>
-      </c>
+      <c r="B148" s="4" t="n"/>
+      <c r="C148" s="4" t="n"/>
+      <c r="D148" s="4" t="n"/>
+      <c r="E148" s="4" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
@@ -2297,13 +1961,13 @@
         </is>
       </c>
       <c r="B149" s="4" t="n">
-        <v>945</v>
+        <v>907</v>
       </c>
       <c r="C149" s="4" t="n">
-        <v>1329</v>
+        <v>1249</v>
       </c>
       <c r="D149" s="4" t="n">
-        <v>1758</v>
+        <v>1814</v>
       </c>
       <c r="E149" s="4" t="n">
         <v>2057</v>
@@ -2316,16 +1980,16 @@
         </is>
       </c>
       <c r="B150" s="4" t="n">
-        <v>895</v>
+        <v>809</v>
       </c>
       <c r="C150" s="4" t="n">
-        <v>1142</v>
+        <v>1322</v>
       </c>
       <c r="D150" s="4" t="n">
-        <v>1519</v>
+        <v>1443</v>
       </c>
       <c r="E150" s="4" t="n">
-        <v>3068</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="151">
@@ -2335,16 +1999,16 @@
         </is>
       </c>
       <c r="B151" s="4" t="n">
-        <v>474</v>
+        <v>636</v>
       </c>
       <c r="C151" s="4" t="n">
-        <v>939</v>
+        <v>1105</v>
       </c>
       <c r="D151" s="4" t="n">
-        <v>1428</v>
+        <v>1497</v>
       </c>
       <c r="E151" s="4" t="n">
-        <v>1839</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="155">
@@ -2374,18 +2038,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n">
-        <v>4.19258</v>
-      </c>
-      <c r="C157" s="4" t="n">
-        <v>6.03486</v>
-      </c>
-      <c r="D157" s="4" t="n">
-        <v>6.85142</v>
-      </c>
-      <c r="E157" s="4" t="n">
-        <v>7.83961</v>
-      </c>
+      <c r="B157" s="4" t="n"/>
+      <c r="C157" s="4" t="n"/>
+      <c r="D157" s="4" t="n"/>
+      <c r="E157" s="4" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
@@ -2393,18 +2049,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n">
-        <v>4.46817</v>
-      </c>
-      <c r="C158" s="4" t="n">
-        <v>5.89138</v>
-      </c>
-      <c r="D158" s="4" t="n">
-        <v>7.85371</v>
-      </c>
-      <c r="E158" s="4" t="n">
-        <v>4.95728</v>
-      </c>
+      <c r="B158" s="4" t="n"/>
+      <c r="C158" s="4" t="n"/>
+      <c r="D158" s="4" t="n"/>
+      <c r="E158" s="4" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
@@ -2412,18 +2060,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n">
-        <v>8.378</v>
-      </c>
-      <c r="C159" s="4" t="n">
-        <v>8.376760000000001</v>
-      </c>
-      <c r="D159" s="4" t="n">
-        <v>8.25699</v>
-      </c>
-      <c r="E159" s="4" t="n">
-        <v>8.5496</v>
-      </c>
+      <c r="B159" s="4" t="n"/>
+      <c r="C159" s="4" t="n"/>
+      <c r="D159" s="4" t="n"/>
+      <c r="E159" s="4" t="n"/>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
@@ -2432,16 +2072,16 @@
         </is>
       </c>
       <c r="B160" s="4" t="n">
-        <v>4.19258</v>
+        <v>4.39508</v>
       </c>
       <c r="C160" s="4" t="n">
-        <v>6.03486</v>
+        <v>6.43238</v>
       </c>
       <c r="D160" s="4" t="n">
-        <v>6.85142</v>
+        <v>6.61436</v>
       </c>
       <c r="E160" s="4" t="n">
-        <v>7.83961</v>
+        <v>7.78851</v>
       </c>
     </row>
     <row r="161">
@@ -2451,16 +2091,16 @@
         </is>
       </c>
       <c r="B161" s="4" t="n">
-        <v>4.46817</v>
+        <v>4.92645</v>
       </c>
       <c r="C161" s="4" t="n">
-        <v>5.89138</v>
+        <v>5.7801</v>
       </c>
       <c r="D161" s="4" t="n">
-        <v>7.85371</v>
+        <v>8.12196</v>
       </c>
       <c r="E161" s="4" t="n">
-        <v>4.95728</v>
+        <v>8.971969999999999</v>
       </c>
     </row>
     <row r="162">
@@ -2470,16 +2110,16 @@
         </is>
       </c>
       <c r="B162" s="4" t="n">
-        <v>8.378</v>
+        <v>6.18641</v>
       </c>
       <c r="C162" s="4" t="n">
-        <v>8.376760000000001</v>
+        <v>6.950159999999999</v>
       </c>
       <c r="D162" s="4" t="n">
-        <v>8.25699</v>
+        <v>7.88361</v>
       </c>
       <c r="E162" s="4" t="n">
-        <v>8.5496</v>
+        <v>7.97429</v>
       </c>
     </row>
     <row r="166">
@@ -2509,18 +2149,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n">
-        <v>5885</v>
-      </c>
-      <c r="C168" s="4" t="n">
-        <v>10400</v>
-      </c>
-      <c r="D168" s="4" t="n">
-        <v>13900</v>
-      </c>
-      <c r="E168" s="4" t="n">
-        <v>16300</v>
-      </c>
+      <c r="B168" s="4" t="n"/>
+      <c r="C168" s="4" t="n"/>
+      <c r="D168" s="4" t="n"/>
+      <c r="E168" s="4" t="n"/>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
@@ -2528,18 +2160,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n">
-        <v>12000</v>
-      </c>
-      <c r="C169" s="4" t="n">
-        <v>23800</v>
-      </c>
-      <c r="D169" s="4" t="n">
-        <v>18000</v>
-      </c>
-      <c r="E169" s="4" t="n">
-        <v>16700</v>
-      </c>
+      <c r="B169" s="4" t="n"/>
+      <c r="C169" s="4" t="n"/>
+      <c r="D169" s="4" t="n"/>
+      <c r="E169" s="4" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
@@ -2547,18 +2171,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n">
-        <v>3580</v>
-      </c>
-      <c r="C170" s="4" t="n">
-        <v>7160</v>
-      </c>
-      <c r="D170" s="4" t="n">
-        <v>11900</v>
-      </c>
-      <c r="E170" s="4" t="n">
-        <v>14900</v>
-      </c>
+      <c r="B170" s="4" t="n"/>
+      <c r="C170" s="4" t="n"/>
+      <c r="D170" s="4" t="n"/>
+      <c r="E170" s="4" t="n"/>
     </row>
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
@@ -2567,16 +2183,16 @@
         </is>
       </c>
       <c r="B171" s="4" t="n">
-        <v>5885</v>
+        <v>5626</v>
       </c>
       <c r="C171" s="4" t="n">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="D171" s="4" t="n">
-        <v>13900</v>
+        <v>15100</v>
       </c>
       <c r="E171" s="4" t="n">
-        <v>16300</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="172">
@@ -2586,16 +2202,16 @@
         </is>
       </c>
       <c r="B172" s="4" t="n">
-        <v>12000</v>
+        <v>4718</v>
       </c>
       <c r="C172" s="4" t="n">
-        <v>23800</v>
+        <v>8062</v>
       </c>
       <c r="D172" s="4" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="E172" s="4" t="n">
-        <v>16700</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="173">
@@ -2605,16 +2221,16 @@
         </is>
       </c>
       <c r="B173" s="4" t="n">
-        <v>3580</v>
+        <v>5145</v>
       </c>
       <c r="C173" s="4" t="n">
-        <v>7160</v>
+        <v>8943</v>
       </c>
       <c r="D173" s="4" t="n">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="E173" s="4" t="n">
-        <v>14900</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="177">
@@ -2644,18 +2260,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n">
-        <v>771</v>
-      </c>
-      <c r="C179" s="4" t="n">
-        <v>1363</v>
-      </c>
-      <c r="D179" s="4" t="n">
-        <v>1822</v>
-      </c>
-      <c r="E179" s="4" t="n">
-        <v>2139</v>
-      </c>
+      <c r="B179" s="4" t="n"/>
+      <c r="C179" s="4" t="n"/>
+      <c r="D179" s="4" t="n"/>
+      <c r="E179" s="4" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
@@ -2663,18 +2271,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n">
-        <v>1699</v>
-      </c>
-      <c r="C180" s="4" t="n">
-        <v>3121</v>
-      </c>
-      <c r="D180" s="4" t="n">
-        <v>2486</v>
-      </c>
-      <c r="E180" s="4" t="n">
-        <v>2182</v>
-      </c>
+      <c r="B180" s="4" t="n"/>
+      <c r="C180" s="4" t="n"/>
+      <c r="D180" s="4" t="n"/>
+      <c r="E180" s="4" t="n"/>
     </row>
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
@@ -2682,18 +2282,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n">
-        <v>469</v>
-      </c>
-      <c r="C181" s="4" t="n">
-        <v>939</v>
-      </c>
-      <c r="D181" s="4" t="n">
-        <v>1561</v>
-      </c>
-      <c r="E181" s="4" t="n">
-        <v>1952</v>
-      </c>
+      <c r="B181" s="4" t="n"/>
+      <c r="C181" s="4" t="n"/>
+      <c r="D181" s="4" t="n"/>
+      <c r="E181" s="4" t="n"/>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
@@ -2702,16 +2294,16 @@
         </is>
       </c>
       <c r="B182" s="4" t="n">
-        <v>771</v>
+        <v>737</v>
       </c>
       <c r="C182" s="4" t="n">
-        <v>1363</v>
+        <v>1384</v>
       </c>
       <c r="D182" s="4" t="n">
-        <v>1822</v>
+        <v>1974</v>
       </c>
       <c r="E182" s="4" t="n">
-        <v>2139</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="183">
@@ -2721,16 +2313,16 @@
         </is>
       </c>
       <c r="B183" s="4" t="n">
-        <v>1699</v>
+        <v>619</v>
       </c>
       <c r="C183" s="4" t="n">
-        <v>3121</v>
+        <v>1057</v>
       </c>
       <c r="D183" s="4" t="n">
-        <v>2486</v>
+        <v>1643</v>
       </c>
       <c r="E183" s="4" t="n">
-        <v>2182</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="184">
@@ -2740,16 +2332,16 @@
         </is>
       </c>
       <c r="B184" s="4" t="n">
-        <v>469</v>
+        <v>674</v>
       </c>
       <c r="C184" s="4" t="n">
-        <v>939</v>
+        <v>1172</v>
       </c>
       <c r="D184" s="4" t="n">
-        <v>1561</v>
+        <v>1592</v>
       </c>
       <c r="E184" s="4" t="n">
-        <v>1952</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="188">
@@ -2779,18 +2371,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n">
-        <v>168.7</v>
-      </c>
-      <c r="C190" s="4" t="n">
-        <v>186.45</v>
-      </c>
-      <c r="D190" s="4" t="n">
-        <v>213.89</v>
-      </c>
-      <c r="E190" s="4" t="n">
-        <v>243.23</v>
-      </c>
+      <c r="B190" s="4" t="n"/>
+      <c r="C190" s="4" t="n"/>
+      <c r="D190" s="4" t="n"/>
+      <c r="E190" s="4" t="n"/>
     </row>
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
@@ -2798,18 +2382,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n">
-        <v>75.87</v>
-      </c>
-      <c r="C191" s="4" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="D191" s="4" t="n">
-        <v>156.11</v>
-      </c>
-      <c r="E191" s="4" t="n">
-        <v>235.38</v>
-      </c>
+      <c r="B191" s="4" t="n"/>
+      <c r="C191" s="4" t="n"/>
+      <c r="D191" s="4" t="n"/>
+      <c r="E191" s="4" t="n"/>
     </row>
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
@@ -2817,18 +2393,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n">
-        <v>272.26</v>
-      </c>
-      <c r="C192" s="4" t="n">
-        <v>273.29</v>
-      </c>
-      <c r="D192" s="4" t="n">
-        <v>245.7</v>
-      </c>
-      <c r="E192" s="4" t="n">
-        <v>256.77</v>
-      </c>
+      <c r="B192" s="4" t="n"/>
+      <c r="C192" s="4" t="n"/>
+      <c r="D192" s="4" t="n"/>
+      <c r="E192" s="4" t="n"/>
     </row>
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
@@ -2837,16 +2405,16 @@
         </is>
       </c>
       <c r="B193" s="4" t="n">
-        <v>168.7</v>
+        <v>177.06</v>
       </c>
       <c r="C193" s="4" t="n">
-        <v>186.45</v>
+        <v>188.31</v>
       </c>
       <c r="D193" s="4" t="n">
-        <v>213.89</v>
+        <v>196.97</v>
       </c>
       <c r="E193" s="4" t="n">
-        <v>243.23</v>
+        <v>245.14</v>
       </c>
     </row>
     <row r="194">
@@ -2856,16 +2424,16 @@
         </is>
       </c>
       <c r="B194" s="4" t="n">
-        <v>75.87</v>
+        <v>210.46</v>
       </c>
       <c r="C194" s="4" t="n">
-        <v>81.62</v>
+        <v>237.17</v>
       </c>
       <c r="D194" s="4" t="n">
-        <v>156.11</v>
+        <v>234.55</v>
       </c>
       <c r="E194" s="4" t="n">
-        <v>235.38</v>
+        <v>285.8</v>
       </c>
     </row>
     <row r="195">
@@ -2875,16 +2443,16 @@
         </is>
       </c>
       <c r="B195" s="4" t="n">
-        <v>272.26</v>
+        <v>187.85</v>
       </c>
       <c r="C195" s="4" t="n">
-        <v>273.29</v>
+        <v>217.55</v>
       </c>
       <c r="D195" s="4" t="n">
-        <v>245.7</v>
+        <v>236.58</v>
       </c>
       <c r="E195" s="4" t="n">
-        <v>256.77</v>
+        <v>251.91</v>
       </c>
     </row>
     <row r="199">
@@ -2914,18 +2482,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B201" s="4" t="n">
-        <v>129000</v>
-      </c>
-      <c r="C201" s="4" t="n">
-        <v>180000</v>
-      </c>
-      <c r="D201" s="4" t="n">
-        <v>246000</v>
-      </c>
-      <c r="E201" s="4" t="n">
-        <v>274000</v>
-      </c>
+      <c r="B201" s="4" t="n"/>
+      <c r="C201" s="4" t="n"/>
+      <c r="D201" s="4" t="n"/>
+      <c r="E201" s="4" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
@@ -2933,18 +2493,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B202" s="4" t="n">
-        <v>57200</v>
-      </c>
-      <c r="C202" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="D202" s="4" t="n">
-        <v>144000</v>
-      </c>
-      <c r="E202" s="4" t="n">
-        <v>176000</v>
-      </c>
+      <c r="B202" s="4" t="n"/>
+      <c r="C202" s="4" t="n"/>
+      <c r="D202" s="4" t="n"/>
+      <c r="E202" s="4" t="n"/>
     </row>
     <row r="203">
       <c r="A203" s="3" t="inlineStr">
@@ -2952,18 +2504,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B203" s="4" t="n">
-        <v>4476</v>
-      </c>
-      <c r="C203" s="4" t="n">
-        <v>8937</v>
-      </c>
-      <c r="D203" s="4" t="n">
-        <v>13500</v>
-      </c>
-      <c r="E203" s="4" t="n">
-        <v>17800</v>
-      </c>
+      <c r="B203" s="4" t="n"/>
+      <c r="C203" s="4" t="n"/>
+      <c r="D203" s="4" t="n"/>
+      <c r="E203" s="4" t="n"/>
     </row>
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
@@ -2972,16 +2516,16 @@
         </is>
       </c>
       <c r="B204" s="4" t="n">
-        <v>129000</v>
+        <v>142000</v>
       </c>
       <c r="C204" s="4" t="n">
-        <v>180000</v>
+        <v>263000</v>
       </c>
       <c r="D204" s="4" t="n">
-        <v>246000</v>
+        <v>251000</v>
       </c>
       <c r="E204" s="4" t="n">
-        <v>274000</v>
+        <v>318000</v>
       </c>
     </row>
     <row r="205">
@@ -2991,16 +2535,16 @@
         </is>
       </c>
       <c r="B205" s="4" t="n">
-        <v>57200</v>
+        <v>66100</v>
       </c>
       <c r="C205" s="4" t="n">
-        <v>101000</v>
+        <v>121000</v>
       </c>
       <c r="D205" s="4" t="n">
-        <v>144000</v>
+        <v>169000</v>
       </c>
       <c r="E205" s="4" t="n">
-        <v>176000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="206">
@@ -3010,16 +2554,16 @@
         </is>
       </c>
       <c r="B206" s="4" t="n">
-        <v>4476</v>
+        <v>47100</v>
       </c>
       <c r="C206" s="4" t="n">
-        <v>8937</v>
+        <v>88200</v>
       </c>
       <c r="D206" s="4" t="n">
-        <v>13500</v>
+        <v>122000</v>
       </c>
       <c r="E206" s="4" t="n">
-        <v>17800</v>
+        <v>137000</v>
       </c>
     </row>
     <row r="210">
@@ -3049,18 +2593,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B212" s="4" t="n">
-        <v>526</v>
-      </c>
-      <c r="C212" s="4" t="n">
-        <v>737</v>
-      </c>
-      <c r="D212" s="4" t="n">
-        <v>1009</v>
-      </c>
-      <c r="E212" s="4" t="n">
-        <v>1121</v>
-      </c>
+      <c r="B212" s="4" t="n"/>
+      <c r="C212" s="4" t="n"/>
+      <c r="D212" s="4" t="n"/>
+      <c r="E212" s="4" t="n"/>
     </row>
     <row r="213">
       <c r="A213" s="3" t="inlineStr">
@@ -3068,18 +2604,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B213" s="4" t="n">
-        <v>234</v>
-      </c>
-      <c r="C213" s="4" t="n">
-        <v>415</v>
-      </c>
-      <c r="D213" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="E213" s="4" t="n">
-        <v>720</v>
-      </c>
+      <c r="B213" s="4" t="n"/>
+      <c r="C213" s="4" t="n"/>
+      <c r="D213" s="4" t="n"/>
+      <c r="E213" s="4" t="n"/>
     </row>
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
@@ -3087,18 +2615,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B214" s="4" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="C214" s="4" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D214" s="4" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="E214" s="4" t="n">
-        <v>73.09999999999999</v>
-      </c>
+      <c r="B214" s="4" t="n"/>
+      <c r="C214" s="4" t="n"/>
+      <c r="D214" s="4" t="n"/>
+      <c r="E214" s="4" t="n"/>
     </row>
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
@@ -3107,16 +2627,16 @@
         </is>
       </c>
       <c r="B215" s="4" t="n">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="C215" s="4" t="n">
-        <v>737</v>
+        <v>1078</v>
       </c>
       <c r="D215" s="4" t="n">
-        <v>1009</v>
+        <v>1030</v>
       </c>
       <c r="E215" s="4" t="n">
-        <v>1121</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="216">
@@ -3126,16 +2646,16 @@
         </is>
       </c>
       <c r="B216" s="4" t="n">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="C216" s="4" t="n">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="D216" s="4" t="n">
-        <v>590</v>
+        <v>693</v>
       </c>
       <c r="E216" s="4" t="n">
-        <v>720</v>
+        <v>821</v>
       </c>
     </row>
     <row r="217">
@@ -3145,16 +2665,16 @@
         </is>
       </c>
       <c r="B217" s="4" t="n">
-        <v>18.3</v>
+        <v>193</v>
       </c>
       <c r="C217" s="4" t="n">
-        <v>36.6</v>
+        <v>361</v>
       </c>
       <c r="D217" s="4" t="n">
-        <v>55.3</v>
+        <v>498</v>
       </c>
       <c r="E217" s="4" t="n">
-        <v>73.09999999999999</v>
+        <v>562</v>
       </c>
     </row>
     <row r="221">
@@ -3184,18 +2704,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B223" s="4" t="n">
-        <v>2.24133</v>
-      </c>
-      <c r="C223" s="4" t="n">
-        <v>2.20897</v>
-      </c>
-      <c r="D223" s="4" t="n">
-        <v>1.99737</v>
-      </c>
-      <c r="E223" s="4" t="n">
-        <v>2.14621</v>
-      </c>
+      <c r="B223" s="4" t="n"/>
+      <c r="C223" s="4" t="n"/>
+      <c r="D223" s="4" t="n"/>
+      <c r="E223" s="4" t="n"/>
     </row>
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
@@ -3203,18 +2715,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B224" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="C224" s="4" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="D224" s="4" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="E224" s="4" t="n">
-        <v>11.88</v>
-      </c>
+      <c r="B224" s="4" t="n"/>
+      <c r="C224" s="4" t="n"/>
+      <c r="D224" s="4" t="n"/>
+      <c r="E224" s="4" t="n"/>
     </row>
     <row r="225">
       <c r="A225" s="3" t="inlineStr">
@@ -3222,18 +2726,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B225" s="4" t="n">
-        <v>219.17</v>
-      </c>
-      <c r="C225" s="4" t="n">
-        <v>221.88</v>
-      </c>
-      <c r="D225" s="4" t="n">
-        <v>220.2</v>
-      </c>
-      <c r="E225" s="4" t="n">
-        <v>220.04</v>
-      </c>
+      <c r="B225" s="4" t="n"/>
+      <c r="C225" s="4" t="n"/>
+      <c r="D225" s="4" t="n"/>
+      <c r="E225" s="4" t="n"/>
     </row>
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
@@ -3242,16 +2738,16 @@
         </is>
       </c>
       <c r="B226" s="4" t="n">
-        <v>2.24133</v>
+        <v>1.21566</v>
       </c>
       <c r="C226" s="4" t="n">
-        <v>2.20897</v>
+        <v>1.45707</v>
       </c>
       <c r="D226" s="4" t="n">
-        <v>1.99737</v>
+        <v>1.45329</v>
       </c>
       <c r="E226" s="4" t="n">
-        <v>2.14621</v>
+        <v>1.55335</v>
       </c>
     </row>
     <row r="227">
@@ -3261,16 +2757,16 @@
         </is>
       </c>
       <c r="B227" s="4" t="n">
-        <v>10.96</v>
+        <v>8.85</v>
       </c>
       <c r="C227" s="4" t="n">
-        <v>11.31</v>
+        <v>8.74</v>
       </c>
       <c r="D227" s="4" t="n">
-        <v>11.59</v>
+        <v>9.4</v>
       </c>
       <c r="E227" s="4" t="n">
-        <v>11.88</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="228">
@@ -3280,16 +2776,16 @@
         </is>
       </c>
       <c r="B228" s="4" t="n">
-        <v>219.17</v>
+        <v>15.19</v>
       </c>
       <c r="C228" s="4" t="n">
-        <v>221.88</v>
+        <v>17.43</v>
       </c>
       <c r="D228" s="4" t="n">
-        <v>220.2</v>
+        <v>19.35</v>
       </c>
       <c r="E228" s="4" t="n">
-        <v>220.04</v>
+        <v>22.37</v>
       </c>
     </row>
     <row r="232">
@@ -3319,18 +2815,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B234" s="4" t="n">
-        <v>4471</v>
-      </c>
-      <c r="C234" s="4" t="n">
-        <v>5919</v>
-      </c>
-      <c r="D234" s="4" t="n">
-        <v>9660</v>
-      </c>
-      <c r="E234" s="4" t="n">
-        <v>9246</v>
-      </c>
+      <c r="B234" s="4" t="n"/>
+      <c r="C234" s="4" t="n"/>
+      <c r="D234" s="4" t="n"/>
+      <c r="E234" s="4" t="n"/>
     </row>
     <row r="235">
       <c r="A235" s="3" t="inlineStr">
@@ -3338,18 +2826,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B235" s="4" t="n">
-        <v>2782</v>
-      </c>
-      <c r="C235" s="4" t="n">
-        <v>6671</v>
-      </c>
-      <c r="D235" s="4" t="n">
-        <v>8084</v>
-      </c>
-      <c r="E235" s="4" t="n">
-        <v>8641</v>
-      </c>
+      <c r="B235" s="4" t="n"/>
+      <c r="C235" s="4" t="n"/>
+      <c r="D235" s="4" t="n"/>
+      <c r="E235" s="4" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
@@ -3357,18 +2837,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B236" s="4" t="n">
-        <v>1412</v>
-      </c>
-      <c r="C236" s="4" t="n">
-        <v>2659</v>
-      </c>
-      <c r="D236" s="4" t="n">
-        <v>4272</v>
-      </c>
-      <c r="E236" s="4" t="n">
-        <v>5231</v>
-      </c>
+      <c r="B236" s="4" t="n"/>
+      <c r="C236" s="4" t="n"/>
+      <c r="D236" s="4" t="n"/>
+      <c r="E236" s="4" t="n"/>
     </row>
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
@@ -3377,16 +2849,16 @@
         </is>
       </c>
       <c r="B237" s="4" t="n">
-        <v>4471</v>
+        <v>6320</v>
       </c>
       <c r="C237" s="4" t="n">
-        <v>5919</v>
+        <v>7135</v>
       </c>
       <c r="D237" s="4" t="n">
-        <v>9660</v>
+        <v>8982</v>
       </c>
       <c r="E237" s="4" t="n">
-        <v>9246</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="238">
@@ -3396,16 +2868,16 @@
         </is>
       </c>
       <c r="B238" s="4" t="n">
-        <v>2782</v>
+        <v>3056</v>
       </c>
       <c r="C238" s="4" t="n">
-        <v>6671</v>
+        <v>6627</v>
       </c>
       <c r="D238" s="4" t="n">
-        <v>8084</v>
+        <v>8347</v>
       </c>
       <c r="E238" s="4" t="n">
-        <v>8641</v>
+        <v>9287</v>
       </c>
     </row>
     <row r="239">
@@ -3415,16 +2887,16 @@
         </is>
       </c>
       <c r="B239" s="4" t="n">
-        <v>1412</v>
+        <v>3506</v>
       </c>
       <c r="C239" s="4" t="n">
-        <v>2659</v>
+        <v>5657</v>
       </c>
       <c r="D239" s="4" t="n">
-        <v>4272</v>
+        <v>5086</v>
       </c>
       <c r="E239" s="4" t="n">
-        <v>5231</v>
+        <v>7937</v>
       </c>
     </row>
     <row r="243">
@@ -3454,18 +2926,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B245" s="4" t="n">
-        <v>586</v>
-      </c>
-      <c r="C245" s="4" t="n">
-        <v>776</v>
-      </c>
-      <c r="D245" s="4" t="n">
-        <v>1266</v>
-      </c>
-      <c r="E245" s="4" t="n">
-        <v>1212</v>
-      </c>
+      <c r="B245" s="4" t="n"/>
+      <c r="C245" s="4" t="n"/>
+      <c r="D245" s="4" t="n"/>
+      <c r="E245" s="4" t="n"/>
     </row>
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
@@ -3473,18 +2937,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B246" s="4" t="n">
-        <v>365</v>
-      </c>
-      <c r="C246" s="4" t="n">
-        <v>874</v>
-      </c>
-      <c r="D246" s="4" t="n">
-        <v>1060</v>
-      </c>
-      <c r="E246" s="4" t="n">
-        <v>1133</v>
-      </c>
+      <c r="B246" s="4" t="n"/>
+      <c r="C246" s="4" t="n"/>
+      <c r="D246" s="4" t="n"/>
+      <c r="E246" s="4" t="n"/>
     </row>
     <row r="247">
       <c r="A247" s="3" t="inlineStr">
@@ -3492,18 +2948,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B247" s="4" t="n">
-        <v>185</v>
-      </c>
-      <c r="C247" s="4" t="n">
-        <v>349</v>
-      </c>
-      <c r="D247" s="4" t="n">
-        <v>560</v>
-      </c>
-      <c r="E247" s="4" t="n">
-        <v>686</v>
-      </c>
+      <c r="B247" s="4" t="n"/>
+      <c r="C247" s="4" t="n"/>
+      <c r="D247" s="4" t="n"/>
+      <c r="E247" s="4" t="n"/>
     </row>
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
@@ -3512,16 +2960,16 @@
         </is>
       </c>
       <c r="B248" s="4" t="n">
-        <v>586</v>
+        <v>829</v>
       </c>
       <c r="C248" s="4" t="n">
-        <v>776</v>
+        <v>935</v>
       </c>
       <c r="D248" s="4" t="n">
-        <v>1266</v>
+        <v>1177</v>
       </c>
       <c r="E248" s="4" t="n">
-        <v>1212</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="249">
@@ -3531,16 +2979,16 @@
         </is>
       </c>
       <c r="B249" s="4" t="n">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="C249" s="4" t="n">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D249" s="4" t="n">
-        <v>1060</v>
+        <v>1094</v>
       </c>
       <c r="E249" s="4" t="n">
-        <v>1133</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="250">
@@ -3550,16 +2998,16 @@
         </is>
       </c>
       <c r="B250" s="4" t="n">
-        <v>185</v>
+        <v>460</v>
       </c>
       <c r="C250" s="4" t="n">
-        <v>349</v>
+        <v>742</v>
       </c>
       <c r="D250" s="4" t="n">
-        <v>560</v>
+        <v>667</v>
       </c>
       <c r="E250" s="4" t="n">
-        <v>686</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="254">
@@ -3589,18 +3037,10 @@
           <t>BUSY_ext4</t>
         </is>
       </c>
-      <c r="B256" s="4" t="n">
-        <v>63</v>
-      </c>
-      <c r="C256" s="4" t="n">
-        <v>61.58</v>
-      </c>
-      <c r="D256" s="4" t="n">
-        <v>51.47</v>
-      </c>
-      <c r="E256" s="4" t="n">
-        <v>52.05</v>
-      </c>
+      <c r="B256" s="4" t="n"/>
+      <c r="C256" s="4" t="n"/>
+      <c r="D256" s="4" t="n"/>
+      <c r="E256" s="4" t="n"/>
     </row>
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
@@ -3608,18 +3048,10 @@
           <t>BUSY_fuse</t>
         </is>
       </c>
-      <c r="B257" s="4" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="C257" s="4" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="D257" s="4" t="n">
-        <v>93.33</v>
-      </c>
-      <c r="E257" s="4" t="n">
-        <v>96.67</v>
-      </c>
+      <c r="B257" s="4" t="n"/>
+      <c r="C257" s="4" t="n"/>
+      <c r="D257" s="4" t="n"/>
+      <c r="E257" s="4" t="n"/>
     </row>
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
@@ -3627,18 +3059,10 @@
           <t>BUSY_rfuse</t>
         </is>
       </c>
-      <c r="B258" s="4" t="n">
-        <v>531.39</v>
-      </c>
-      <c r="C258" s="4" t="n">
-        <v>537.8200000000001</v>
-      </c>
-      <c r="D258" s="4" t="n">
-        <v>535.64</v>
-      </c>
-      <c r="E258" s="4" t="n">
-        <v>533.97</v>
-      </c>
+      <c r="B258" s="4" t="n"/>
+      <c r="C258" s="4" t="n"/>
+      <c r="D258" s="4" t="n"/>
+      <c r="E258" s="4" t="n"/>
     </row>
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
@@ -3647,16 +3071,16 @@
         </is>
       </c>
       <c r="B259" s="4" t="n">
-        <v>63</v>
+        <v>33.71621</v>
       </c>
       <c r="C259" s="4" t="n">
-        <v>61.58</v>
+        <v>37.36079</v>
       </c>
       <c r="D259" s="4" t="n">
-        <v>51.47</v>
+        <v>41.53012</v>
       </c>
       <c r="E259" s="4" t="n">
-        <v>52.05</v>
+        <v>47.33</v>
       </c>
     </row>
     <row r="260">
@@ -3666,16 +3090,16 @@
         </is>
       </c>
       <c r="B260" s="4" t="n">
-        <v>92.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="C260" s="4" t="n">
-        <v>92.40000000000001</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="D260" s="4" t="n">
-        <v>93.33</v>
+        <v>100.65</v>
       </c>
       <c r="E260" s="4" t="n">
-        <v>96.67</v>
+        <v>106.61</v>
       </c>
     </row>
     <row r="261">
@@ -3685,16 +3109,16 @@
         </is>
       </c>
       <c r="B261" s="4" t="n">
-        <v>531.39</v>
+        <v>211.19</v>
       </c>
       <c r="C261" s="4" t="n">
-        <v>537.8200000000001</v>
+        <v>236.88</v>
       </c>
       <c r="D261" s="4" t="n">
-        <v>535.64</v>
+        <v>253.64</v>
       </c>
       <c r="E261" s="4" t="n">
-        <v>533.97</v>
+        <v>284.93</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/merged_summary.xlsx
+++ b/rfuse/merged_summary.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5714</v>
+        <v>33200</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11200</v>
+        <v>61600</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>16600</v>
+        <v>74100</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21600</v>
+        <v>68600</v>
       </c>
     </row>
     <row r="4">
@@ -504,16 +504,16 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6247</v>
+        <v>30300</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12900</v>
+        <v>60700</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>17700</v>
+        <v>90200</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23500</v>
+        <v>121000</v>
       </c>
     </row>
     <row r="5">
@@ -523,16 +523,16 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6268</v>
+        <v>26800</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13000</v>
+        <v>52500</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>19200</v>
+        <v>71700</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25000</v>
+        <v>85900</v>
       </c>
     </row>
     <row r="6">
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5818</v>
+        <v>32300</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11300</v>
+        <v>61700</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>16700</v>
+        <v>52600</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>21800</v>
+        <v>73300</v>
       </c>
     </row>
     <row r="7">
@@ -561,16 +561,16 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6324</v>
+        <v>30700</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11800</v>
+        <v>61200</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>16900</v>
+        <v>70100</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>22300</v>
+        <v>118000</v>
       </c>
     </row>
     <row r="8">
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>16900</v>
+        <v>33700</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>45700</v>
+        <v>65600</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>40300</v>
+        <v>97100</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>40600</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="12">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>23.4</v>
+        <v>136</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>45.7</v>
+        <v>252</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>67.8</v>
+        <v>304</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>88.40000000000001</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15">
@@ -639,16 +639,16 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>25.6</v>
+        <v>124</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>52.9</v>
+        <v>249</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>72.40000000000001</v>
+        <v>369</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>96.2</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>25.7</v>
+        <v>110</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>53.2</v>
+        <v>215</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>78.40000000000001</v>
+        <v>294</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>103</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17">
@@ -677,16 +677,16 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>23.8</v>
+        <v>132</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>46.4</v>
+        <v>253</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>68.2</v>
+        <v>216</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>89.40000000000001</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>25.9</v>
+        <v>126</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>48.1</v>
+        <v>251</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>69.40000000000001</v>
+        <v>287</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>91.40000000000001</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19">
@@ -715,16 +715,16 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>69.40000000000001</v>
+        <v>138</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>165</v>
+        <v>398</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>166</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23">
@@ -755,16 +755,16 @@
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>174.74983</v>
+        <v>29.93895</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>178.76486</v>
+        <v>31.87626</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>180.70354</v>
+        <v>40.20043</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>184.40112</v>
+        <v>56.1516</v>
       </c>
     </row>
     <row r="26">
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="B26" s="4" t="n">
-        <v>159.6543</v>
+        <v>32.82065</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>153.38775</v>
+        <v>32.77107</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>168.73814</v>
+        <v>33.04954</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>169.44949</v>
+        <v>32.85195</v>
       </c>
     </row>
     <row r="27">
@@ -793,16 +793,16 @@
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>159.08873</v>
+        <v>37.03445</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>151.19658</v>
+        <v>37.7654</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>154.2982</v>
+        <v>39.85357</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>155.13049</v>
+        <v>41.63467</v>
       </c>
     </row>
     <row r="28">
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>171.70989</v>
+        <v>30.8725</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>176.01606</v>
+        <v>31.8884</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>179.54562</v>
+        <v>56.5564</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>182.23684</v>
+        <v>53.89756</v>
       </c>
     </row>
     <row r="29">
@@ -831,16 +831,16 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>157.71748</v>
+        <v>32.45162</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>169.04784</v>
+        <v>32.49486</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>175.80612</v>
+        <v>42.25508</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>177.18539</v>
+        <v>33.73512</v>
       </c>
     </row>
     <row r="30">
@@ -850,16 +850,16 @@
         </is>
       </c>
       <c r="B30" s="4" t="n">
-        <v>58.74355000000001</v>
+        <v>29.29052</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>41.97553</v>
+        <v>29.95759</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>64.34284</v>
+        <v>30.40274</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>87.98022</v>
+        <v>31.45437</v>
       </c>
     </row>
     <row r="34">
@@ -890,16 +890,16 @@
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>2976</v>
+        <v>3047</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>5535</v>
+        <v>21100</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>7897</v>
+        <v>8062</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>10200</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="37">
@@ -909,16 +909,16 @@
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>4266</v>
+        <v>9061</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>7236</v>
+        <v>16500</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>12800</v>
+        <v>24200</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>11800</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="38">
@@ -928,16 +928,16 @@
         </is>
       </c>
       <c r="B38" s="4" t="n">
-        <v>3271</v>
+        <v>6965</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>5610</v>
+        <v>11400</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>7511</v>
+        <v>18500</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>10200</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="39">
@@ -947,16 +947,16 @@
         </is>
       </c>
       <c r="B39" s="4" t="n">
-        <v>3038</v>
+        <v>11000</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>5641</v>
+        <v>7816</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>8084</v>
+        <v>28200</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>9990</v>
+        <v>30600</v>
       </c>
     </row>
     <row r="40">
@@ -966,16 +966,16 @@
         </is>
       </c>
       <c r="B40" s="4" t="n">
-        <v>2820</v>
+        <v>8982</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>4785</v>
+        <v>17100</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>7228</v>
+        <v>23800</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>8770</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="41">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="B41" s="4" t="n">
-        <v>2994</v>
+        <v>8982</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>7013</v>
+        <v>17400</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>10400</v>
+        <v>23600</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>11900</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="45">
@@ -1025,16 +1025,16 @@
         </is>
       </c>
       <c r="B47" s="4" t="n">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>726</v>
+        <v>2767</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1035</v>
+        <v>1057</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1342</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="48">
@@ -1044,16 +1044,16 @@
         </is>
       </c>
       <c r="B48" s="4" t="n">
-        <v>559</v>
+        <v>1188</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>949</v>
+        <v>2165</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1678</v>
+        <v>3170</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1543</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="49">
@@ -1063,16 +1063,16 @@
         </is>
       </c>
       <c r="B49" s="4" t="n">
-        <v>429</v>
+        <v>913</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>735</v>
+        <v>1491</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>984</v>
+        <v>2426</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1342</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="50">
@@ -1082,16 +1082,16 @@
         </is>
       </c>
       <c r="B50" s="4" t="n">
-        <v>398</v>
+        <v>1443</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>739</v>
+        <v>1025</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1060</v>
+        <v>3694</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1309</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="51">
@@ -1101,16 +1101,16 @@
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>370</v>
+        <v>1177</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>627</v>
+        <v>2237</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>947</v>
+        <v>3121</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1150</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="52">
@@ -1120,16 +1120,16 @@
         </is>
       </c>
       <c r="B52" s="4" t="n">
-        <v>392</v>
+        <v>1177</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>919</v>
+        <v>2275</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1360</v>
+        <v>3097</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1556</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="56">
@@ -1160,16 +1160,16 @@
         </is>
       </c>
       <c r="B58" s="4" t="n">
-        <v>334.88</v>
+        <v>327.04</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>360.47</v>
+        <v>93.88</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>375.48</v>
+        <v>363.11</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>386.45</v>
+        <v>116.82</v>
       </c>
     </row>
     <row r="59">
@@ -1179,16 +1179,16 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>233.29</v>
+        <v>110.08</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>270.66</v>
+        <v>119.57</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>222.53</v>
+        <v>122.19</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>330.77</v>
+        <v>133.41</v>
       </c>
     </row>
     <row r="60">
@@ -1198,16 +1198,16 @@
         </is>
       </c>
       <c r="B60" s="4" t="n">
-        <v>297.54</v>
+        <v>138.4</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>347.44</v>
+        <v>158.48</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>389.63</v>
+        <v>155.77</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>377.76</v>
+        <v>173.23</v>
       </c>
     </row>
     <row r="61">
@@ -1217,16 +1217,16 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>328.5</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C61" s="4" t="n">
-        <v>352.23</v>
+        <v>254.41</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>364.8</v>
+        <v>105.33</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>381.38</v>
+        <v>127.87</v>
       </c>
     </row>
     <row r="62">
@@ -1236,16 +1236,16 @@
         </is>
       </c>
       <c r="B62" s="4" t="n">
-        <v>353.96</v>
+        <v>110.49</v>
       </c>
       <c r="C62" s="4" t="n">
-        <v>408.66</v>
+        <v>115.22</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>401.57</v>
+        <v>124.23</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>448.9</v>
+        <v>136.53</v>
       </c>
     </row>
     <row r="63">
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="B63" s="4" t="n">
-        <v>329.08</v>
+        <v>102.78</v>
       </c>
       <c r="C63" s="4" t="n">
-        <v>278.5</v>
+        <v>106.32</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>282.36</v>
+        <v>120.81</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>325.25</v>
+        <v>129.47</v>
       </c>
     </row>
     <row r="67">
@@ -1295,16 +1295,16 @@
         </is>
       </c>
       <c r="B69" s="4" t="n">
-        <v>37800</v>
+        <v>356000</v>
       </c>
       <c r="C69" s="4" t="n">
-        <v>28600</v>
+        <v>493000</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>41700</v>
+        <v>578000</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>70400</v>
+        <v>615000</v>
       </c>
     </row>
     <row r="70">
@@ -1314,16 +1314,16 @@
         </is>
       </c>
       <c r="B70" s="4" t="n">
-        <v>19600</v>
+        <v>109000</v>
       </c>
       <c r="C70" s="4" t="n">
-        <v>36100</v>
+        <v>178000</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>55600</v>
+        <v>234000</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>56800</v>
+        <v>277000</v>
       </c>
     </row>
     <row r="71">
@@ -1333,16 +1333,16 @@
         </is>
       </c>
       <c r="B71" s="4" t="n">
-        <v>19700</v>
+        <v>49600</v>
       </c>
       <c r="C71" s="4" t="n">
-        <v>11200</v>
+        <v>70800</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>15400</v>
+        <v>83200</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>61600</v>
+        <v>101000</v>
       </c>
     </row>
     <row r="72">
@@ -1352,16 +1352,16 @@
         </is>
       </c>
       <c r="B72" s="4" t="n">
-        <v>17700</v>
+        <v>315000</v>
       </c>
       <c r="C72" s="4" t="n">
-        <v>35800</v>
+        <v>546000</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>38300</v>
+        <v>626000</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>47200</v>
+        <v>662000</v>
       </c>
     </row>
     <row r="73">
@@ -1371,16 +1371,16 @@
         </is>
       </c>
       <c r="B73" s="4" t="n">
-        <v>57300</v>
+        <v>112000</v>
       </c>
       <c r="C73" s="4" t="n">
-        <v>61700</v>
+        <v>184000</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>86300</v>
+        <v>241000</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>88600</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="74">
@@ -1390,16 +1390,16 @@
         </is>
       </c>
       <c r="B74" s="4" t="n">
-        <v>46200</v>
+        <v>79500</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>62800</v>
+        <v>122000</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>74100</v>
+        <v>151000</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>96300</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="78">
@@ -1430,16 +1430,16 @@
         </is>
       </c>
       <c r="B80" s="4" t="n">
-        <v>155</v>
+        <v>1459</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>117</v>
+        <v>2018</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>171</v>
+        <v>2369</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>288</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="81">
@@ -1449,16 +1449,16 @@
         </is>
       </c>
       <c r="B81" s="4" t="n">
-        <v>80.40000000000001</v>
+        <v>444</v>
       </c>
       <c r="C81" s="4" t="n">
-        <v>148</v>
+        <v>729</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>228</v>
+        <v>956</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>233</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="82">
@@ -1468,16 +1468,16 @@
         </is>
       </c>
       <c r="B82" s="4" t="n">
-        <v>80.7</v>
+        <v>203</v>
       </c>
       <c r="C82" s="4" t="n">
-        <v>45.9</v>
+        <v>290</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>63</v>
+        <v>341</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>252</v>
+        <v>415</v>
       </c>
     </row>
     <row r="83">
@@ -1487,16 +1487,16 @@
         </is>
       </c>
       <c r="B83" s="4" t="n">
-        <v>72.59999999999999</v>
+        <v>1291</v>
       </c>
       <c r="C83" s="4" t="n">
-        <v>147</v>
+        <v>2237</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>157</v>
+        <v>2565</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>193</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="84">
@@ -1506,16 +1506,16 @@
         </is>
       </c>
       <c r="B84" s="4" t="n">
-        <v>235</v>
+        <v>460</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>253</v>
+        <v>754</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>354</v>
+        <v>987</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>363</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="85">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B85" s="4" t="n">
-        <v>189</v>
+        <v>326</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>257</v>
+        <v>500</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>304</v>
+        <v>618</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>394</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89">
@@ -1565,16 +1565,16 @@
         </is>
       </c>
       <c r="B91" s="4" t="n">
-        <v>2.79167</v>
+        <v>1.24245</v>
       </c>
       <c r="C91" s="4" t="n">
-        <v>25.51849</v>
+        <v>1.23562</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>23.20088</v>
+        <v>1.30459</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>2.45775</v>
+        <v>1.28014</v>
       </c>
     </row>
     <row r="92">
@@ -1584,16 +1584,16 @@
         </is>
       </c>
       <c r="B92" s="4" t="n">
-        <v>46.31</v>
+        <v>7.66</v>
       </c>
       <c r="C92" s="4" t="n">
-        <v>33.76</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>28.39</v>
+        <v>8.81</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>42.81</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="93">
@@ -1603,16 +1603,16 @@
         </is>
       </c>
       <c r="B93" s="4" t="n">
-        <v>44.49</v>
+        <v>18.1</v>
       </c>
       <c r="C93" s="4" t="n">
-        <v>102.23</v>
+        <v>25.4</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>80.39</v>
+        <v>30.87</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>32.43</v>
+        <v>33.34</v>
       </c>
     </row>
     <row r="94">
@@ -1622,16 +1622,16 @@
         </is>
       </c>
       <c r="B94" s="4" t="n">
-        <v>27.2554</v>
+        <v>1.47591</v>
       </c>
       <c r="C94" s="4" t="n">
-        <v>28.1189</v>
+        <v>1.27465</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>28.55453</v>
+        <v>1.22348</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>28.997</v>
+        <v>1.22044</v>
       </c>
     </row>
     <row r="95">
@@ -1641,16 +1641,16 @@
         </is>
       </c>
       <c r="B95" s="4" t="n">
-        <v>12.02</v>
+        <v>7.399850000000001</v>
       </c>
       <c r="C95" s="4" t="n">
-        <v>14.03</v>
+        <v>8.242299999999998</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>11.31</v>
+        <v>8.81</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>12.26</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="96">
@@ -1660,16 +1660,16 @@
         </is>
       </c>
       <c r="B96" s="4" t="n">
-        <v>12.7</v>
+        <v>10.71</v>
       </c>
       <c r="C96" s="4" t="n">
-        <v>11.75</v>
+        <v>13.7</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>14.41</v>
+        <v>15.94</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>13.25</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="100">
@@ -1700,16 +1700,16 @@
         </is>
       </c>
       <c r="B102" s="4" t="n">
-        <v>1508</v>
+        <v>14200</v>
       </c>
       <c r="C102" s="4" t="n">
-        <v>1546</v>
+        <v>19300</v>
       </c>
       <c r="D102" s="4" t="n">
-        <v>1862</v>
+        <v>21000</v>
       </c>
       <c r="E102" s="4" t="n">
-        <v>2067</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="103">
@@ -1719,16 +1719,16 @@
         </is>
       </c>
       <c r="B103" s="4" t="n">
-        <v>1224</v>
+        <v>9941</v>
       </c>
       <c r="C103" s="4" t="n">
-        <v>2235</v>
+        <v>13300</v>
       </c>
       <c r="D103" s="4" t="n">
-        <v>3147</v>
+        <v>16700</v>
       </c>
       <c r="E103" s="4" t="n">
-        <v>3138</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="104">
@@ -1738,16 +1738,16 @@
         </is>
       </c>
       <c r="B104" s="4" t="n">
-        <v>1179</v>
+        <v>3878</v>
       </c>
       <c r="C104" s="4" t="n">
-        <v>2398</v>
+        <v>6005</v>
       </c>
       <c r="D104" s="4" t="n">
-        <v>2752</v>
+        <v>8370</v>
       </c>
       <c r="E104" s="4" t="n">
-        <v>2864</v>
+        <v>9122</v>
       </c>
     </row>
     <row r="105">
@@ -1757,16 +1757,16 @@
         </is>
       </c>
       <c r="B105" s="4" t="n">
-        <v>1484</v>
+        <v>16000</v>
       </c>
       <c r="C105" s="4" t="n">
-        <v>1572</v>
+        <v>18300</v>
       </c>
       <c r="D105" s="4" t="n">
-        <v>1989</v>
+        <v>21300</v>
       </c>
       <c r="E105" s="4" t="n">
-        <v>2323</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="106">
@@ -1776,16 +1776,16 @@
         </is>
       </c>
       <c r="B106" s="4" t="n">
-        <v>1984</v>
+        <v>9941</v>
       </c>
       <c r="C106" s="4" t="n">
-        <v>2209</v>
+        <v>14600</v>
       </c>
       <c r="D106" s="4" t="n">
-        <v>3038</v>
+        <v>16900</v>
       </c>
       <c r="E106" s="4" t="n">
-        <v>3072</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="107">
@@ -1795,16 +1795,16 @@
         </is>
       </c>
       <c r="B107" s="4" t="n">
-        <v>1662</v>
+        <v>6059</v>
       </c>
       <c r="C107" s="4" t="n">
-        <v>2455</v>
+        <v>8677</v>
       </c>
       <c r="D107" s="4" t="n">
-        <v>2522</v>
+        <v>10900</v>
       </c>
       <c r="E107" s="4" t="n">
-        <v>3145</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="111">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B113" s="4" t="n">
-        <v>198</v>
+        <v>1864</v>
       </c>
       <c r="C113" s="4" t="n">
-        <v>203</v>
+        <v>2532</v>
       </c>
       <c r="D113" s="4" t="n">
-        <v>244</v>
+        <v>2758</v>
       </c>
       <c r="E113" s="4" t="n">
-        <v>271</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="114">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B114" s="4" t="n">
-        <v>161</v>
+        <v>1303</v>
       </c>
       <c r="C114" s="4" t="n">
-        <v>293</v>
+        <v>1743</v>
       </c>
       <c r="D114" s="4" t="n">
-        <v>413</v>
+        <v>2188</v>
       </c>
       <c r="E114" s="4" t="n">
-        <v>411</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="115">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B115" s="4" t="n">
-        <v>155</v>
+        <v>508</v>
       </c>
       <c r="C115" s="4" t="n">
-        <v>314</v>
+        <v>787</v>
       </c>
       <c r="D115" s="4" t="n">
-        <v>361</v>
+        <v>1097</v>
       </c>
       <c r="E115" s="4" t="n">
-        <v>375</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="116">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B116" s="4" t="n">
-        <v>195</v>
+        <v>2097</v>
       </c>
       <c r="C116" s="4" t="n">
-        <v>206</v>
+        <v>2397</v>
       </c>
       <c r="D116" s="4" t="n">
-        <v>261</v>
+        <v>2796</v>
       </c>
       <c r="E116" s="4" t="n">
-        <v>305</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="117">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B117" s="4" t="n">
-        <v>260</v>
+        <v>1303</v>
       </c>
       <c r="C117" s="4" t="n">
-        <v>290</v>
+        <v>1917</v>
       </c>
       <c r="D117" s="4" t="n">
-        <v>398</v>
+        <v>2212</v>
       </c>
       <c r="E117" s="4" t="n">
-        <v>403</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="118">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B118" s="4" t="n">
-        <v>218</v>
+        <v>794</v>
       </c>
       <c r="C118" s="4" t="n">
-        <v>322</v>
+        <v>1137</v>
       </c>
       <c r="D118" s="4" t="n">
-        <v>331</v>
+        <v>1423</v>
       </c>
       <c r="E118" s="4" t="n">
-        <v>412</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="122">
@@ -1970,16 +1970,16 @@
         </is>
       </c>
       <c r="B124" s="4" t="n">
-        <v>108.79</v>
+        <v>23.7</v>
       </c>
       <c r="C124" s="4" t="n">
-        <v>69.8</v>
+        <v>26.14</v>
       </c>
       <c r="D124" s="4" t="n">
-        <v>67.29000000000001</v>
+        <v>28.42</v>
       </c>
       <c r="E124" s="4" t="n">
-        <v>56.96</v>
+        <v>31.46</v>
       </c>
     </row>
     <row r="125">
@@ -1989,16 +1989,16 @@
         </is>
       </c>
       <c r="B125" s="4" t="n">
-        <v>337.48</v>
+        <v>58.04</v>
       </c>
       <c r="C125" s="4" t="n">
-        <v>228.05</v>
+        <v>61.17</v>
       </c>
       <c r="D125" s="4" t="n">
-        <v>196.47</v>
+        <v>67.8</v>
       </c>
       <c r="E125" s="4" t="n">
-        <v>285.35</v>
+        <v>71.55</v>
       </c>
     </row>
     <row r="126">
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="B126" s="4" t="n">
-        <v>493.49</v>
+        <v>201.13</v>
       </c>
       <c r="C126" s="4" t="n">
-        <v>399.62</v>
+        <v>249.36</v>
       </c>
       <c r="D126" s="4" t="n">
-        <v>455.96</v>
+        <v>243.57</v>
       </c>
       <c r="E126" s="4" t="n">
-        <v>364.17</v>
+        <v>275.26</v>
       </c>
     </row>
     <row r="127">
@@ -2027,16 +2027,16 @@
         </is>
       </c>
       <c r="B127" s="4" t="n">
-        <v>61.33</v>
+        <v>22.11371</v>
       </c>
       <c r="C127" s="4" t="n">
-        <v>58.93</v>
+        <v>27.55</v>
       </c>
       <c r="D127" s="4" t="n">
-        <v>60.81</v>
+        <v>28.77</v>
       </c>
       <c r="E127" s="4" t="n">
-        <v>69.48</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="128">
@@ -2046,16 +2046,16 @@
         </is>
       </c>
       <c r="B128" s="4" t="n">
-        <v>120.41</v>
+        <v>58.18084</v>
       </c>
       <c r="C128" s="4" t="n">
-        <v>134.65</v>
+        <v>61.38</v>
       </c>
       <c r="D128" s="4" t="n">
-        <v>143.05</v>
+        <v>67.64</v>
       </c>
       <c r="E128" s="4" t="n">
-        <v>146.41</v>
+        <v>73.06999999999999</v>
       </c>
     </row>
     <row r="129">
@@ -2065,16 +2065,16 @@
         </is>
       </c>
       <c r="B129" s="4" t="n">
-        <v>165.71</v>
+        <v>117.46</v>
       </c>
       <c r="C129" s="4" t="n">
-        <v>176.76</v>
+        <v>141.39</v>
       </c>
       <c r="D129" s="4" t="n">
-        <v>177.63</v>
+        <v>161.64</v>
       </c>
       <c r="E129" s="4" t="n">
-        <v>178.67</v>
+        <v>211.02</v>
       </c>
     </row>
     <row r="133">
@@ -2105,16 +2105,16 @@
         </is>
       </c>
       <c r="B135" s="4" t="n">
-        <v>231000</v>
+        <v>529000</v>
       </c>
       <c r="C135" s="4" t="n">
-        <v>324000</v>
+        <v>790000</v>
       </c>
       <c r="D135" s="4" t="n">
-        <v>429000</v>
+        <v>902000</v>
       </c>
       <c r="E135" s="4" t="n">
-        <v>502000</v>
+        <v>971000</v>
       </c>
     </row>
     <row r="136">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="B136" s="4" t="n">
-        <v>218000</v>
+        <v>596000</v>
       </c>
       <c r="C136" s="4" t="n">
-        <v>279000</v>
+        <v>728000</v>
       </c>
       <c r="D136" s="4" t="n">
-        <v>371000</v>
+        <v>847000</v>
       </c>
       <c r="E136" s="4" t="n">
-        <v>749000</v>
+        <v>936000</v>
       </c>
     </row>
     <row r="137">
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="B137" s="4" t="n">
-        <v>116000</v>
+        <v>218000</v>
       </c>
       <c r="C137" s="4" t="n">
-        <v>229000</v>
+        <v>379000</v>
       </c>
       <c r="D137" s="4" t="n">
-        <v>349000</v>
+        <v>512000</v>
       </c>
       <c r="E137" s="4" t="n">
-        <v>449000</v>
+        <v>615000</v>
       </c>
     </row>
     <row r="138">
@@ -2162,16 +2162,16 @@
         </is>
       </c>
       <c r="B138" s="4" t="n">
-        <v>221000</v>
+        <v>575000</v>
       </c>
       <c r="C138" s="4" t="n">
-        <v>305000</v>
+        <v>771000</v>
       </c>
       <c r="D138" s="4" t="n">
-        <v>443000</v>
+        <v>870000</v>
       </c>
       <c r="E138" s="4" t="n">
-        <v>502000</v>
+        <v>964000</v>
       </c>
     </row>
     <row r="139">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="B139" s="4" t="n">
-        <v>197000</v>
+        <v>607000</v>
       </c>
       <c r="C139" s="4" t="n">
-        <v>323000</v>
+        <v>809000</v>
       </c>
       <c r="D139" s="4" t="n">
-        <v>352000</v>
+        <v>855000</v>
       </c>
       <c r="E139" s="4" t="n">
-        <v>428000</v>
+        <v>851000</v>
       </c>
     </row>
     <row r="140">
@@ -2200,16 +2200,16 @@
         </is>
       </c>
       <c r="B140" s="4" t="n">
-        <v>155000</v>
+        <v>315000</v>
       </c>
       <c r="C140" s="4" t="n">
-        <v>270000</v>
+        <v>643000</v>
       </c>
       <c r="D140" s="4" t="n">
-        <v>365000</v>
+        <v>793000</v>
       </c>
       <c r="E140" s="4" t="n">
-        <v>480000</v>
+        <v>814000</v>
       </c>
     </row>
     <row r="144">
@@ -2240,16 +2240,16 @@
         </is>
       </c>
       <c r="B146" s="4" t="n">
-        <v>945</v>
+        <v>2165</v>
       </c>
       <c r="C146" s="4" t="n">
-        <v>1329</v>
+        <v>3234</v>
       </c>
       <c r="D146" s="4" t="n">
-        <v>1758</v>
+        <v>3694</v>
       </c>
       <c r="E146" s="4" t="n">
-        <v>2057</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="147">
@@ -2259,16 +2259,16 @@
         </is>
       </c>
       <c r="B147" s="4" t="n">
-        <v>895</v>
+        <v>2440</v>
       </c>
       <c r="C147" s="4" t="n">
-        <v>1142</v>
+        <v>2983</v>
       </c>
       <c r="D147" s="4" t="n">
-        <v>1519</v>
+        <v>3471</v>
       </c>
       <c r="E147" s="4" t="n">
-        <v>3068</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="148">
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B148" s="4" t="n">
-        <v>474</v>
+        <v>895</v>
       </c>
       <c r="C148" s="4" t="n">
-        <v>939</v>
+        <v>1552</v>
       </c>
       <c r="D148" s="4" t="n">
-        <v>1428</v>
+        <v>2097</v>
       </c>
       <c r="E148" s="4" t="n">
-        <v>1839</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="149">
@@ -2297,16 +2297,16 @@
         </is>
       </c>
       <c r="B149" s="4" t="n">
-        <v>907</v>
+        <v>2355</v>
       </c>
       <c r="C149" s="4" t="n">
-        <v>1249</v>
+        <v>3158</v>
       </c>
       <c r="D149" s="4" t="n">
-        <v>1814</v>
+        <v>3563</v>
       </c>
       <c r="E149" s="4" t="n">
-        <v>2057</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="150">
@@ -2316,16 +2316,16 @@
         </is>
       </c>
       <c r="B150" s="4" t="n">
-        <v>809</v>
+        <v>2486</v>
       </c>
       <c r="C150" s="4" t="n">
-        <v>1322</v>
+        <v>3314</v>
       </c>
       <c r="D150" s="4" t="n">
-        <v>1443</v>
+        <v>3501</v>
       </c>
       <c r="E150" s="4" t="n">
-        <v>1754</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="151">
@@ -2335,16 +2335,16 @@
         </is>
       </c>
       <c r="B151" s="4" t="n">
-        <v>636</v>
+        <v>1291</v>
       </c>
       <c r="C151" s="4" t="n">
-        <v>1105</v>
+        <v>2632</v>
       </c>
       <c r="D151" s="4" t="n">
-        <v>1497</v>
+        <v>3247</v>
       </c>
       <c r="E151" s="4" t="n">
-        <v>1967</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="155">
@@ -2375,16 +2375,16 @@
         </is>
       </c>
       <c r="B157" s="4" t="n">
-        <v>4.19258</v>
+        <v>1.68315</v>
       </c>
       <c r="C157" s="4" t="n">
-        <v>6.03486</v>
+        <v>2.42806</v>
       </c>
       <c r="D157" s="4" t="n">
-        <v>6.85142</v>
+        <v>3.19291</v>
       </c>
       <c r="E157" s="4" t="n">
-        <v>7.83961</v>
+        <v>3.97811</v>
       </c>
     </row>
     <row r="158">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B158" s="4" t="n">
-        <v>4.46817</v>
+        <v>1.55125</v>
       </c>
       <c r="C158" s="4" t="n">
-        <v>5.89138</v>
+        <v>2.52192</v>
       </c>
       <c r="D158" s="4" t="n">
-        <v>7.85371</v>
+        <v>3.30118</v>
       </c>
       <c r="E158" s="4" t="n">
-        <v>4.95728</v>
+        <v>4.102600000000001</v>
       </c>
     </row>
     <row r="159">
@@ -2413,16 +2413,16 @@
         </is>
       </c>
       <c r="B159" s="4" t="n">
-        <v>8.378</v>
+        <v>4.234970000000001</v>
       </c>
       <c r="C159" s="4" t="n">
-        <v>8.376760000000001</v>
+        <v>4.90655</v>
       </c>
       <c r="D159" s="4" t="n">
-        <v>8.25699</v>
+        <v>5.53202</v>
       </c>
       <c r="E159" s="4" t="n">
-        <v>8.5496</v>
+        <v>6.1661</v>
       </c>
     </row>
     <row r="160">
@@ -2432,16 +2432,16 @@
         </is>
       </c>
       <c r="B160" s="4" t="n">
-        <v>4.39508</v>
+        <v>1.6196</v>
       </c>
       <c r="C160" s="4" t="n">
-        <v>6.43238</v>
+        <v>2.44405</v>
       </c>
       <c r="D160" s="4" t="n">
-        <v>6.61436</v>
+        <v>3.27233</v>
       </c>
       <c r="E160" s="4" t="n">
-        <v>7.78851</v>
+        <v>3.99944</v>
       </c>
     </row>
     <row r="161">
@@ -2451,16 +2451,16 @@
         </is>
       </c>
       <c r="B161" s="4" t="n">
-        <v>4.92645</v>
+        <v>1.52803</v>
       </c>
       <c r="C161" s="4" t="n">
-        <v>5.7801</v>
+        <v>2.34999</v>
       </c>
       <c r="D161" s="4" t="n">
-        <v>8.12196</v>
+        <v>3.34637</v>
       </c>
       <c r="E161" s="4" t="n">
-        <v>8.971969999999999</v>
+        <v>4.50437</v>
       </c>
     </row>
     <row r="162">
@@ -2470,16 +2470,16 @@
         </is>
       </c>
       <c r="B162" s="4" t="n">
-        <v>6.18641</v>
+        <v>2.92332</v>
       </c>
       <c r="C162" s="4" t="n">
-        <v>6.950159999999999</v>
+        <v>2.85878</v>
       </c>
       <c r="D162" s="4" t="n">
-        <v>7.88361</v>
+        <v>3.40918</v>
       </c>
       <c r="E162" s="4" t="n">
-        <v>7.97429</v>
+        <v>4.44653</v>
       </c>
     </row>
     <row r="166">
@@ -2510,16 +2510,16 @@
         </is>
       </c>
       <c r="B168" s="4" t="n">
-        <v>5885</v>
+        <v>20900</v>
       </c>
       <c r="C168" s="4" t="n">
-        <v>10400</v>
+        <v>28400</v>
       </c>
       <c r="D168" s="4" t="n">
-        <v>13900</v>
+        <v>31700</v>
       </c>
       <c r="E168" s="4" t="n">
-        <v>16300</v>
+        <v>34700</v>
       </c>
     </row>
     <row r="169">
@@ -2529,16 +2529,16 @@
         </is>
       </c>
       <c r="B169" s="4" t="n">
-        <v>12000</v>
+        <v>15100</v>
       </c>
       <c r="C169" s="4" t="n">
-        <v>23800</v>
+        <v>27700</v>
       </c>
       <c r="D169" s="4" t="n">
-        <v>18000</v>
+        <v>30700</v>
       </c>
       <c r="E169" s="4" t="n">
-        <v>16700</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="170">
@@ -2548,16 +2548,16 @@
         </is>
       </c>
       <c r="B170" s="4" t="n">
-        <v>3580</v>
+        <v>6649</v>
       </c>
       <c r="C170" s="4" t="n">
-        <v>7160</v>
+        <v>11900</v>
       </c>
       <c r="D170" s="4" t="n">
-        <v>11900</v>
+        <v>16300</v>
       </c>
       <c r="E170" s="4" t="n">
-        <v>14900</v>
+        <v>19300</v>
       </c>
     </row>
     <row r="171">
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="B171" s="4" t="n">
-        <v>5626</v>
+        <v>20900</v>
       </c>
       <c r="C171" s="4" t="n">
-        <v>10600</v>
+        <v>26900</v>
       </c>
       <c r="D171" s="4" t="n">
-        <v>15100</v>
+        <v>32300</v>
       </c>
       <c r="E171" s="4" t="n">
-        <v>16200</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="172">
@@ -2586,16 +2586,16 @@
         </is>
       </c>
       <c r="B172" s="4" t="n">
-        <v>4718</v>
+        <v>17100</v>
       </c>
       <c r="C172" s="4" t="n">
-        <v>8062</v>
+        <v>25600</v>
       </c>
       <c r="D172" s="4" t="n">
-        <v>12500</v>
+        <v>29300</v>
       </c>
       <c r="E172" s="4" t="n">
-        <v>13600</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="173">
@@ -2605,16 +2605,16 @@
         </is>
       </c>
       <c r="B173" s="4" t="n">
-        <v>5145</v>
+        <v>10600</v>
       </c>
       <c r="C173" s="4" t="n">
-        <v>8943</v>
+        <v>18600</v>
       </c>
       <c r="D173" s="4" t="n">
-        <v>12100</v>
+        <v>25400</v>
       </c>
       <c r="E173" s="4" t="n">
-        <v>15500</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="177">
@@ -2645,16 +2645,16 @@
         </is>
       </c>
       <c r="B179" s="4" t="n">
-        <v>771</v>
+        <v>2739</v>
       </c>
       <c r="C179" s="4" t="n">
-        <v>1363</v>
+        <v>3728</v>
       </c>
       <c r="D179" s="4" t="n">
-        <v>1822</v>
+        <v>4151</v>
       </c>
       <c r="E179" s="4" t="n">
-        <v>2139</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="180">
@@ -2664,16 +2664,16 @@
         </is>
       </c>
       <c r="B180" s="4" t="n">
-        <v>1699</v>
+        <v>1974</v>
       </c>
       <c r="C180" s="4" t="n">
-        <v>3121</v>
+        <v>3628</v>
       </c>
       <c r="D180" s="4" t="n">
-        <v>2486</v>
+        <v>4027</v>
       </c>
       <c r="E180" s="4" t="n">
-        <v>2182</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="181">
@@ -2683,16 +2683,16 @@
         </is>
       </c>
       <c r="B181" s="4" t="n">
-        <v>469</v>
+        <v>872</v>
       </c>
       <c r="C181" s="4" t="n">
-        <v>939</v>
+        <v>1561</v>
       </c>
       <c r="D181" s="4" t="n">
-        <v>1561</v>
+        <v>2142</v>
       </c>
       <c r="E181" s="4" t="n">
-        <v>1952</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="182">
@@ -2702,16 +2702,16 @@
         </is>
       </c>
       <c r="B182" s="4" t="n">
-        <v>737</v>
+        <v>2739</v>
       </c>
       <c r="C182" s="4" t="n">
-        <v>1384</v>
+        <v>3532</v>
       </c>
       <c r="D182" s="4" t="n">
-        <v>1974</v>
+        <v>4238</v>
       </c>
       <c r="E182" s="4" t="n">
-        <v>2122</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="183">
@@ -2721,16 +2721,16 @@
         </is>
       </c>
       <c r="B183" s="4" t="n">
-        <v>619</v>
+        <v>2237</v>
       </c>
       <c r="C183" s="4" t="n">
-        <v>1057</v>
+        <v>3355</v>
       </c>
       <c r="D183" s="4" t="n">
-        <v>1643</v>
+        <v>3835</v>
       </c>
       <c r="E183" s="4" t="n">
-        <v>1784</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="184">
@@ -2740,16 +2740,16 @@
         </is>
       </c>
       <c r="B184" s="4" t="n">
-        <v>674</v>
+        <v>1384</v>
       </c>
       <c r="C184" s="4" t="n">
-        <v>1172</v>
+        <v>2440</v>
       </c>
       <c r="D184" s="4" t="n">
-        <v>1592</v>
+        <v>3328</v>
       </c>
       <c r="E184" s="4" t="n">
-        <v>2026</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="188">
@@ -2780,16 +2780,16 @@
         </is>
       </c>
       <c r="B190" s="4" t="n">
-        <v>168.7</v>
+        <v>47.28</v>
       </c>
       <c r="C190" s="4" t="n">
-        <v>186.45</v>
+        <v>69.7</v>
       </c>
       <c r="D190" s="4" t="n">
-        <v>213.89</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="E190" s="4" t="n">
-        <v>243.23</v>
+        <v>112.23</v>
       </c>
     </row>
     <row r="191">
@@ -2799,16 +2799,16 @@
         </is>
       </c>
       <c r="B191" s="4" t="n">
-        <v>75.87</v>
+        <v>66.19</v>
       </c>
       <c r="C191" s="4" t="n">
-        <v>81.62</v>
+        <v>70.42</v>
       </c>
       <c r="D191" s="4" t="n">
-        <v>156.11</v>
+        <v>94.93000000000001</v>
       </c>
       <c r="E191" s="4" t="n">
-        <v>235.38</v>
+        <v>123.22</v>
       </c>
     </row>
     <row r="192">
@@ -2818,16 +2818,16 @@
         </is>
       </c>
       <c r="B192" s="4" t="n">
-        <v>272.26</v>
+        <v>145.37</v>
       </c>
       <c r="C192" s="4" t="n">
-        <v>273.29</v>
+        <v>158.42</v>
       </c>
       <c r="D192" s="4" t="n">
-        <v>245.7</v>
+        <v>177.88</v>
       </c>
       <c r="E192" s="4" t="n">
-        <v>256.77</v>
+        <v>198.09</v>
       </c>
     </row>
     <row r="193">
@@ -2837,16 +2837,16 @@
         </is>
       </c>
       <c r="B193" s="4" t="n">
-        <v>177.06</v>
+        <v>47.59</v>
       </c>
       <c r="C193" s="4" t="n">
-        <v>188.31</v>
+        <v>71.41</v>
       </c>
       <c r="D193" s="4" t="n">
-        <v>196.97</v>
+        <v>91.63</v>
       </c>
       <c r="E193" s="4" t="n">
-        <v>245.14</v>
+        <v>112.64</v>
       </c>
     </row>
     <row r="194">
@@ -2856,16 +2856,16 @@
         </is>
       </c>
       <c r="B194" s="4" t="n">
-        <v>210.46</v>
+        <v>58.23</v>
       </c>
       <c r="C194" s="4" t="n">
-        <v>237.17</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="D194" s="4" t="n">
-        <v>234.55</v>
+        <v>98.36</v>
       </c>
       <c r="E194" s="4" t="n">
-        <v>285.8</v>
+        <v>124.42</v>
       </c>
     </row>
     <row r="195">
@@ -2875,16 +2875,16 @@
         </is>
       </c>
       <c r="B195" s="4" t="n">
-        <v>187.85</v>
+        <v>90.12</v>
       </c>
       <c r="C195" s="4" t="n">
-        <v>217.55</v>
+        <v>101.93</v>
       </c>
       <c r="D195" s="4" t="n">
-        <v>236.58</v>
+        <v>111.67</v>
       </c>
       <c r="E195" s="4" t="n">
-        <v>251.91</v>
+        <v>130.68</v>
       </c>
     </row>
     <row r="199">
@@ -2915,16 +2915,16 @@
         </is>
       </c>
       <c r="B201" s="4" t="n">
-        <v>129000</v>
+        <v>280000</v>
       </c>
       <c r="C201" s="4" t="n">
-        <v>180000</v>
+        <v>428000</v>
       </c>
       <c r="D201" s="4" t="n">
-        <v>246000</v>
+        <v>445000</v>
       </c>
       <c r="E201" s="4" t="n">
-        <v>274000</v>
+        <v>478000</v>
       </c>
     </row>
     <row r="202">
@@ -2934,16 +2934,16 @@
         </is>
       </c>
       <c r="B202" s="4" t="n">
-        <v>57200</v>
+        <v>101000</v>
       </c>
       <c r="C202" s="4" t="n">
-        <v>101000</v>
+        <v>169000</v>
       </c>
       <c r="D202" s="4" t="n">
-        <v>144000</v>
+        <v>216000</v>
       </c>
       <c r="E202" s="4" t="n">
-        <v>176000</v>
+        <v>251000</v>
       </c>
     </row>
     <row r="203">
@@ -2953,16 +2953,16 @@
         </is>
       </c>
       <c r="B203" s="4" t="n">
-        <v>4476</v>
+        <v>49900</v>
       </c>
       <c r="C203" s="4" t="n">
-        <v>8937</v>
+        <v>61200</v>
       </c>
       <c r="D203" s="4" t="n">
-        <v>13500</v>
+        <v>97500</v>
       </c>
       <c r="E203" s="4" t="n">
-        <v>17800</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="204">
@@ -2972,16 +2972,16 @@
         </is>
       </c>
       <c r="B204" s="4" t="n">
-        <v>142000</v>
+        <v>282000</v>
       </c>
       <c r="C204" s="4" t="n">
-        <v>263000</v>
+        <v>420000</v>
       </c>
       <c r="D204" s="4" t="n">
-        <v>251000</v>
+        <v>468000</v>
       </c>
       <c r="E204" s="4" t="n">
-        <v>318000</v>
+        <v>489000</v>
       </c>
     </row>
     <row r="205">
@@ -2991,16 +2991,16 @@
         </is>
       </c>
       <c r="B205" s="4" t="n">
-        <v>66100</v>
+        <v>101000</v>
       </c>
       <c r="C205" s="4" t="n">
-        <v>121000</v>
+        <v>171000</v>
       </c>
       <c r="D205" s="4" t="n">
-        <v>169000</v>
+        <v>217000</v>
       </c>
       <c r="E205" s="4" t="n">
-        <v>200000</v>
+        <v>239000</v>
       </c>
     </row>
     <row r="206">
@@ -3010,16 +3010,16 @@
         </is>
       </c>
       <c r="B206" s="4" t="n">
-        <v>47100</v>
+        <v>83400</v>
       </c>
       <c r="C206" s="4" t="n">
-        <v>88200</v>
+        <v>127000</v>
       </c>
       <c r="D206" s="4" t="n">
-        <v>122000</v>
+        <v>141000</v>
       </c>
       <c r="E206" s="4" t="n">
-        <v>137000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="210">
@@ -3050,16 +3050,16 @@
         </is>
       </c>
       <c r="B212" s="4" t="n">
-        <v>526</v>
+        <v>1147</v>
       </c>
       <c r="C212" s="4" t="n">
-        <v>737</v>
+        <v>1754</v>
       </c>
       <c r="D212" s="4" t="n">
-        <v>1009</v>
+        <v>1822</v>
       </c>
       <c r="E212" s="4" t="n">
-        <v>1121</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="213">
@@ -3069,16 +3069,16 @@
         </is>
       </c>
       <c r="B213" s="4" t="n">
-        <v>234</v>
+        <v>413</v>
       </c>
       <c r="C213" s="4" t="n">
-        <v>415</v>
+        <v>694</v>
       </c>
       <c r="D213" s="4" t="n">
-        <v>590</v>
+        <v>883</v>
       </c>
       <c r="E213" s="4" t="n">
-        <v>720</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="214">
@@ -3088,16 +3088,16 @@
         </is>
       </c>
       <c r="B214" s="4" t="n">
-        <v>18.3</v>
+        <v>204</v>
       </c>
       <c r="C214" s="4" t="n">
-        <v>36.6</v>
+        <v>251</v>
       </c>
       <c r="D214" s="4" t="n">
-        <v>55.3</v>
+        <v>399</v>
       </c>
       <c r="E214" s="4" t="n">
-        <v>73.09999999999999</v>
+        <v>465</v>
       </c>
     </row>
     <row r="215">
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B215" s="4" t="n">
-        <v>584</v>
+        <v>1157</v>
       </c>
       <c r="C215" s="4" t="n">
-        <v>1078</v>
+        <v>1721</v>
       </c>
       <c r="D215" s="4" t="n">
-        <v>1030</v>
+        <v>1917</v>
       </c>
       <c r="E215" s="4" t="n">
-        <v>1303</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="216">
@@ -3126,16 +3126,16 @@
         </is>
       </c>
       <c r="B216" s="4" t="n">
-        <v>271</v>
+        <v>416</v>
       </c>
       <c r="C216" s="4" t="n">
-        <v>496</v>
+        <v>701</v>
       </c>
       <c r="D216" s="4" t="n">
-        <v>693</v>
+        <v>889</v>
       </c>
       <c r="E216" s="4" t="n">
-        <v>821</v>
+        <v>980</v>
       </c>
     </row>
     <row r="217">
@@ -3145,16 +3145,16 @@
         </is>
       </c>
       <c r="B217" s="4" t="n">
-        <v>193</v>
+        <v>342</v>
       </c>
       <c r="C217" s="4" t="n">
-        <v>361</v>
+        <v>518</v>
       </c>
       <c r="D217" s="4" t="n">
-        <v>498</v>
+        <v>578</v>
       </c>
       <c r="E217" s="4" t="n">
-        <v>562</v>
+        <v>697</v>
       </c>
     </row>
     <row r="221">
@@ -3185,16 +3185,16 @@
         </is>
       </c>
       <c r="B223" s="4" t="n">
-        <v>2.24133</v>
+        <v>1.39846</v>
       </c>
       <c r="C223" s="4" t="n">
-        <v>2.20897</v>
+        <v>1.18719</v>
       </c>
       <c r="D223" s="4" t="n">
-        <v>1.99737</v>
+        <v>1.18228</v>
       </c>
       <c r="E223" s="4" t="n">
-        <v>2.14621</v>
+        <v>1.21185</v>
       </c>
     </row>
     <row r="224">
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="B224" s="4" t="n">
-        <v>10.96</v>
+        <v>7.77</v>
       </c>
       <c r="C224" s="4" t="n">
-        <v>11.31</v>
+        <v>8.01</v>
       </c>
       <c r="D224" s="4" t="n">
-        <v>11.59</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E224" s="4" t="n">
-        <v>11.88</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="225">
@@ -3223,16 +3223,16 @@
         </is>
       </c>
       <c r="B225" s="4" t="n">
-        <v>219.17</v>
+        <v>17.48</v>
       </c>
       <c r="C225" s="4" t="n">
-        <v>221.88</v>
+        <v>25.76</v>
       </c>
       <c r="D225" s="4" t="n">
-        <v>220.2</v>
+        <v>25.78</v>
       </c>
       <c r="E225" s="4" t="n">
-        <v>220.04</v>
+        <v>28.35</v>
       </c>
     </row>
     <row r="226">
@@ -3242,16 +3242,16 @@
         </is>
       </c>
       <c r="B226" s="4" t="n">
-        <v>1.21566</v>
+        <v>1.29361</v>
       </c>
       <c r="C226" s="4" t="n">
-        <v>1.45707</v>
+        <v>1.12045</v>
       </c>
       <c r="D226" s="4" t="n">
-        <v>1.45329</v>
+        <v>1.10408</v>
       </c>
       <c r="E226" s="4" t="n">
-        <v>1.55335</v>
+        <v>1.11008</v>
       </c>
     </row>
     <row r="227">
@@ -3261,16 +3261,16 @@
         </is>
       </c>
       <c r="B227" s="4" t="n">
-        <v>8.85</v>
+        <v>7.93</v>
       </c>
       <c r="C227" s="4" t="n">
-        <v>8.74</v>
+        <v>7.974810000000001</v>
       </c>
       <c r="D227" s="4" t="n">
-        <v>9.4</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="E227" s="4" t="n">
-        <v>9.94</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="228">
@@ -3280,16 +3280,16 @@
         </is>
       </c>
       <c r="B228" s="4" t="n">
-        <v>15.19</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C228" s="4" t="n">
-        <v>17.43</v>
+        <v>11.98</v>
       </c>
       <c r="D228" s="4" t="n">
-        <v>19.35</v>
+        <v>16.32</v>
       </c>
       <c r="E228" s="4" t="n">
-        <v>22.37</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="232">
@@ -3320,16 +3320,16 @@
         </is>
       </c>
       <c r="B234" s="4" t="n">
-        <v>4471</v>
+        <v>11800</v>
       </c>
       <c r="C234" s="4" t="n">
-        <v>5919</v>
+        <v>13700</v>
       </c>
       <c r="D234" s="4" t="n">
-        <v>9660</v>
+        <v>14500</v>
       </c>
       <c r="E234" s="4" t="n">
-        <v>9246</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="235">
@@ -3339,16 +3339,16 @@
         </is>
       </c>
       <c r="B235" s="4" t="n">
-        <v>2782</v>
+        <v>8062</v>
       </c>
       <c r="C235" s="4" t="n">
-        <v>6671</v>
+        <v>10600</v>
       </c>
       <c r="D235" s="4" t="n">
-        <v>8084</v>
+        <v>12300</v>
       </c>
       <c r="E235" s="4" t="n">
-        <v>8641</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="236">
@@ -3358,16 +3358,16 @@
         </is>
       </c>
       <c r="B236" s="4" t="n">
-        <v>1412</v>
+        <v>3864</v>
       </c>
       <c r="C236" s="4" t="n">
-        <v>2659</v>
+        <v>5769</v>
       </c>
       <c r="D236" s="4" t="n">
-        <v>4272</v>
+        <v>7094</v>
       </c>
       <c r="E236" s="4" t="n">
-        <v>5231</v>
+        <v>7699</v>
       </c>
     </row>
     <row r="237">
@@ -3377,16 +3377,16 @@
         </is>
       </c>
       <c r="B237" s="4" t="n">
-        <v>6320</v>
+        <v>10800</v>
       </c>
       <c r="C237" s="4" t="n">
-        <v>7135</v>
+        <v>13900</v>
       </c>
       <c r="D237" s="4" t="n">
-        <v>8982</v>
+        <v>14900</v>
       </c>
       <c r="E237" s="4" t="n">
-        <v>13300</v>
+        <v>15300</v>
       </c>
     </row>
     <row r="238">
@@ -3396,16 +3396,16 @@
         </is>
       </c>
       <c r="B238" s="4" t="n">
-        <v>3056</v>
+        <v>7937</v>
       </c>
       <c r="C238" s="4" t="n">
-        <v>6627</v>
+        <v>9061</v>
       </c>
       <c r="D238" s="4" t="n">
-        <v>8347</v>
+        <v>12100</v>
       </c>
       <c r="E238" s="4" t="n">
-        <v>9287</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="239">
@@ -3415,16 +3415,16 @@
         </is>
       </c>
       <c r="B239" s="4" t="n">
-        <v>3506</v>
+        <v>5224</v>
       </c>
       <c r="C239" s="4" t="n">
-        <v>5657</v>
+        <v>6918</v>
       </c>
       <c r="D239" s="4" t="n">
-        <v>5086</v>
+        <v>8439</v>
       </c>
       <c r="E239" s="4" t="n">
-        <v>7937</v>
+        <v>9041</v>
       </c>
     </row>
     <row r="243">
@@ -3455,16 +3455,16 @@
         </is>
       </c>
       <c r="B245" s="4" t="n">
-        <v>586</v>
+        <v>1543</v>
       </c>
       <c r="C245" s="4" t="n">
-        <v>776</v>
+        <v>1790</v>
       </c>
       <c r="D245" s="4" t="n">
-        <v>1266</v>
+        <v>1899</v>
       </c>
       <c r="E245" s="4" t="n">
-        <v>1212</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="246">
@@ -3474,16 +3474,16 @@
         </is>
       </c>
       <c r="B246" s="4" t="n">
-        <v>365</v>
+        <v>1057</v>
       </c>
       <c r="C246" s="4" t="n">
-        <v>874</v>
+        <v>1391</v>
       </c>
       <c r="D246" s="4" t="n">
-        <v>1060</v>
+        <v>1617</v>
       </c>
       <c r="E246" s="4" t="n">
-        <v>1133</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="247">
@@ -3493,16 +3493,16 @@
         </is>
       </c>
       <c r="B247" s="4" t="n">
-        <v>185</v>
+        <v>506</v>
       </c>
       <c r="C247" s="4" t="n">
-        <v>349</v>
+        <v>756</v>
       </c>
       <c r="D247" s="4" t="n">
-        <v>560</v>
+        <v>930</v>
       </c>
       <c r="E247" s="4" t="n">
-        <v>686</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="248">
@@ -3512,16 +3512,16 @@
         </is>
       </c>
       <c r="B248" s="4" t="n">
-        <v>829</v>
+        <v>1413</v>
       </c>
       <c r="C248" s="4" t="n">
-        <v>935</v>
+        <v>1826</v>
       </c>
       <c r="D248" s="4" t="n">
-        <v>1177</v>
+        <v>1955</v>
       </c>
       <c r="E248" s="4" t="n">
-        <v>1743</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="249">
@@ -3531,16 +3531,16 @@
         </is>
       </c>
       <c r="B249" s="4" t="n">
-        <v>401</v>
+        <v>1040</v>
       </c>
       <c r="C249" s="4" t="n">
-        <v>869</v>
+        <v>1188</v>
       </c>
       <c r="D249" s="4" t="n">
-        <v>1094</v>
+        <v>1592</v>
       </c>
       <c r="E249" s="4" t="n">
-        <v>1217</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="250">
@@ -3550,16 +3550,16 @@
         </is>
       </c>
       <c r="B250" s="4" t="n">
-        <v>460</v>
+        <v>685</v>
       </c>
       <c r="C250" s="4" t="n">
-        <v>742</v>
+        <v>907</v>
       </c>
       <c r="D250" s="4" t="n">
-        <v>667</v>
+        <v>1106</v>
       </c>
       <c r="E250" s="4" t="n">
-        <v>1040</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="254">
@@ -3590,16 +3590,16 @@
         </is>
       </c>
       <c r="B256" s="4" t="n">
-        <v>63</v>
+        <v>23.74469</v>
       </c>
       <c r="C256" s="4" t="n">
-        <v>61.58</v>
+        <v>25.10921</v>
       </c>
       <c r="D256" s="4" t="n">
-        <v>51.47</v>
+        <v>27.41</v>
       </c>
       <c r="E256" s="4" t="n">
-        <v>52.05</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="257">
@@ -3609,16 +3609,16 @@
         </is>
       </c>
       <c r="B257" s="4" t="n">
-        <v>92.2</v>
+        <v>64.83</v>
       </c>
       <c r="C257" s="4" t="n">
-        <v>92.40000000000001</v>
+        <v>66.45</v>
       </c>
       <c r="D257" s="4" t="n">
-        <v>93.33</v>
+        <v>71.13</v>
       </c>
       <c r="E257" s="4" t="n">
-        <v>96.67</v>
+        <v>74.75</v>
       </c>
     </row>
     <row r="258">
@@ -3628,16 +3628,16 @@
         </is>
       </c>
       <c r="B258" s="4" t="n">
-        <v>531.39</v>
+        <v>186.32</v>
       </c>
       <c r="C258" s="4" t="n">
-        <v>537.8200000000001</v>
+        <v>227.78</v>
       </c>
       <c r="D258" s="4" t="n">
-        <v>535.64</v>
+        <v>262.4</v>
       </c>
       <c r="E258" s="4" t="n">
-        <v>533.97</v>
+        <v>285</v>
       </c>
     </row>
     <row r="259">
@@ -3647,16 +3647,16 @@
         </is>
       </c>
       <c r="B259" s="4" t="n">
-        <v>33.71621</v>
+        <v>23.53156</v>
       </c>
       <c r="C259" s="4" t="n">
-        <v>37.36079</v>
+        <v>28.30915</v>
       </c>
       <c r="D259" s="4" t="n">
-        <v>41.53012</v>
+        <v>27.83776</v>
       </c>
       <c r="E259" s="4" t="n">
-        <v>47.33</v>
+        <v>31.47757</v>
       </c>
     </row>
     <row r="260">
@@ -3666,16 +3666,16 @@
         </is>
       </c>
       <c r="B260" s="4" t="n">
-        <v>92.40000000000001</v>
+        <v>65.61114000000001</v>
       </c>
       <c r="C260" s="4" t="n">
-        <v>94.29000000000001</v>
+        <v>102.56</v>
       </c>
       <c r="D260" s="4" t="n">
-        <v>100.65</v>
+        <v>79.44</v>
       </c>
       <c r="E260" s="4" t="n">
-        <v>106.61</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="261">
@@ -3685,16 +3685,16 @@
         </is>
       </c>
       <c r="B261" s="4" t="n">
-        <v>211.19</v>
+        <v>116.64</v>
       </c>
       <c r="C261" s="4" t="n">
-        <v>236.88</v>
+        <v>148.98</v>
       </c>
       <c r="D261" s="4" t="n">
-        <v>253.64</v>
+        <v>178.42</v>
       </c>
       <c r="E261" s="4" t="n">
-        <v>284.93</v>
+        <v>229.1</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/merged_summary.xlsx
+++ b/rfuse/merged_summary.xlsx
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>8258</v>
+        <v>9394</v>
       </c>
       <c r="C3" s="3">
-        <v>15200</v>
+        <v>17400</v>
       </c>
       <c r="D3" s="3">
-        <v>27100</v>
+        <v>30100</v>
       </c>
       <c r="E3" s="3">
-        <v>37200</v>
+        <v>38500</v>
       </c>
       <c r="F3" s="3">
-        <v>38300</v>
+        <v>39100</v>
       </c>
       <c r="G3" s="3">
-        <v>38100</v>
+        <v>39500</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -581,22 +581,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>4376</v>
+        <v>5885</v>
       </c>
       <c r="C4" s="3">
-        <v>8094</v>
+        <v>11200</v>
       </c>
       <c r="D4" s="3">
-        <v>16400</v>
+        <v>18100</v>
       </c>
       <c r="E4" s="3">
-        <v>25600</v>
+        <v>28400</v>
       </c>
       <c r="F4" s="3">
-        <v>27500</v>
+        <v>30500</v>
       </c>
       <c r="G4" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -604,22 +604,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>3605</v>
+        <v>5333</v>
       </c>
       <c r="C5" s="3">
-        <v>7557</v>
+        <v>9615</v>
       </c>
       <c r="D5" s="3">
-        <v>14400</v>
+        <v>17100</v>
       </c>
       <c r="E5" s="3">
-        <v>23800</v>
+        <v>24500</v>
       </c>
       <c r="F5" s="3">
-        <v>23000</v>
+        <v>24200</v>
       </c>
       <c r="G5" s="3">
-        <v>21100</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -658,22 +658,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="4">
-        <v>1082.130432</v>
+        <v>1231.028224</v>
       </c>
       <c r="C9" s="4">
-        <v>1988.100096</v>
+        <v>2274.361344</v>
       </c>
       <c r="D9" s="4">
-        <v>3555.721216</v>
+        <v>3947.88864</v>
       </c>
       <c r="E9" s="4">
-        <v>4881.12128</v>
+        <v>5041.553408</v>
       </c>
       <c r="F9" s="4">
-        <v>5017.43616</v>
+        <v>5125.439488</v>
       </c>
       <c r="G9" s="4">
-        <v>4988.076032</v>
+        <v>5181.014016</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -681,22 +681,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>573.571072</v>
+        <v>771.751936</v>
       </c>
       <c r="C10" s="4">
-        <v>1061.158912</v>
+        <v>1466.957824</v>
       </c>
       <c r="D10" s="4">
-        <v>2155.872256</v>
+        <v>2375.02464</v>
       </c>
       <c r="E10" s="4">
-        <v>3355.4432</v>
+        <v>3728.736256</v>
       </c>
       <c r="F10" s="4">
-        <v>3602.907136</v>
+        <v>3999.268864</v>
       </c>
       <c r="G10" s="4">
-        <v>3329.2288</v>
+        <v>3304.062976</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -704,22 +704,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="4">
-        <v>472.907776</v>
+        <v>699.4001919999999</v>
       </c>
       <c r="C11" s="4">
-        <v>990.90432</v>
+        <v>1260.388352</v>
       </c>
       <c r="D11" s="4">
-        <v>1890.582528</v>
+        <v>2246.049792</v>
       </c>
       <c r="E11" s="4">
-        <v>3121.610752</v>
+        <v>3205.496832</v>
       </c>
       <c r="F11" s="4">
-        <v>3144.679424</v>
+        <v>3177.18528</v>
       </c>
       <c r="G11" s="4">
-        <v>2771.386368</v>
+        <v>2789.21216</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -758,22 +758,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>119.76</v>
+        <v>105.5</v>
       </c>
       <c r="C15" s="4">
-        <v>130.06</v>
+        <v>113.63</v>
       </c>
       <c r="D15" s="4">
-        <v>145.82</v>
+        <v>130.56</v>
       </c>
       <c r="E15" s="4">
-        <v>211.97</v>
+        <v>205.11</v>
       </c>
       <c r="F15" s="4">
-        <v>406.72</v>
+        <v>397.32</v>
       </c>
       <c r="G15" s="4">
-        <v>818.37</v>
+        <v>788.98</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -781,22 +781,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="4">
-        <v>227.14</v>
+        <v>168.7</v>
       </c>
       <c r="C16" s="4">
-        <v>242.07</v>
+        <v>174.75</v>
       </c>
       <c r="D16" s="4">
-        <v>238.74</v>
+        <v>218.15</v>
       </c>
       <c r="E16" s="4">
-        <v>308.51</v>
+        <v>255.3</v>
       </c>
       <c r="F16" s="4">
-        <v>557.0700000000001</v>
+        <v>503.94</v>
       </c>
       <c r="G16" s="4">
-        <v>1240.63</v>
+        <v>1250.33</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -804,22 +804,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="4">
-        <v>276</v>
+        <v>186.87</v>
       </c>
       <c r="C17" s="4">
-        <v>257.88</v>
+        <v>196.6</v>
       </c>
       <c r="D17" s="4">
-        <v>268.15</v>
+        <v>225.29</v>
       </c>
       <c r="E17" s="4">
-        <v>328.9</v>
+        <v>314.86</v>
       </c>
       <c r="F17" s="4">
-        <v>653.5</v>
+        <v>646.47</v>
       </c>
       <c r="G17" s="4">
-        <v>1482.93</v>
+        <v>1475.04</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -858,22 +858,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="4">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C21" s="4">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="D21" s="4">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E21" s="4">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="F21" s="4">
-        <v>1106</v>
+        <v>1336</v>
       </c>
       <c r="G21" s="4">
-        <v>2802</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -881,22 +881,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="C22" s="4">
-        <v>371</v>
+        <v>302</v>
       </c>
       <c r="D22" s="4">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="E22" s="4">
-        <v>553</v>
+        <v>494</v>
       </c>
       <c r="F22" s="4">
-        <v>1029</v>
+        <v>971</v>
       </c>
       <c r="G22" s="4">
-        <v>2769</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -904,22 +904,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>457</v>
+        <v>310</v>
       </c>
       <c r="C23" s="4">
-        <v>445</v>
+        <v>351</v>
       </c>
       <c r="D23" s="4">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="E23" s="4">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F23" s="4">
-        <v>1303</v>
+        <v>1287</v>
       </c>
       <c r="G23" s="4">
-        <v>3032</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -958,22 +958,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="4">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C27" s="4">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="D27" s="4">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="E27" s="4">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="F27" s="4">
-        <v>1680</v>
+        <v>2024</v>
       </c>
       <c r="G27" s="4">
-        <v>4621</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -981,22 +981,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="4">
-        <v>433</v>
+        <v>302</v>
       </c>
       <c r="C28" s="4">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="D28" s="4">
-        <v>465</v>
+        <v>416</v>
       </c>
       <c r="E28" s="4">
-        <v>635</v>
+        <v>578</v>
       </c>
       <c r="F28" s="4">
-        <v>1172</v>
+        <v>1139</v>
       </c>
       <c r="G28" s="4">
-        <v>3654</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1004,22 +1004,22 @@
         <v>3</v>
       </c>
       <c r="B29" s="4">
-        <v>515</v>
+        <v>363</v>
       </c>
       <c r="C29" s="4">
-        <v>523</v>
+        <v>388</v>
       </c>
       <c r="D29" s="4">
-        <v>537</v>
+        <v>461</v>
       </c>
       <c r="E29" s="4">
         <v>709</v>
       </c>
       <c r="F29" s="4">
-        <v>1532</v>
+        <v>1500</v>
       </c>
       <c r="G29" s="4">
-        <v>3752</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1061,19 +1061,19 @@
         <v>35700</v>
       </c>
       <c r="C34" s="3">
-        <v>70900</v>
+        <v>71900</v>
       </c>
       <c r="D34" s="3">
-        <v>139000</v>
+        <v>142000</v>
       </c>
       <c r="E34" s="3">
-        <v>263000</v>
+        <v>271000</v>
       </c>
       <c r="F34" s="3">
-        <v>474000</v>
+        <v>482000</v>
       </c>
       <c r="G34" s="3">
-        <v>777000</v>
+        <v>774000</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1081,22 +1081,22 @@
         <v>2</v>
       </c>
       <c r="B35" s="3">
-        <v>20000</v>
+        <v>27800</v>
       </c>
       <c r="C35" s="3">
-        <v>44600</v>
+        <v>55400</v>
       </c>
       <c r="D35" s="3">
-        <v>83800</v>
+        <v>107000</v>
       </c>
       <c r="E35" s="3">
-        <v>189000</v>
+        <v>201000</v>
       </c>
       <c r="F35" s="3">
         <v>306000</v>
       </c>
       <c r="G35" s="3">
-        <v>283000</v>
+        <v>296000</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1104,22 +1104,22 @@
         <v>3</v>
       </c>
       <c r="B36" s="3">
-        <v>16900</v>
+        <v>25700</v>
       </c>
       <c r="C36" s="3">
-        <v>34800</v>
+        <v>51600</v>
       </c>
       <c r="D36" s="3">
-        <v>73500</v>
+        <v>100000</v>
       </c>
       <c r="E36" s="3">
-        <v>159000</v>
+        <v>189000</v>
       </c>
       <c r="F36" s="3">
-        <v>312000</v>
+        <v>335000</v>
       </c>
       <c r="G36" s="3">
-        <v>494000</v>
+        <v>503000</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1161,19 +1161,19 @@
         <v>145.752064</v>
       </c>
       <c r="C40" s="4">
-        <v>290.455552</v>
+        <v>294.649856</v>
       </c>
       <c r="D40" s="4">
-        <v>570.425344</v>
+        <v>581.95968</v>
       </c>
       <c r="E40" s="4">
-        <v>1075.838976</v>
+        <v>1111.49056</v>
       </c>
       <c r="F40" s="4">
-        <v>1941.962752</v>
+        <v>1973.420032</v>
       </c>
       <c r="G40" s="4">
-        <v>3181.379584</v>
+        <v>3169.845248</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1181,22 +1181,22 @@
         <v>2</v>
       </c>
       <c r="B41" s="4">
-        <v>81.8937856</v>
+        <v>114.294784</v>
       </c>
       <c r="C41" s="4">
-        <v>182.452224</v>
+        <v>226.492416</v>
       </c>
       <c r="D41" s="4">
-        <v>342.884352</v>
+        <v>437.256192</v>
       </c>
       <c r="E41" s="4">
-        <v>773.8490880000001</v>
+        <v>823.13216</v>
       </c>
       <c r="F41" s="4">
-        <v>1253.04832</v>
+        <v>1251.999744</v>
       </c>
       <c r="G41" s="4">
-        <v>1160.773632</v>
+        <v>1212.153856</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1204,22 +1204,22 @@
         <v>3</v>
       </c>
       <c r="B42" s="4">
-        <v>69.31087359999999</v>
+        <v>104.8576</v>
       </c>
       <c r="C42" s="4">
-        <v>142.606336</v>
+        <v>210.763776</v>
       </c>
       <c r="D42" s="4">
-        <v>300.941312</v>
+        <v>411.041792</v>
       </c>
       <c r="E42" s="4">
-        <v>651.165696</v>
+        <v>773.8490880000001</v>
       </c>
       <c r="F42" s="4">
-        <v>1277.165568</v>
+        <v>1371.537408</v>
       </c>
       <c r="G42" s="4">
-        <v>2021.654528</v>
+        <v>2060.45184</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1258,22 +1258,22 @@
         <v>1</v>
       </c>
       <c r="B46" s="4">
-        <v>27.65067</v>
+        <v>27.5332</v>
       </c>
       <c r="C46" s="4">
-        <v>27.78939</v>
+        <v>27.40673</v>
       </c>
       <c r="D46" s="4">
-        <v>28.27756</v>
+        <v>27.72106</v>
       </c>
       <c r="E46" s="4">
-        <v>29.57228</v>
+        <v>28.84652</v>
       </c>
       <c r="F46" s="4">
-        <v>32.73336</v>
+        <v>32.19637</v>
       </c>
       <c r="G46" s="4">
-        <v>39.99583000000001</v>
+        <v>40.59279</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1281,22 +1281,22 @@
         <v>2</v>
       </c>
       <c r="B47" s="4">
-        <v>49.63804</v>
+        <v>35.6589</v>
       </c>
       <c r="C47" s="4">
-        <v>44.3436</v>
+        <v>35.71173</v>
       </c>
       <c r="D47" s="4">
-        <v>46.67045</v>
+        <v>36.82257</v>
       </c>
       <c r="E47" s="4">
-        <v>41.2109</v>
+        <v>38.90130000000001</v>
       </c>
       <c r="F47" s="4">
-        <v>51.34395</v>
+        <v>51.47196</v>
       </c>
       <c r="G47" s="4">
-        <v>111.6219</v>
+        <v>106.83795</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1304,22 +1304,22 @@
         <v>3</v>
       </c>
       <c r="B48" s="4">
-        <v>58.5289</v>
+        <v>38.61556</v>
       </c>
       <c r="C48" s="4">
-        <v>56.48868</v>
+        <v>37.99648000000001</v>
       </c>
       <c r="D48" s="4">
-        <v>53.38082</v>
+        <v>39.25501000000001</v>
       </c>
       <c r="E48" s="4">
-        <v>49.3582</v>
+        <v>41.65730000000001</v>
       </c>
       <c r="F48" s="4">
-        <v>50.08457</v>
+        <v>46.75563</v>
       </c>
       <c r="G48" s="4">
-        <v>63.3888</v>
+        <v>62.08248</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1361,19 +1361,19 @@
         <v>44.288</v>
       </c>
       <c r="C52" s="4">
-        <v>44.8</v>
+        <v>44.288</v>
       </c>
       <c r="D52" s="4">
-        <v>46.336</v>
+        <v>45.312</v>
       </c>
       <c r="E52" s="4">
-        <v>50.432</v>
+        <v>48.896</v>
       </c>
       <c r="F52" s="4">
-        <v>60.672</v>
+        <v>59.648</v>
       </c>
       <c r="G52" s="4">
-        <v>81.408</v>
+        <v>82.432</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1381,22 +1381,22 @@
         <v>2</v>
       </c>
       <c r="B53" s="4">
-        <v>92.672</v>
+        <v>62.72</v>
       </c>
       <c r="C53" s="4">
-        <v>82.432</v>
+        <v>64.256</v>
       </c>
       <c r="D53" s="4">
-        <v>87.55200000000001</v>
+        <v>69.12</v>
       </c>
       <c r="E53" s="4">
-        <v>82.432</v>
+        <v>78.336</v>
       </c>
       <c r="F53" s="4">
         <v>110.08</v>
       </c>
       <c r="G53" s="4">
-        <v>358.4</v>
+        <v>342.016</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1404,22 +1404,22 @@
         <v>3</v>
       </c>
       <c r="B54" s="4">
-        <v>111.104</v>
+        <v>72.19200000000001</v>
       </c>
       <c r="C54" s="4">
-        <v>107.008</v>
+        <v>69.12</v>
       </c>
       <c r="D54" s="4">
-        <v>103.936</v>
+        <v>75.264</v>
       </c>
       <c r="E54" s="4">
-        <v>99.84</v>
+        <v>84.48</v>
       </c>
       <c r="F54" s="4">
-        <v>103.936</v>
+        <v>98.816</v>
       </c>
       <c r="G54" s="4">
-        <v>136.192</v>
+        <v>134.144</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1458,22 +1458,22 @@
         <v>1</v>
       </c>
       <c r="B58" s="4">
+        <v>45.824</v>
+      </c>
+      <c r="C58" s="4">
         <v>46.848</v>
       </c>
-      <c r="C58" s="4">
-        <v>48.384</v>
-      </c>
       <c r="D58" s="4">
-        <v>54.528</v>
+        <v>53.504</v>
       </c>
       <c r="E58" s="4">
-        <v>64.256</v>
+        <v>63.232</v>
       </c>
       <c r="F58" s="4">
         <v>75.264</v>
       </c>
       <c r="G58" s="4">
-        <v>101.888</v>
+        <v>102.912</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1481,22 +1481,22 @@
         <v>2</v>
       </c>
       <c r="B59" s="4">
-        <v>114.176</v>
+        <v>91.648</v>
       </c>
       <c r="C59" s="4">
-        <v>108.032</v>
+        <v>92.672</v>
       </c>
       <c r="D59" s="4">
-        <v>114.176</v>
+        <v>95.744</v>
       </c>
       <c r="E59" s="4">
-        <v>105.984</v>
+        <v>102.912</v>
       </c>
       <c r="F59" s="4">
-        <v>134.144</v>
+        <v>136.192</v>
       </c>
       <c r="G59" s="4">
-        <v>528.384</v>
+        <v>505.856</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1504,22 +1504,22 @@
         <v>3</v>
       </c>
       <c r="B60" s="4">
-        <v>134.144</v>
+        <v>94.72</v>
       </c>
       <c r="C60" s="4">
-        <v>132.096</v>
+        <v>96.768</v>
       </c>
       <c r="D60" s="4">
-        <v>128.512</v>
+        <v>99.84</v>
       </c>
       <c r="E60" s="4">
-        <v>122.368</v>
+        <v>108.032</v>
       </c>
       <c r="F60" s="4">
-        <v>130.56</v>
+        <v>126.464</v>
       </c>
       <c r="G60" s="4">
-        <v>179.2</v>
+        <v>177.152</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1558,22 +1558,22 @@
         <v>1</v>
       </c>
       <c r="B65" s="3">
-        <v>8982</v>
+        <v>12000</v>
       </c>
       <c r="C65" s="3">
-        <v>13200</v>
+        <v>18100</v>
       </c>
       <c r="D65" s="3">
-        <v>17900</v>
+        <v>22800</v>
       </c>
       <c r="E65" s="3">
-        <v>19000</v>
+        <v>26900</v>
       </c>
       <c r="F65" s="3">
-        <v>22700</v>
+        <v>29300</v>
       </c>
       <c r="G65" s="3">
-        <v>21700</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1581,22 +1581,22 @@
         <v>2</v>
       </c>
       <c r="B66" s="3">
-        <v>3531</v>
+        <v>5595</v>
       </c>
       <c r="C66" s="3">
-        <v>6543</v>
+        <v>8865</v>
       </c>
       <c r="D66" s="3">
-        <v>11900</v>
+        <v>13800</v>
       </c>
       <c r="E66" s="3">
-        <v>15100</v>
+        <v>13700</v>
       </c>
       <c r="F66" s="3">
-        <v>15300</v>
+        <v>15800</v>
       </c>
       <c r="G66" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1604,22 +1604,22 @@
         <v>3</v>
       </c>
       <c r="B67" s="3">
-        <v>4876</v>
+        <v>7111</v>
       </c>
       <c r="C67" s="3">
-        <v>8462</v>
+        <v>11500</v>
       </c>
       <c r="D67" s="3">
-        <v>12700</v>
+        <v>17500</v>
       </c>
       <c r="E67" s="3">
-        <v>14100</v>
+        <v>20100</v>
       </c>
       <c r="F67" s="3">
-        <v>13700</v>
+        <v>19500</v>
       </c>
       <c r="G67" s="3">
-        <v>14000</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1658,22 +1658,22 @@
         <v>1</v>
       </c>
       <c r="B71" s="4">
-        <v>1177.550848</v>
+        <v>1579.155456</v>
       </c>
       <c r="C71" s="4">
-        <v>1732.247552</v>
+        <v>2375.02464</v>
       </c>
       <c r="D71" s="4">
-        <v>2344.615936</v>
+        <v>2982.150144</v>
       </c>
       <c r="E71" s="4">
-        <v>2619.342848</v>
+        <v>3520.069632</v>
       </c>
       <c r="F71" s="4">
-        <v>2977.95584</v>
+        <v>3834.642432</v>
       </c>
       <c r="G71" s="4">
-        <v>2838.495232</v>
+        <v>3177.18528</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -1681,22 +1681,22 @@
         <v>2</v>
       </c>
       <c r="B72" s="4">
-        <v>462.422016</v>
+        <v>732.954624</v>
       </c>
       <c r="C72" s="4">
-        <v>857.735168</v>
+        <v>1161.822208</v>
       </c>
       <c r="D72" s="4">
-        <v>1565.523968</v>
+        <v>1814.03648</v>
       </c>
       <c r="E72" s="4">
-        <v>1980.760064</v>
+        <v>1793.06496</v>
       </c>
       <c r="F72" s="4">
-        <v>2002.78016</v>
+        <v>2075.131904</v>
       </c>
       <c r="G72" s="4">
-        <v>2110.783488</v>
+        <v>2089.811968</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -1704,22 +1704,22 @@
         <v>3</v>
       </c>
       <c r="B73" s="4">
-        <v>639.63136</v>
+        <v>932.184064</v>
       </c>
       <c r="C73" s="4">
-        <v>1109.393408</v>
+        <v>1507.852288</v>
       </c>
       <c r="D73" s="4">
-        <v>1661.99296</v>
+        <v>2294.284288</v>
       </c>
       <c r="E73" s="4">
-        <v>1844.445184</v>
+        <v>2638.217216</v>
       </c>
       <c r="F73" s="4">
-        <v>1795.162112</v>
+        <v>2556.428288</v>
       </c>
       <c r="G73" s="4">
-        <v>1963.982848</v>
+        <v>1987.05152</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -1758,22 +1758,22 @@
         <v>1</v>
       </c>
       <c r="B77" s="4">
-        <v>78.14</v>
+        <v>49.98</v>
       </c>
       <c r="C77" s="4">
-        <v>86.52</v>
+        <v>51.12</v>
       </c>
       <c r="D77" s="4">
-        <v>105.28</v>
+        <v>55.24</v>
       </c>
       <c r="E77" s="4">
-        <v>196.39</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="F77" s="4">
-        <v>385.97</v>
+        <v>190.42</v>
       </c>
       <c r="G77" s="4">
-        <v>661.5599999999999</v>
+        <v>574.36</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -1781,22 +1781,22 @@
         <v>2</v>
       </c>
       <c r="B78" s="4">
-        <v>231</v>
+        <v>141.25</v>
       </c>
       <c r="C78" s="4">
-        <v>245.98</v>
+        <v>160.22</v>
       </c>
       <c r="D78" s="4">
-        <v>223.6</v>
+        <v>171.41</v>
       </c>
       <c r="E78" s="4">
-        <v>304.69</v>
+        <v>361.72</v>
       </c>
       <c r="F78" s="4">
-        <v>607.83</v>
+        <v>556.85</v>
       </c>
       <c r="G78" s="4">
-        <v>1222.26</v>
+        <v>1197.49</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -1804,22 +1804,22 @@
         <v>3</v>
       </c>
       <c r="B79" s="4">
-        <v>160.08</v>
+        <v>105.81</v>
       </c>
       <c r="C79" s="4">
-        <v>171.7</v>
+        <v>109.74</v>
       </c>
       <c r="D79" s="4">
-        <v>205.37</v>
+        <v>123.61</v>
       </c>
       <c r="E79" s="4">
-        <v>375.84</v>
+        <v>186.93</v>
       </c>
       <c r="F79" s="4">
-        <v>759.65</v>
+        <v>464.54</v>
       </c>
       <c r="G79" s="4">
-        <v>1391.3</v>
+        <v>1417.81</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -1858,22 +1858,22 @@
         <v>1</v>
       </c>
       <c r="B83" s="4">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C83" s="4">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="D83" s="4">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="E83" s="4">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="F83" s="4">
-        <v>676</v>
+        <v>310</v>
       </c>
       <c r="G83" s="4">
-        <v>1303</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -1881,22 +1881,22 @@
         <v>2</v>
       </c>
       <c r="B84" s="4">
-        <v>297</v>
+        <v>163</v>
       </c>
       <c r="C84" s="4">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="D84" s="4">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="E84" s="4">
-        <v>392</v>
+        <v>482</v>
       </c>
       <c r="F84" s="4">
-        <v>898</v>
+        <v>873</v>
       </c>
       <c r="G84" s="4">
-        <v>1614</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -1904,22 +1904,22 @@
         <v>3</v>
       </c>
       <c r="B85" s="4">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="C85" s="4">
+        <v>135</v>
+      </c>
+      <c r="D85" s="4">
+        <v>184</v>
+      </c>
+      <c r="E85" s="4">
         <v>289</v>
       </c>
-      <c r="D85" s="4">
-        <v>330</v>
-      </c>
-      <c r="E85" s="4">
-        <v>578</v>
-      </c>
       <c r="F85" s="4">
-        <v>1401</v>
+        <v>963</v>
       </c>
       <c r="G85" s="4">
-        <v>3982</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -1958,19 +1958,19 @@
         <v>1</v>
       </c>
       <c r="B89" s="4">
-        <v>396</v>
+        <v>155</v>
       </c>
       <c r="C89" s="4">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="D89" s="4">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="E89" s="4">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c r="F89" s="4">
-        <v>775</v>
+        <v>392</v>
       </c>
       <c r="G89" s="4">
         <v>2540</v>
@@ -1981,22 +1981,22 @@
         <v>2</v>
       </c>
       <c r="B90" s="4">
-        <v>363</v>
+        <v>217</v>
       </c>
       <c r="C90" s="4">
-        <v>375</v>
+        <v>229</v>
       </c>
       <c r="D90" s="4">
-        <v>355</v>
+        <v>243</v>
       </c>
       <c r="E90" s="4">
-        <v>445</v>
+        <v>545</v>
       </c>
       <c r="F90" s="4">
-        <v>1123</v>
+        <v>1029</v>
       </c>
       <c r="G90" s="4">
-        <v>1975</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2004,22 +2004,22 @@
         <v>3</v>
       </c>
       <c r="B91" s="4">
-        <v>408</v>
+        <v>167</v>
       </c>
       <c r="C91" s="4">
-        <v>347</v>
+        <v>174</v>
       </c>
       <c r="D91" s="4">
-        <v>400</v>
+        <v>221</v>
       </c>
       <c r="E91" s="4">
-        <v>676</v>
+        <v>355</v>
       </c>
       <c r="F91" s="4">
-        <v>1745</v>
+        <v>1516</v>
       </c>
       <c r="G91" s="4">
-        <v>4883</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2058,22 +2058,22 @@
         <v>1</v>
       </c>
       <c r="B96" s="3">
-        <v>185000</v>
+        <v>239000</v>
       </c>
       <c r="C96" s="3">
-        <v>333000</v>
+        <v>423000</v>
       </c>
       <c r="D96" s="3">
-        <v>514000</v>
+        <v>630000</v>
       </c>
       <c r="E96" s="3">
-        <v>597000</v>
+        <v>771000</v>
       </c>
       <c r="F96" s="3">
-        <v>667000</v>
+        <v>685000</v>
       </c>
       <c r="G96" s="3">
-        <v>370000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2081,22 +2081,22 @@
         <v>2</v>
       </c>
       <c r="B97" s="3">
-        <v>28700</v>
+        <v>51600</v>
       </c>
       <c r="C97" s="3">
-        <v>64700</v>
+        <v>101000</v>
       </c>
       <c r="D97" s="3">
-        <v>124000</v>
+        <v>188000</v>
       </c>
       <c r="E97" s="3">
-        <v>223000</v>
+        <v>265000</v>
       </c>
       <c r="F97" s="3">
-        <v>308000</v>
+        <v>283000</v>
       </c>
       <c r="G97" s="3">
-        <v>360000</v>
+        <v>317000</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2104,22 +2104,22 @@
         <v>3</v>
       </c>
       <c r="B98" s="3">
-        <v>70000</v>
+        <v>91300</v>
       </c>
       <c r="C98" s="3">
-        <v>127000</v>
+        <v>147000</v>
       </c>
       <c r="D98" s="3">
-        <v>220000</v>
+        <v>278000</v>
       </c>
       <c r="E98" s="3">
-        <v>347000</v>
+        <v>425000</v>
       </c>
       <c r="F98" s="3">
-        <v>352000</v>
+        <v>459000</v>
       </c>
       <c r="G98" s="3">
-        <v>279000</v>
+        <v>379000</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2158,22 +2158,22 @@
         <v>1</v>
       </c>
       <c r="B102" s="4">
-        <v>758.120448</v>
+        <v>979.369984</v>
       </c>
       <c r="C102" s="4">
-        <v>1362.100224</v>
+        <v>1732.247552</v>
       </c>
       <c r="D102" s="4">
-        <v>2105.540608</v>
+        <v>2581.594112</v>
       </c>
       <c r="E102" s="4">
-        <v>2446.327808</v>
+        <v>3158.310912</v>
       </c>
       <c r="F102" s="4">
-        <v>2732.589056</v>
+        <v>2807.037952</v>
       </c>
       <c r="G102" s="4">
-        <v>1515.19232</v>
+        <v>2785.017856</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2181,22 +2181,22 @@
         <v>2</v>
       </c>
       <c r="B103" s="4">
-        <v>117.440512</v>
+        <v>211.812352</v>
       </c>
       <c r="C103" s="4">
-        <v>265.289728</v>
+        <v>415.236096</v>
       </c>
       <c r="D103" s="4">
-        <v>506.462208</v>
+        <v>767.557632</v>
       </c>
       <c r="E103" s="4">
-        <v>913.309696</v>
+        <v>1083.179008</v>
       </c>
       <c r="F103" s="4">
-        <v>1261.436928</v>
+        <v>1159.725056</v>
       </c>
       <c r="G103" s="4">
-        <v>1474.297856</v>
+        <v>1298.137088</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2204,22 +2204,22 @@
         <v>3</v>
       </c>
       <c r="B104" s="4">
-        <v>287.309824</v>
+        <v>374.341632</v>
       </c>
       <c r="C104" s="4">
-        <v>521.142272</v>
+        <v>601.882624</v>
       </c>
       <c r="D104" s="4">
-        <v>899.678208</v>
+        <v>1137.70496</v>
       </c>
       <c r="E104" s="4">
-        <v>1421.869056</v>
+        <v>1740.63616</v>
       </c>
       <c r="F104" s="4">
-        <v>1442.840576</v>
+        <v>1882.19392</v>
       </c>
       <c r="G104" s="4">
-        <v>1143.996416</v>
+        <v>1552.941056</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2258,22 +2258,22 @@
         <v>1</v>
       </c>
       <c r="B108" s="4">
-        <v>3.29691</v>
+        <v>2.22498</v>
       </c>
       <c r="C108" s="4">
-        <v>3.53023</v>
+        <v>2.38901</v>
       </c>
       <c r="D108" s="4">
-        <v>3.79462</v>
+        <v>2.39453</v>
       </c>
       <c r="E108" s="4">
-        <v>6.018470000000001</v>
+        <v>2.61313</v>
       </c>
       <c r="F108" s="4">
-        <v>11.45276</v>
+        <v>4.92057</v>
       </c>
       <c r="G108" s="4">
-        <v>20.06463</v>
+        <v>16.83237</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2281,22 +2281,22 @@
         <v>2</v>
       </c>
       <c r="B109" s="4">
-        <v>31.94</v>
+        <v>17.33986</v>
       </c>
       <c r="C109" s="4">
-        <v>27.33</v>
+        <v>17.34603</v>
       </c>
       <c r="D109" s="4">
-        <v>25.79</v>
+        <v>17.7024</v>
       </c>
       <c r="E109" s="4">
-        <v>25.0911</v>
+        <v>23.05</v>
       </c>
       <c r="F109" s="4">
-        <v>32.04</v>
+        <v>36.67</v>
       </c>
       <c r="G109" s="4">
-        <v>58.06</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2304,22 +2304,22 @@
         <v>3</v>
       </c>
       <c r="B110" s="4">
-        <v>11.90864</v>
+        <v>9.121370000000001</v>
       </c>
       <c r="C110" s="4">
-        <v>12.89</v>
+        <v>11.16</v>
       </c>
       <c r="D110" s="4">
-        <v>13.88601</v>
+        <v>10.49798</v>
       </c>
       <c r="E110" s="4">
-        <v>15.3</v>
+        <v>11.54</v>
       </c>
       <c r="F110" s="4">
-        <v>25.9</v>
+        <v>15.64</v>
       </c>
       <c r="G110" s="4">
-        <v>50.43</v>
+        <v>46.21</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2358,22 +2358,22 @@
         <v>1</v>
       </c>
       <c r="B114" s="4">
-        <v>6.88</v>
+        <v>3.568</v>
       </c>
       <c r="C114" s="4">
-        <v>7.136</v>
+        <v>3.952</v>
       </c>
       <c r="D114" s="4">
-        <v>7.072</v>
+        <v>3.952</v>
       </c>
       <c r="E114" s="4">
-        <v>9.024000000000001</v>
+        <v>4.256</v>
       </c>
       <c r="F114" s="4">
-        <v>21.888</v>
+        <v>9.536</v>
       </c>
       <c r="G114" s="4">
-        <v>42.24</v>
+        <v>55.552</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -2381,22 +2381,22 @@
         <v>2</v>
       </c>
       <c r="B115" s="4">
-        <v>39</v>
+        <v>20.352</v>
       </c>
       <c r="C115" s="4">
-        <v>37.12</v>
+        <v>22.144</v>
       </c>
       <c r="D115" s="4">
-        <v>33.024</v>
+        <v>22.912</v>
       </c>
       <c r="E115" s="4">
-        <v>34.048</v>
+        <v>31.616</v>
       </c>
       <c r="F115" s="4">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G115" s="4">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -2404,22 +2404,22 @@
         <v>3</v>
       </c>
       <c r="B116" s="4">
-        <v>25.216</v>
+        <v>10.944</v>
       </c>
       <c r="C116" s="4">
-        <v>25.472</v>
+        <v>13.888</v>
       </c>
       <c r="D116" s="4">
-        <v>24.192</v>
+        <v>13.376</v>
       </c>
       <c r="E116" s="4">
-        <v>23.424</v>
+        <v>16.32</v>
       </c>
       <c r="F116" s="4">
-        <v>39</v>
+        <v>21.888</v>
       </c>
       <c r="G116" s="4">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -2458,22 +2458,22 @@
         <v>1</v>
       </c>
       <c r="B120" s="4">
-        <v>8.096</v>
+        <v>4.832</v>
       </c>
       <c r="C120" s="4">
-        <v>8.640000000000001</v>
+        <v>5.28</v>
       </c>
       <c r="D120" s="4">
-        <v>8.768000000000001</v>
+        <v>5.344</v>
       </c>
       <c r="E120" s="4">
-        <v>12.608</v>
+        <v>5.92</v>
       </c>
       <c r="F120" s="4">
-        <v>29.568</v>
+        <v>13.248</v>
       </c>
       <c r="G120" s="4">
-        <v>79.36</v>
+        <v>84.48</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -2481,22 +2481,22 @@
         <v>2</v>
       </c>
       <c r="B121" s="4">
-        <v>43</v>
+        <v>22.4</v>
       </c>
       <c r="C121" s="4">
-        <v>41.728</v>
+        <v>24.192</v>
       </c>
       <c r="D121" s="4">
-        <v>38.144</v>
+        <v>25.472</v>
       </c>
       <c r="E121" s="4">
-        <v>40.192</v>
+        <v>35.584</v>
       </c>
       <c r="F121" s="4">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="G121" s="4">
-        <v>112</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -2504,22 +2504,22 @@
         <v>3</v>
       </c>
       <c r="B122" s="4">
-        <v>28.8</v>
+        <v>12.608</v>
       </c>
       <c r="C122" s="4">
-        <v>30.08</v>
+        <v>16.32</v>
       </c>
       <c r="D122" s="4">
-        <v>30.848</v>
+        <v>15.68</v>
       </c>
       <c r="E122" s="4">
-        <v>31.36</v>
+        <v>20.352</v>
       </c>
       <c r="F122" s="4">
-        <v>51</v>
+        <v>29.568</v>
       </c>
       <c r="G122" s="4">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -2558,22 +2558,22 @@
         <v>1</v>
       </c>
       <c r="B127" s="3">
-        <v>12300</v>
+        <v>18300</v>
       </c>
       <c r="C127" s="3">
-        <v>21600</v>
+        <v>24700</v>
       </c>
       <c r="D127" s="3">
-        <v>23000</v>
+        <v>24400</v>
       </c>
       <c r="E127" s="3">
-        <v>24200</v>
+        <v>24700</v>
       </c>
       <c r="F127" s="3">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="G127" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -2581,19 +2581,19 @@
         <v>2</v>
       </c>
       <c r="B128" s="3">
-        <v>7641</v>
+        <v>11900</v>
       </c>
       <c r="C128" s="3">
-        <v>13600</v>
+        <v>15200</v>
       </c>
       <c r="D128" s="3">
-        <v>18100</v>
+        <v>22000</v>
       </c>
       <c r="E128" s="3">
-        <v>18600</v>
+        <v>21300</v>
       </c>
       <c r="F128" s="3">
-        <v>18900</v>
+        <v>19700</v>
       </c>
       <c r="G128" s="3">
         <v>15700</v>
@@ -2604,22 +2604,22 @@
         <v>3</v>
       </c>
       <c r="B129" s="3">
-        <v>7062</v>
+        <v>10300</v>
       </c>
       <c r="C129" s="3">
-        <v>11300</v>
+        <v>9846</v>
       </c>
       <c r="D129" s="3">
-        <v>14800</v>
+        <v>15900</v>
       </c>
       <c r="E129" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="F129" s="3">
         <v>12700</v>
       </c>
       <c r="G129" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -2658,22 +2658,22 @@
         <v>1</v>
       </c>
       <c r="B133" s="4">
-        <v>1616.904192</v>
+        <v>2397.044736</v>
       </c>
       <c r="C133" s="4">
-        <v>2825.91232</v>
+        <v>3233.808384</v>
       </c>
       <c r="D133" s="4">
-        <v>3139.436544</v>
+        <v>3196.059648</v>
       </c>
       <c r="E133" s="4">
-        <v>3167.748096</v>
+        <v>3244.294144</v>
       </c>
       <c r="F133" s="4">
-        <v>3214.934016</v>
+        <v>3278.897152</v>
       </c>
       <c r="G133" s="4">
-        <v>3229.61408</v>
+        <v>3291.480064</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -2681,22 +2681,22 @@
         <v>2</v>
       </c>
       <c r="B134" s="4">
-        <v>1001.39008</v>
+        <v>1560.281088</v>
       </c>
       <c r="C134" s="4">
-        <v>1777.33632</v>
+        <v>1988.100096</v>
       </c>
       <c r="D134" s="4">
-        <v>2375.02464</v>
+        <v>2886.729728</v>
       </c>
       <c r="E134" s="4">
-        <v>2434.793472</v>
+        <v>2789.21216</v>
       </c>
       <c r="F134" s="4">
-        <v>2476.736512</v>
+        <v>2584.73984</v>
       </c>
       <c r="G134" s="4">
-        <v>2053.111808</v>
+        <v>2058.354688</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -2704,22 +2704,22 @@
         <v>3</v>
       </c>
       <c r="B135" s="4">
-        <v>925.892608</v>
+        <v>1355.808768</v>
       </c>
       <c r="C135" s="4">
-        <v>1482.686464</v>
+        <v>1290.797056</v>
       </c>
       <c r="D135" s="4">
-        <v>1945.10848</v>
+        <v>2088.763392</v>
       </c>
       <c r="E135" s="4">
-        <v>1825.570816</v>
+        <v>1831.862272</v>
       </c>
       <c r="F135" s="4">
-        <v>1666.187264</v>
+        <v>1665.138688</v>
       </c>
       <c r="G135" s="4">
-        <v>1362.100224</v>
+        <v>1430.257664</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -2758,22 +2758,22 @@
         <v>1</v>
       </c>
       <c r="B139" s="4">
-        <v>79.83</v>
+        <v>54.35</v>
       </c>
       <c r="C139" s="4">
-        <v>89.47</v>
+        <v>79.76000000000001</v>
       </c>
       <c r="D139" s="4">
-        <v>163.3</v>
+        <v>162.17</v>
       </c>
       <c r="E139" s="4">
-        <v>325.81</v>
+        <v>320.93</v>
       </c>
       <c r="F139" s="4">
-        <v>645.28</v>
+        <v>637.24</v>
       </c>
       <c r="G139" s="4">
-        <v>1287.33</v>
+        <v>1270.21</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -2781,22 +2781,22 @@
         <v>2</v>
       </c>
       <c r="B140" s="4">
-        <v>129.48</v>
+        <v>83.53</v>
       </c>
       <c r="C140" s="4">
-        <v>138.39</v>
+        <v>115.77</v>
       </c>
       <c r="D140" s="4">
-        <v>217.65</v>
+        <v>175.91</v>
       </c>
       <c r="E140" s="4">
-        <v>412.55</v>
+        <v>353.93</v>
       </c>
       <c r="F140" s="4">
-        <v>801.42</v>
+        <v>781.41</v>
       </c>
       <c r="G140" s="4">
-        <v>2017.96</v>
+        <v>2008.25</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -2804,22 +2804,22 @@
         <v>3</v>
       </c>
       <c r="B141" s="4">
-        <v>140.17</v>
+        <v>95.94</v>
       </c>
       <c r="C141" s="4">
-        <v>169.56</v>
+        <v>160.39</v>
       </c>
       <c r="D141" s="4">
-        <v>257.03</v>
+        <v>230.78</v>
       </c>
       <c r="E141" s="4">
-        <v>564.4400000000001</v>
+        <v>556.4299999999999</v>
       </c>
       <c r="F141" s="4">
-        <v>1228.45</v>
+        <v>1231.82</v>
       </c>
       <c r="G141" s="4">
-        <v>3010.13</v>
+        <v>2858.32</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -2858,22 +2858,22 @@
         <v>1</v>
       </c>
       <c r="B145" s="4">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C145" s="4">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="D145" s="4">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="E145" s="4">
-        <v>1336</v>
+        <v>1516</v>
       </c>
       <c r="F145" s="4">
-        <v>3228</v>
+        <v>3752</v>
       </c>
       <c r="G145" s="4">
-        <v>6980</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -2881,22 +2881,22 @@
         <v>2</v>
       </c>
       <c r="B146" s="4">
-        <v>334</v>
+        <v>190</v>
       </c>
       <c r="C146" s="4">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="D146" s="4">
-        <v>578</v>
+        <v>453</v>
       </c>
       <c r="E146" s="4">
-        <v>1385</v>
+        <v>1106</v>
       </c>
       <c r="F146" s="4">
-        <v>2212</v>
+        <v>2147</v>
       </c>
       <c r="G146" s="4">
-        <v>5538</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -2904,22 +2904,22 @@
         <v>3</v>
       </c>
       <c r="B147" s="4">
-        <v>343</v>
+        <v>225</v>
       </c>
       <c r="C147" s="4">
-        <v>441</v>
+        <v>310</v>
       </c>
       <c r="D147" s="4">
-        <v>693</v>
+        <v>619</v>
       </c>
       <c r="E147" s="4">
-        <v>1483</v>
+        <v>1434</v>
       </c>
       <c r="F147" s="4">
-        <v>3523</v>
+        <v>3621</v>
       </c>
       <c r="G147" s="4">
-        <v>9110</v>
+        <v>9765</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -2958,19 +2958,19 @@
         <v>1</v>
       </c>
       <c r="B151" s="4">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="C151" s="4">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="D151" s="4">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="E151" s="4">
-        <v>1844</v>
+        <v>2073</v>
       </c>
       <c r="F151" s="4">
-        <v>4293</v>
+        <v>4555</v>
       </c>
       <c r="G151" s="4">
         <v>7898</v>
@@ -2981,19 +2981,19 @@
         <v>2</v>
       </c>
       <c r="B152" s="4">
-        <v>392</v>
+        <v>202</v>
       </c>
       <c r="C152" s="4">
-        <v>562</v>
+        <v>519</v>
       </c>
       <c r="D152" s="4">
-        <v>676</v>
+        <v>553</v>
       </c>
       <c r="E152" s="4">
-        <v>1647</v>
+        <v>1434</v>
       </c>
       <c r="F152" s="4">
-        <v>2933</v>
+        <v>2900</v>
       </c>
       <c r="G152" s="4">
         <v>7046</v>
@@ -3004,22 +3004,22 @@
         <v>3</v>
       </c>
       <c r="B153" s="4">
-        <v>404</v>
+        <v>273</v>
       </c>
       <c r="C153" s="4">
-        <v>570</v>
+        <v>502</v>
       </c>
       <c r="D153" s="4">
-        <v>938</v>
+        <v>840</v>
       </c>
       <c r="E153" s="4">
-        <v>1844</v>
+        <v>1893</v>
       </c>
       <c r="F153" s="4">
-        <v>5145</v>
+        <v>5342</v>
       </c>
       <c r="G153" s="4">
-        <v>14746</v>
+        <v>18220</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3058,22 +3058,22 @@
         <v>1</v>
       </c>
       <c r="B158" s="3">
-        <v>368000</v>
+        <v>462000</v>
       </c>
       <c r="C158" s="3">
-        <v>618000</v>
+        <v>790000</v>
       </c>
       <c r="D158" s="3">
-        <v>753000</v>
+        <v>776000</v>
       </c>
       <c r="E158" s="3">
-        <v>771000</v>
+        <v>797000</v>
       </c>
       <c r="F158" s="3">
-        <v>783000</v>
+        <v>802000</v>
       </c>
       <c r="G158" s="3">
-        <v>759000</v>
+        <v>804000</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -3081,22 +3081,22 @@
         <v>2</v>
       </c>
       <c r="B159" s="3">
-        <v>229000</v>
+        <v>318000</v>
       </c>
       <c r="C159" s="3">
-        <v>405000</v>
+        <v>529000</v>
       </c>
       <c r="D159" s="3">
-        <v>577000</v>
+        <v>679000</v>
       </c>
       <c r="E159" s="3">
-        <v>585000</v>
+        <v>683000</v>
       </c>
       <c r="F159" s="3">
-        <v>612000</v>
+        <v>646000</v>
       </c>
       <c r="G159" s="3">
-        <v>535000</v>
+        <v>537000</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3104,22 +3104,22 @@
         <v>3</v>
       </c>
       <c r="B160" s="3">
-        <v>209000</v>
+        <v>309000</v>
       </c>
       <c r="C160" s="3">
-        <v>350000</v>
+        <v>455000</v>
       </c>
       <c r="D160" s="3">
-        <v>495000</v>
+        <v>520000</v>
       </c>
       <c r="E160" s="3">
-        <v>457000</v>
+        <v>461000</v>
       </c>
       <c r="F160" s="3">
-        <v>422000</v>
+        <v>429000</v>
       </c>
       <c r="G160" s="3">
-        <v>368000</v>
+        <v>383000</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3158,22 +3158,22 @@
         <v>1</v>
       </c>
       <c r="B164" s="4">
-        <v>1507.852288</v>
+        <v>1890.582528</v>
       </c>
       <c r="C164" s="4">
-        <v>2532.31104</v>
+        <v>3233.808384</v>
       </c>
       <c r="D164" s="4">
-        <v>3085.959168</v>
+        <v>3177.18528</v>
       </c>
       <c r="E164" s="4">
-        <v>3158.310912</v>
+        <v>3263.168512</v>
       </c>
       <c r="F164" s="4">
-        <v>3205.496832</v>
+        <v>3283.091456</v>
       </c>
       <c r="G164" s="4">
-        <v>3110.076416</v>
+        <v>3291.480064</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3181,22 +3181,22 @@
         <v>2</v>
       </c>
       <c r="B165" s="4">
-        <v>938.47552</v>
+        <v>1303.379968</v>
       </c>
       <c r="C165" s="4">
-        <v>1656.75008</v>
+        <v>2165.30944</v>
       </c>
       <c r="D165" s="4">
-        <v>2365.587456</v>
+        <v>2781.872128</v>
       </c>
       <c r="E165" s="4">
-        <v>2397.044736</v>
+        <v>2796.552192</v>
       </c>
       <c r="F165" s="4">
-        <v>2506.09664</v>
+        <v>2644.508672</v>
       </c>
       <c r="G165" s="4">
-        <v>2191.52384</v>
+        <v>2199.912448</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3204,22 +3204,22 @@
         <v>3</v>
       </c>
       <c r="B166" s="4">
-        <v>854.58944</v>
+        <v>1266.679808</v>
       </c>
       <c r="C166" s="4">
-        <v>1435.500544</v>
+        <v>1864.368128</v>
       </c>
       <c r="D166" s="4">
-        <v>2025.848832</v>
+        <v>2130.706432</v>
       </c>
       <c r="E166" s="4">
-        <v>1870.659584</v>
+        <v>1887.4368</v>
       </c>
       <c r="F166" s="4">
-        <v>1729.101824</v>
+        <v>1757.413376</v>
       </c>
       <c r="G166" s="4">
-        <v>1505.755136</v>
+        <v>1566.572544</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3258,22 +3258,22 @@
         <v>1</v>
       </c>
       <c r="B170" s="4">
-        <v>2.4471</v>
+        <v>1.94216</v>
       </c>
       <c r="C170" s="4">
-        <v>2.96363</v>
+        <v>2.2863</v>
       </c>
       <c r="D170" s="4">
-        <v>5.00722</v>
+        <v>4.852270000000001</v>
       </c>
       <c r="E170" s="4">
-        <v>10.03239</v>
+        <v>9.763030000000001</v>
       </c>
       <c r="F170" s="4">
-        <v>19.80364</v>
+        <v>19.67969</v>
       </c>
       <c r="G170" s="4">
-        <v>41.54157</v>
+        <v>39.52358</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3281,22 +3281,22 @@
         <v>2</v>
       </c>
       <c r="B171" s="4">
-        <v>4.08805</v>
+        <v>2.92857</v>
       </c>
       <c r="C171" s="4">
-        <v>4.32326</v>
+        <v>3.44758</v>
       </c>
       <c r="D171" s="4">
-        <v>6.46433</v>
+        <v>5.54321</v>
       </c>
       <c r="E171" s="4">
-        <v>13.18759</v>
+        <v>10.94433</v>
       </c>
       <c r="F171" s="4">
-        <v>24.40666</v>
+        <v>23.40143</v>
       </c>
       <c r="G171" s="4">
-        <v>58.67105</v>
+        <v>58.51288</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -3304,22 +3304,22 @@
         <v>3</v>
       </c>
       <c r="B172" s="4">
-        <v>4.466520000000001</v>
+        <v>2.97914</v>
       </c>
       <c r="C172" s="4">
-        <v>5.18179</v>
+        <v>3.90883</v>
       </c>
       <c r="D172" s="4">
-        <v>7.425800000000001</v>
+        <v>7.23163</v>
       </c>
       <c r="E172" s="4">
-        <v>16.70145</v>
+        <v>16.57516</v>
       </c>
       <c r="F172" s="4">
-        <v>36.11358000000001</v>
+        <v>35.39712</v>
       </c>
       <c r="G172" s="4">
-        <v>83.19456</v>
+        <v>79.96814000000001</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -3358,22 +3358,22 @@
         <v>1</v>
       </c>
       <c r="B176" s="4">
-        <v>1.304</v>
+        <v>0.908</v>
       </c>
       <c r="C176" s="4">
-        <v>1.4</v>
+        <v>0.972</v>
       </c>
       <c r="D176" s="4">
-        <v>1.512</v>
+        <v>1.064</v>
       </c>
       <c r="E176" s="4">
-        <v>2.096</v>
+        <v>1.192</v>
       </c>
       <c r="F176" s="4">
-        <v>6.56</v>
+        <v>1.256</v>
       </c>
       <c r="G176" s="4">
-        <v>7.264</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -3381,19 +3381,19 @@
         <v>2</v>
       </c>
       <c r="B177" s="4">
-        <v>1.656</v>
+        <v>1.688</v>
       </c>
       <c r="C177" s="4">
-        <v>1.672</v>
+        <v>2.096</v>
       </c>
       <c r="D177" s="4">
-        <v>3.632</v>
+        <v>4.448</v>
       </c>
       <c r="E177" s="4">
-        <v>5.600000000000001</v>
+        <v>6.176</v>
       </c>
       <c r="F177" s="4">
-        <v>7.008</v>
+        <v>6.496</v>
       </c>
       <c r="G177" s="4">
         <v>13.76</v>
@@ -3404,22 +3404,22 @@
         <v>3</v>
       </c>
       <c r="B178" s="4">
-        <v>1.704</v>
+        <v>1.608</v>
       </c>
       <c r="C178" s="4">
-        <v>1.848</v>
+        <v>2.096</v>
       </c>
       <c r="D178" s="4">
-        <v>4.64</v>
+        <v>4.96</v>
       </c>
       <c r="E178" s="4">
-        <v>10.432</v>
+        <v>10.688</v>
       </c>
       <c r="F178" s="4">
-        <v>25.472</v>
+        <v>24.96</v>
       </c>
       <c r="G178" s="4">
-        <v>33</v>
+        <v>31.616</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -3458,22 +3458,22 @@
         <v>1</v>
       </c>
       <c r="B182" s="4">
-        <v>111.104</v>
+        <v>74.23999999999999</v>
       </c>
       <c r="C182" s="4">
-        <v>134.144</v>
+        <v>93.696</v>
       </c>
       <c r="D182" s="4">
-        <v>171.008</v>
+        <v>138.24</v>
       </c>
       <c r="E182" s="4">
-        <v>350.208</v>
+        <v>257.024</v>
       </c>
       <c r="F182" s="4">
-        <v>536.576</v>
+        <v>284.672</v>
       </c>
       <c r="G182" s="4">
-        <v>749.568</v>
+        <v>284.672</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -3481,19 +3481,19 @@
         <v>2</v>
       </c>
       <c r="B183" s="4">
+        <v>80.384</v>
+      </c>
+      <c r="C183" s="4">
+        <v>103.936</v>
+      </c>
+      <c r="D183" s="4">
         <v>166.912</v>
       </c>
-      <c r="C183" s="4">
-        <v>162.816</v>
-      </c>
-      <c r="D183" s="4">
-        <v>252.928</v>
-      </c>
       <c r="E183" s="4">
-        <v>468.992</v>
+        <v>403.456</v>
       </c>
       <c r="F183" s="4">
-        <v>1138.688</v>
+        <v>1089.536</v>
       </c>
       <c r="G183" s="4">
         <v>3096.576</v>
@@ -3504,22 +3504,22 @@
         <v>3</v>
       </c>
       <c r="B184" s="4">
-        <v>189.44</v>
+        <v>102.912</v>
       </c>
       <c r="C184" s="4">
-        <v>216.064</v>
+        <v>138.24</v>
       </c>
       <c r="D184" s="4">
-        <v>259.072</v>
+        <v>232.448</v>
       </c>
       <c r="E184" s="4">
-        <v>593.92</v>
+        <v>577.5360000000001</v>
       </c>
       <c r="F184" s="4">
-        <v>1187.84</v>
+        <v>1122.304</v>
       </c>
       <c r="G184" s="4">
-        <v>2769</v>
+        <v>2179.072</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -3558,22 +3558,22 @@
         <v>1</v>
       </c>
       <c r="B189" s="3">
-        <v>7211</v>
+        <v>9570</v>
       </c>
       <c r="C189" s="3">
-        <v>10800</v>
+        <v>13500</v>
       </c>
       <c r="D189" s="3">
-        <v>13700</v>
+        <v>17100</v>
       </c>
       <c r="E189" s="3">
-        <v>14900</v>
+        <v>16000</v>
       </c>
       <c r="F189" s="3">
-        <v>16000</v>
+        <v>16800</v>
       </c>
       <c r="G189" s="3">
-        <v>17800</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -3581,22 +3581,22 @@
         <v>2</v>
       </c>
       <c r="B190" s="3">
-        <v>2659</v>
+        <v>5417</v>
       </c>
       <c r="C190" s="3">
-        <v>5505</v>
+        <v>8641</v>
       </c>
       <c r="D190" s="3">
-        <v>9503</v>
+        <v>12700</v>
       </c>
       <c r="E190" s="3">
-        <v>12100</v>
+        <v>14900</v>
       </c>
       <c r="F190" s="3">
-        <v>12400</v>
+        <v>13600</v>
       </c>
       <c r="G190" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -3604,22 +3604,22 @@
         <v>3</v>
       </c>
       <c r="B191" s="3">
-        <v>4145</v>
+        <v>5953</v>
       </c>
       <c r="C191" s="3">
-        <v>7236</v>
+        <v>8827</v>
       </c>
       <c r="D191" s="3">
-        <v>10600</v>
+        <v>13500</v>
       </c>
       <c r="E191" s="3">
-        <v>11800</v>
+        <v>15300</v>
       </c>
       <c r="F191" s="3">
-        <v>11700</v>
+        <v>16100</v>
       </c>
       <c r="G191" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -3658,22 +3658,22 @@
         <v>1</v>
       </c>
       <c r="B195" s="4">
-        <v>944.766976</v>
+        <v>1254.096896</v>
       </c>
       <c r="C195" s="4">
-        <v>1412.431872</v>
+        <v>1765.801984</v>
       </c>
       <c r="D195" s="4">
-        <v>1789.919232</v>
+        <v>2236.612608</v>
       </c>
       <c r="E195" s="4">
-        <v>1955.59424</v>
+        <v>2222.98112</v>
       </c>
       <c r="F195" s="4">
-        <v>2097.152</v>
+        <v>2203.058176</v>
       </c>
       <c r="G195" s="4">
-        <v>2329.935872</v>
+        <v>2478.833664</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -3681,22 +3681,22 @@
         <v>2</v>
       </c>
       <c r="B196" s="4">
-        <v>348.127232</v>
+        <v>709.885952</v>
       </c>
       <c r="C196" s="4">
-        <v>721.420288</v>
+        <v>1132.46208</v>
       </c>
       <c r="D196" s="4">
-        <v>1245.708288</v>
+        <v>1661.99296</v>
       </c>
       <c r="E196" s="4">
-        <v>1581.252608</v>
+        <v>1952.448512</v>
       </c>
       <c r="F196" s="4">
-        <v>1630.53568</v>
+        <v>1787.82208</v>
       </c>
       <c r="G196" s="4">
-        <v>1915.748352</v>
+        <v>1892.67968</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -3704,22 +3704,22 @@
         <v>3</v>
       </c>
       <c r="B197" s="4">
-        <v>543.162368</v>
+        <v>780.140544</v>
       </c>
       <c r="C197" s="4">
-        <v>948.96128</v>
+        <v>1156.579328</v>
       </c>
       <c r="D197" s="4">
-        <v>1387.266048</v>
+        <v>1765.801984</v>
       </c>
       <c r="E197" s="4">
-        <v>1549.795328</v>
+        <v>2011.168768</v>
       </c>
       <c r="F197" s="4">
-        <v>1535.115264</v>
+        <v>2109.734912</v>
       </c>
       <c r="G197" s="4">
-        <v>1908.40832</v>
+        <v>1897.92256</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -3758,22 +3758,22 @@
         <v>1</v>
       </c>
       <c r="B201" s="4">
-        <v>87.56</v>
+        <v>53.12981</v>
       </c>
       <c r="C201" s="4">
-        <v>93.48999999999999</v>
+        <v>55.11626</v>
       </c>
       <c r="D201" s="4">
-        <v>110.73</v>
+        <v>56.1767</v>
       </c>
       <c r="E201" s="4">
-        <v>199.21</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="F201" s="4">
-        <v>395.43</v>
+        <v>420.63</v>
       </c>
       <c r="G201" s="4">
-        <v>909.34</v>
+        <v>836.58</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -3781,22 +3781,22 @@
         <v>2</v>
       </c>
       <c r="B202" s="4">
-        <v>318.31</v>
+        <v>134.6</v>
       </c>
       <c r="C202" s="4">
-        <v>283.38</v>
+        <v>139.2</v>
       </c>
       <c r="D202" s="4">
-        <v>247.75</v>
+        <v>145.88</v>
       </c>
       <c r="E202" s="4">
-        <v>313.2</v>
+        <v>197.17</v>
       </c>
       <c r="F202" s="4">
-        <v>666.08</v>
+        <v>561.77</v>
       </c>
       <c r="G202" s="4">
-        <v>1345.54</v>
+        <v>1353.49</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -3804,22 +3804,22 @@
         <v>3</v>
       </c>
       <c r="B203" s="4">
-        <v>185.62</v>
+        <v>116.6</v>
       </c>
       <c r="C203" s="4">
-        <v>192.15</v>
+        <v>119.87</v>
       </c>
       <c r="D203" s="4">
-        <v>217.74</v>
+        <v>125.42</v>
       </c>
       <c r="E203" s="4">
-        <v>384.6</v>
+        <v>176.36</v>
       </c>
       <c r="F203" s="4">
-        <v>790.47</v>
+        <v>494.11</v>
       </c>
       <c r="G203" s="4">
-        <v>1505.81</v>
+        <v>1497.74</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -3858,22 +3858,22 @@
         <v>1</v>
       </c>
       <c r="B207" s="4">
-        <v>143</v>
+        <v>56.064</v>
       </c>
       <c r="C207" s="4">
-        <v>143</v>
+        <v>58.112</v>
       </c>
       <c r="D207" s="4">
-        <v>155</v>
+        <v>59.648</v>
       </c>
       <c r="E207" s="4">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="F207" s="4">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="G207" s="4">
-        <v>947</v>
+        <v>898</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -3881,19 +3881,19 @@
         <v>2</v>
       </c>
       <c r="B208" s="4">
-        <v>338</v>
+        <v>161</v>
       </c>
       <c r="C208" s="4">
-        <v>310</v>
+        <v>167</v>
       </c>
       <c r="D208" s="4">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="E208" s="4">
-        <v>371</v>
+        <v>269</v>
       </c>
       <c r="F208" s="4">
-        <v>873</v>
+        <v>799</v>
       </c>
       <c r="G208" s="4">
         <v>1647</v>
@@ -3904,22 +3904,22 @@
         <v>3</v>
       </c>
       <c r="B209" s="4">
-        <v>302</v>
+        <v>124</v>
       </c>
       <c r="C209" s="4">
-        <v>310</v>
+        <v>135</v>
       </c>
       <c r="D209" s="4">
-        <v>326</v>
+        <v>147</v>
       </c>
       <c r="E209" s="4">
-        <v>570</v>
+        <v>247</v>
       </c>
       <c r="F209" s="4">
-        <v>1287</v>
+        <v>865</v>
       </c>
       <c r="G209" s="4">
-        <v>3490</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -3958,22 +3958,22 @@
         <v>1</v>
       </c>
       <c r="B213" s="4">
-        <v>149</v>
+        <v>58.112</v>
       </c>
       <c r="C213" s="4">
-        <v>151</v>
+        <v>62.208</v>
       </c>
       <c r="D213" s="4">
-        <v>167</v>
+        <v>63.232</v>
       </c>
       <c r="E213" s="4">
-        <v>247</v>
+        <v>96</v>
       </c>
       <c r="F213" s="4">
         <v>578</v>
       </c>
       <c r="G213" s="4">
-        <v>17171</v>
+        <v>21365</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -3981,22 +3981,22 @@
         <v>2</v>
       </c>
       <c r="B214" s="4">
-        <v>359</v>
+        <v>165</v>
       </c>
       <c r="C214" s="4">
-        <v>351</v>
+        <v>176</v>
       </c>
       <c r="D214" s="4">
-        <v>351</v>
+        <v>188</v>
       </c>
       <c r="E214" s="4">
-        <v>404</v>
+        <v>289</v>
       </c>
       <c r="F214" s="4">
-        <v>988</v>
+        <v>914</v>
       </c>
       <c r="G214" s="4">
-        <v>1827</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -4004,22 +4004,22 @@
         <v>3</v>
       </c>
       <c r="B215" s="4">
-        <v>359</v>
+        <v>149</v>
       </c>
       <c r="C215" s="4">
-        <v>359</v>
+        <v>161</v>
       </c>
       <c r="D215" s="4">
-        <v>367</v>
+        <v>182</v>
       </c>
       <c r="E215" s="4">
-        <v>652</v>
+        <v>322</v>
       </c>
       <c r="F215" s="4">
-        <v>1565</v>
+        <v>1188</v>
       </c>
       <c r="G215" s="4">
-        <v>3982</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -4058,19 +4058,19 @@
         <v>1</v>
       </c>
       <c r="B220" s="3">
-        <v>204000</v>
+        <v>264000</v>
       </c>
       <c r="C220" s="3">
-        <v>315000</v>
+        <v>388000</v>
       </c>
       <c r="D220" s="3">
-        <v>434000</v>
+        <v>506000</v>
       </c>
       <c r="E220" s="3">
-        <v>466000</v>
+        <v>542000</v>
       </c>
       <c r="F220" s="3">
-        <v>512000</v>
+        <v>605000</v>
       </c>
       <c r="G220" s="3">
         <v>563000</v>
@@ -4081,22 +4081,22 @@
         <v>2</v>
       </c>
       <c r="B221" s="3">
-        <v>26400</v>
+        <v>54400</v>
       </c>
       <c r="C221" s="3">
-        <v>67900</v>
+        <v>114000</v>
       </c>
       <c r="D221" s="3">
-        <v>132000</v>
+        <v>175000</v>
       </c>
       <c r="E221" s="3">
-        <v>216000</v>
+        <v>239000</v>
       </c>
       <c r="F221" s="3">
-        <v>340000</v>
+        <v>362000</v>
       </c>
       <c r="G221" s="3">
-        <v>434000</v>
+        <v>453000</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -4104,22 +4104,22 @@
         <v>3</v>
       </c>
       <c r="B222" s="3">
-        <v>75200</v>
+        <v>91300</v>
       </c>
       <c r="C222" s="3">
-        <v>133000</v>
+        <v>163000</v>
       </c>
       <c r="D222" s="3">
-        <v>207000</v>
+        <v>254000</v>
       </c>
       <c r="E222" s="3">
-        <v>315000</v>
+        <v>370000</v>
       </c>
       <c r="F222" s="3">
-        <v>382000</v>
+        <v>497000</v>
       </c>
       <c r="G222" s="3">
-        <v>445000</v>
+        <v>474000</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -4158,22 +4158,22 @@
         <v>1</v>
       </c>
       <c r="B226" s="4">
-        <v>833.61792</v>
+        <v>1082.130432</v>
       </c>
       <c r="C226" s="4">
-        <v>1290.797056</v>
+        <v>1588.59264</v>
       </c>
       <c r="D226" s="4">
-        <v>1777.33632</v>
+        <v>2073.034752</v>
       </c>
       <c r="E226" s="4">
-        <v>1907.359744</v>
+        <v>2218.786816</v>
       </c>
       <c r="F226" s="4">
-        <v>2097.152</v>
+        <v>2476.736512</v>
       </c>
       <c r="G226" s="4">
-        <v>2303.721472</v>
+        <v>2305.818624</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -4181,22 +4181,22 @@
         <v>2</v>
       </c>
       <c r="B227" s="4">
-        <v>108.003328</v>
+        <v>223.346688</v>
       </c>
       <c r="C227" s="4">
-        <v>277.87264</v>
+        <v>465.567744</v>
       </c>
       <c r="D227" s="4">
-        <v>541.065216</v>
+        <v>715.128832</v>
       </c>
       <c r="E227" s="4">
-        <v>887.095296</v>
+        <v>980.41856</v>
       </c>
       <c r="F227" s="4">
-        <v>1393.557504</v>
+        <v>1483.73504</v>
       </c>
       <c r="G227" s="4">
-        <v>1778.384896</v>
+        <v>1853.882368</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -4204,22 +4204,22 @@
         <v>3</v>
       </c>
       <c r="B228" s="4">
-        <v>308.281344</v>
+        <v>374.341632</v>
       </c>
       <c r="C228" s="4">
-        <v>545.25952</v>
+        <v>668.991488</v>
       </c>
       <c r="D228" s="4">
-        <v>849.34656</v>
+        <v>1040.187392</v>
       </c>
       <c r="E228" s="4">
-        <v>1290.797056</v>
+        <v>1514.143744</v>
       </c>
       <c r="F228" s="4">
-        <v>1564.475392</v>
+        <v>2035.286016</v>
       </c>
       <c r="G228" s="4">
-        <v>1823.473664</v>
+        <v>1940.914176</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -4257,21 +4257,23 @@
       <c r="A232" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B232" s="4"/>
+      <c r="B232" s="4">
+        <v>2.01044</v>
+      </c>
       <c r="C232" s="4">
-        <v>3.22242</v>
+        <v>2.08489</v>
       </c>
       <c r="D232" s="4">
-        <v>3.57382</v>
+        <v>2.12109</v>
       </c>
       <c r="E232" s="4">
-        <v>6.077560000000001</v>
+        <v>2.34079</v>
       </c>
       <c r="F232" s="4">
-        <v>14.2809</v>
+        <v>4.81608</v>
       </c>
       <c r="G232" s="4">
-        <v>27.89419</v>
+        <v>30.10735</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -4279,22 +4281,22 @@
         <v>2</v>
       </c>
       <c r="B233" s="4">
-        <v>35.87</v>
+        <v>16.51381</v>
       </c>
       <c r="C233" s="4">
-        <v>26.33</v>
+        <v>14.37554</v>
       </c>
       <c r="D233" s="4">
-        <v>24.46</v>
+        <v>17.8526</v>
       </c>
       <c r="E233" s="4">
-        <v>26.23</v>
+        <v>22.45</v>
       </c>
       <c r="F233" s="4">
-        <v>32.76</v>
+        <v>29.7</v>
       </c>
       <c r="G233" s="4">
-        <v>57.71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -4302,22 +4304,20 @@
         <v>3</v>
       </c>
       <c r="B234" s="4">
-        <v>11.33659</v>
-      </c>
-      <c r="C234" s="4">
-        <v>12.08751</v>
-      </c>
+        <v>9.06779</v>
+      </c>
+      <c r="C234" s="4"/>
       <c r="D234" s="4">
-        <v>13.55052</v>
+        <v>10.67</v>
       </c>
       <c r="E234" s="4">
-        <v>14.88</v>
+        <v>11.15416</v>
       </c>
       <c r="F234" s="4">
-        <v>27.35</v>
+        <v>16.42</v>
       </c>
       <c r="G234" s="4">
-        <v>53.97</v>
+        <v>50.36</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -4356,22 +4356,22 @@
         <v>1</v>
       </c>
       <c r="B238" s="4">
-        <v>5.344</v>
+        <v>2.896</v>
       </c>
       <c r="C238" s="4">
-        <v>5.536</v>
+        <v>3.216</v>
       </c>
       <c r="D238" s="4">
-        <v>5.792</v>
+        <v>3.344</v>
       </c>
       <c r="E238" s="4">
-        <v>8.768000000000001</v>
+        <v>3.792</v>
       </c>
       <c r="F238" s="4">
-        <v>19.584</v>
+        <v>8.512</v>
       </c>
       <c r="G238" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -4379,22 +4379,22 @@
         <v>2</v>
       </c>
       <c r="B239" s="4">
-        <v>41.216</v>
+        <v>19.328</v>
       </c>
       <c r="C239" s="4">
-        <v>35.072</v>
+        <v>19.328</v>
       </c>
       <c r="D239" s="4">
-        <v>30.592</v>
+        <v>22.656</v>
       </c>
       <c r="E239" s="4">
-        <v>35.584</v>
+        <v>30.848</v>
       </c>
       <c r="F239" s="4">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G239" s="4">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -4402,22 +4402,22 @@
         <v>3</v>
       </c>
       <c r="B240" s="4">
-        <v>24.704</v>
+        <v>10.176</v>
       </c>
       <c r="C240" s="4">
-        <v>24.448</v>
+        <v>10.816</v>
       </c>
       <c r="D240" s="4">
-        <v>25.216</v>
+        <v>14.272</v>
       </c>
       <c r="E240" s="4">
-        <v>22.144</v>
+        <v>15.68</v>
       </c>
       <c r="F240" s="4">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G240" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -4456,22 +4456,22 @@
         <v>1</v>
       </c>
       <c r="B244" s="4">
-        <v>7.008</v>
+        <v>4.192</v>
       </c>
       <c r="C244" s="4">
-        <v>7.136</v>
+        <v>4.64</v>
       </c>
       <c r="D244" s="4">
-        <v>8.256</v>
+        <v>4.576000000000001</v>
       </c>
       <c r="E244" s="4">
-        <v>12.48</v>
+        <v>5.792</v>
       </c>
       <c r="F244" s="4">
-        <v>27.264</v>
+        <v>11.968</v>
       </c>
       <c r="G244" s="4">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -4479,22 +4479,22 @@
         <v>2</v>
       </c>
       <c r="B245" s="4">
-        <v>45.824</v>
+        <v>21.12</v>
       </c>
       <c r="C245" s="4">
-        <v>39.68</v>
+        <v>21.376</v>
       </c>
       <c r="D245" s="4">
-        <v>35.072</v>
+        <v>25.216</v>
       </c>
       <c r="E245" s="4">
-        <v>40.704</v>
+        <v>34.56</v>
       </c>
       <c r="F245" s="4">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G245" s="4">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -4502,22 +4502,22 @@
         <v>3</v>
       </c>
       <c r="B246" s="4">
-        <v>27.776</v>
+        <v>11.328</v>
       </c>
       <c r="C246" s="4">
-        <v>28.032</v>
+        <v>12.352</v>
       </c>
       <c r="D246" s="4">
-        <v>29.824</v>
+        <v>16.768</v>
       </c>
       <c r="E246" s="4">
-        <v>30.848</v>
+        <v>19.328</v>
       </c>
       <c r="F246" s="4">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G246" s="4">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/merged_summary.xlsx
+++ b/rfuse/merged_summary.xlsx
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>11000</v>
+        <v>1398</v>
       </c>
       <c r="C3" s="3">
-        <v>21100</v>
+        <v>3421</v>
       </c>
       <c r="D3" s="3">
-        <v>4530</v>
+        <v>4971</v>
       </c>
       <c r="E3" s="3">
-        <v>8972</v>
+        <v>28700</v>
       </c>
       <c r="F3" s="3">
-        <v>11000</v>
+        <v>31600</v>
       </c>
       <c r="G3" s="3">
-        <v>11300</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -479,22 +479,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>8393</v>
+        <v>7062</v>
       </c>
       <c r="C4" s="3">
-        <v>16500</v>
+        <v>13900</v>
       </c>
       <c r="D4" s="3">
-        <v>3740</v>
+        <v>22300</v>
       </c>
       <c r="E4" s="3">
-        <v>9132</v>
+        <v>25800</v>
       </c>
       <c r="F4" s="3">
-        <v>12700</v>
+        <v>32500</v>
       </c>
       <c r="G4" s="3">
-        <v>13000</v>
+        <v>29300</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -502,22 +502,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>1009</v>
+        <v>7198</v>
       </c>
       <c r="C5" s="3">
-        <v>2035</v>
+        <v>14400</v>
       </c>
       <c r="D5" s="3">
-        <v>3996</v>
+        <v>21700</v>
       </c>
       <c r="E5" s="3">
-        <v>7281</v>
+        <v>23700</v>
       </c>
       <c r="F5" s="3">
-        <v>10200</v>
+        <v>26100</v>
       </c>
       <c r="G5" s="3">
-        <v>14300</v>
+        <v>25900</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -556,22 +556,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="3">
-        <v>5732</v>
+        <v>19600</v>
       </c>
       <c r="C10" s="3">
-        <v>69200</v>
+        <v>30400</v>
       </c>
       <c r="D10" s="3">
-        <v>19700</v>
+        <v>56200</v>
       </c>
       <c r="E10" s="3">
-        <v>170000</v>
+        <v>107000</v>
       </c>
       <c r="F10" s="3">
-        <v>291000</v>
+        <v>187000</v>
       </c>
       <c r="G10" s="3">
-        <v>109000</v>
+        <v>286000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,22 +579,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="3">
-        <v>4446</v>
+        <v>13300</v>
       </c>
       <c r="C11" s="3">
-        <v>61000</v>
+        <v>26400</v>
       </c>
       <c r="D11" s="3">
-        <v>125000</v>
+        <v>52700</v>
       </c>
       <c r="E11" s="3">
-        <v>158000</v>
+        <v>140000</v>
       </c>
       <c r="F11" s="3">
-        <v>250000</v>
+        <v>192000</v>
       </c>
       <c r="G11" s="3">
-        <v>102000</v>
+        <v>181000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -602,22 +602,22 @@
         <v>3</v>
       </c>
       <c r="B12" s="3">
-        <v>4514</v>
+        <v>15600</v>
       </c>
       <c r="C12" s="3">
-        <v>61200</v>
+        <v>41000</v>
       </c>
       <c r="D12" s="3">
-        <v>16400</v>
+        <v>81600</v>
       </c>
       <c r="E12" s="3">
-        <v>156000</v>
+        <v>144000</v>
       </c>
       <c r="F12" s="3">
-        <v>187000</v>
+        <v>180000</v>
       </c>
       <c r="G12" s="3">
-        <v>203000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -656,22 +656,22 @@
         <v>1</v>
       </c>
       <c r="B17" s="3">
-        <v>11000</v>
+        <v>4751</v>
       </c>
       <c r="C17" s="3">
-        <v>16100</v>
+        <v>5538</v>
       </c>
       <c r="D17" s="3">
-        <v>19000</v>
+        <v>5734</v>
       </c>
       <c r="E17" s="3">
-        <v>21800</v>
+        <v>5993</v>
       </c>
       <c r="F17" s="3">
-        <v>20800</v>
+        <v>5514</v>
       </c>
       <c r="G17" s="3">
-        <v>20800</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -679,22 +679,22 @@
         <v>2</v>
       </c>
       <c r="B18" s="3">
-        <v>8462</v>
+        <v>4011</v>
       </c>
       <c r="C18" s="3">
-        <v>11400</v>
+        <v>5067</v>
       </c>
       <c r="D18" s="3">
-        <v>14100</v>
+        <v>5506</v>
       </c>
       <c r="E18" s="3">
-        <v>16600</v>
+        <v>5817</v>
       </c>
       <c r="F18" s="3">
-        <v>18300</v>
+        <v>5673</v>
       </c>
       <c r="G18" s="3">
-        <v>17800</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -702,22 +702,22 @@
         <v>3</v>
       </c>
       <c r="B19" s="3">
-        <v>8605</v>
+        <v>4015</v>
       </c>
       <c r="C19" s="3">
-        <v>13300</v>
+        <v>5128</v>
       </c>
       <c r="D19" s="3">
-        <v>16400</v>
+        <v>5496</v>
       </c>
       <c r="E19" s="3">
-        <v>18700</v>
+        <v>5955</v>
       </c>
       <c r="F19" s="3">
-        <v>16000</v>
+        <v>6089</v>
       </c>
       <c r="G19" s="3">
-        <v>19800</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -756,22 +756,22 @@
         <v>1</v>
       </c>
       <c r="B24" s="3">
-        <v>349000</v>
+        <v>381000</v>
       </c>
       <c r="C24" s="3">
-        <v>434000</v>
+        <v>484000</v>
       </c>
       <c r="D24" s="3">
-        <v>512000</v>
+        <v>622000</v>
       </c>
       <c r="E24" s="3">
-        <v>572000</v>
+        <v>647000</v>
       </c>
       <c r="F24" s="3">
-        <v>623000</v>
+        <v>200000</v>
       </c>
       <c r="G24" s="3">
-        <v>668000</v>
+        <v>122000</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -779,22 +779,22 @@
         <v>2</v>
       </c>
       <c r="B25" s="3">
-        <v>115000</v>
+        <v>117000</v>
       </c>
       <c r="C25" s="3">
         <v>201000</v>
       </c>
       <c r="D25" s="3">
-        <v>288000</v>
+        <v>294000</v>
       </c>
       <c r="E25" s="3">
-        <v>345000</v>
+        <v>175000</v>
       </c>
       <c r="F25" s="3">
-        <v>388000</v>
+        <v>129000</v>
       </c>
       <c r="G25" s="3">
-        <v>442000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -802,22 +802,22 @@
         <v>3</v>
       </c>
       <c r="B26" s="3">
-        <v>155000</v>
+        <v>152000</v>
       </c>
       <c r="C26" s="3">
-        <v>219000</v>
+        <v>265000</v>
       </c>
       <c r="D26" s="3">
-        <v>329000</v>
+        <v>368000</v>
       </c>
       <c r="E26" s="3">
-        <v>408000</v>
+        <v>125000</v>
       </c>
       <c r="F26" s="3">
-        <v>374000</v>
+        <v>139000</v>
       </c>
       <c r="G26" s="3">
-        <v>231000</v>
+        <v>129000</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -856,22 +856,22 @@
         <v>1</v>
       </c>
       <c r="B31" s="3">
-        <v>15300</v>
+        <v>3312</v>
       </c>
       <c r="C31" s="3">
-        <v>28400</v>
+        <v>5221</v>
       </c>
       <c r="D31" s="3">
-        <v>36200</v>
+        <v>12300</v>
       </c>
       <c r="E31" s="3">
-        <v>9277</v>
+        <v>7488</v>
       </c>
       <c r="F31" s="3">
-        <v>9858</v>
+        <v>10500</v>
       </c>
       <c r="G31" s="3">
-        <v>10200</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -879,22 +879,22 @@
         <v>2</v>
       </c>
       <c r="B32" s="3">
-        <v>15100</v>
+        <v>3343</v>
       </c>
       <c r="C32" s="3">
-        <v>20500</v>
+        <v>4895</v>
       </c>
       <c r="D32" s="3">
-        <v>25900</v>
+        <v>8696</v>
       </c>
       <c r="E32" s="3">
-        <v>6849</v>
+        <v>11400</v>
       </c>
       <c r="F32" s="3">
-        <v>7941</v>
+        <v>10000</v>
       </c>
       <c r="G32" s="3">
-        <v>13200</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -902,22 +902,22 @@
         <v>3</v>
       </c>
       <c r="B33" s="3">
-        <v>19700</v>
+        <v>3893</v>
       </c>
       <c r="C33" s="3">
-        <v>3961</v>
+        <v>4641</v>
       </c>
       <c r="D33" s="3">
-        <v>8000</v>
+        <v>12400</v>
       </c>
       <c r="E33" s="3">
-        <v>5785</v>
+        <v>7434</v>
       </c>
       <c r="F33" s="3">
-        <v>6535</v>
+        <v>11300</v>
       </c>
       <c r="G33" s="3">
-        <v>9089</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -956,22 +956,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>108000</v>
+        <v>127000</v>
       </c>
       <c r="C38" s="3">
-        <v>190000</v>
+        <v>161000</v>
       </c>
       <c r="D38" s="3">
-        <v>289000</v>
+        <v>411000</v>
       </c>
       <c r="E38" s="3">
-        <v>315000</v>
+        <v>266000</v>
       </c>
       <c r="F38" s="3">
-        <v>326000</v>
+        <v>343000</v>
       </c>
       <c r="G38" s="3">
-        <v>1169000</v>
+        <v>463000</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -979,22 +979,22 @@
         <v>2</v>
       </c>
       <c r="B39" s="3">
+        <v>112000</v>
+      </c>
+      <c r="C39" s="3">
         <v>135000</v>
       </c>
-      <c r="C39" s="3">
-        <v>131000</v>
-      </c>
       <c r="D39" s="3">
-        <v>248000</v>
+        <v>245000</v>
       </c>
       <c r="E39" s="3">
-        <v>262000</v>
+        <v>344000</v>
       </c>
       <c r="F39" s="3">
-        <v>257000</v>
+        <v>353000</v>
       </c>
       <c r="G39" s="3">
-        <v>265000</v>
+        <v>502000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1002,22 +1002,22 @@
         <v>3</v>
       </c>
       <c r="B40" s="3">
-        <v>146000</v>
+        <v>144000</v>
       </c>
       <c r="C40" s="3">
-        <v>173000</v>
+        <v>188000</v>
       </c>
       <c r="D40" s="3">
-        <v>206000</v>
+        <v>394000</v>
       </c>
       <c r="E40" s="3">
-        <v>239000</v>
+        <v>240000</v>
       </c>
       <c r="F40" s="3">
-        <v>219000</v>
+        <v>689000</v>
       </c>
       <c r="G40" s="3">
-        <v>378000</v>
+        <v>468000</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1056,22 +1056,22 @@
         <v>1</v>
       </c>
       <c r="B45" s="3">
-        <v>9481</v>
+        <v>10800</v>
       </c>
       <c r="C45" s="3">
-        <v>11300</v>
+        <v>12600</v>
       </c>
       <c r="D45" s="3">
         <v>13000</v>
       </c>
       <c r="E45" s="3">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="F45" s="3">
-        <v>13500</v>
+        <v>15200</v>
       </c>
       <c r="G45" s="3">
-        <v>13500</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1079,22 +1079,22 @@
         <v>2</v>
       </c>
       <c r="B46" s="3">
-        <v>6781</v>
+        <v>2861</v>
       </c>
       <c r="C46" s="3">
-        <v>9752</v>
+        <v>3155</v>
       </c>
       <c r="D46" s="3">
-        <v>11100</v>
+        <v>3133</v>
       </c>
       <c r="E46" s="3">
-        <v>12600</v>
+        <v>3253</v>
       </c>
       <c r="F46" s="3">
-        <v>12800</v>
+        <v>3392</v>
       </c>
       <c r="G46" s="3">
-        <v>13000</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1102,22 +1102,22 @@
         <v>3</v>
       </c>
       <c r="B47" s="3">
-        <v>5278</v>
+        <v>2890</v>
       </c>
       <c r="C47" s="3">
-        <v>9183</v>
+        <v>3130</v>
       </c>
       <c r="D47" s="3">
-        <v>11300</v>
+        <v>3459</v>
       </c>
       <c r="E47" s="3">
-        <v>12600</v>
+        <v>3750</v>
       </c>
       <c r="F47" s="3">
-        <v>12800</v>
+        <v>3867</v>
       </c>
       <c r="G47" s="3">
-        <v>11700</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>1</v>
       </c>
       <c r="B52" s="3">
-        <v>256000</v>
+        <v>322000</v>
       </c>
       <c r="C52" s="3">
-        <v>347000</v>
+        <v>386000</v>
       </c>
       <c r="D52" s="3">
-        <v>412000</v>
+        <v>450000</v>
       </c>
       <c r="E52" s="3">
-        <v>449000</v>
+        <v>476000</v>
       </c>
       <c r="F52" s="3">
-        <v>438000</v>
+        <v>490000</v>
       </c>
       <c r="G52" s="3">
-        <v>432000</v>
+        <v>492000</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>2</v>
       </c>
       <c r="B53" s="3">
-        <v>95300</v>
+        <v>99900</v>
       </c>
       <c r="C53" s="3">
-        <v>187000</v>
+        <v>188000</v>
       </c>
       <c r="D53" s="3">
-        <v>237000</v>
+        <v>278000</v>
       </c>
       <c r="E53" s="3">
-        <v>293000</v>
+        <v>401000</v>
       </c>
       <c r="F53" s="3">
-        <v>320000</v>
+        <v>456000</v>
       </c>
       <c r="G53" s="3">
-        <v>360000</v>
+        <v>91300</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>3</v>
       </c>
       <c r="B54" s="3">
-        <v>142000</v>
+        <v>58900</v>
       </c>
       <c r="C54" s="3">
-        <v>215000</v>
+        <v>73500</v>
       </c>
       <c r="D54" s="3">
-        <v>238000</v>
+        <v>78500</v>
       </c>
       <c r="E54" s="3">
-        <v>351000</v>
+        <v>85800</v>
       </c>
       <c r="F54" s="3">
-        <v>384000</v>
+        <v>99900</v>
       </c>
       <c r="G54" s="3">
-        <v>248000</v>
+        <v>112000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/merged_summary.xlsx
+++ b/rfuse/merged_summary.xlsx
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1398</v>
+        <v>1279</v>
       </c>
       <c r="C3" s="3">
-        <v>3421</v>
+        <v>2319</v>
       </c>
       <c r="D3" s="3">
-        <v>4971</v>
+        <v>5139</v>
       </c>
       <c r="E3" s="3">
-        <v>28700</v>
+        <v>10500</v>
       </c>
       <c r="F3" s="3">
-        <v>31600</v>
+        <v>14800</v>
       </c>
       <c r="G3" s="3">
-        <v>30000</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -479,22 +479,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>7062</v>
+        <v>963</v>
       </c>
       <c r="C4" s="3">
-        <v>13900</v>
+        <v>1913</v>
       </c>
       <c r="D4" s="3">
-        <v>22300</v>
+        <v>3855</v>
       </c>
       <c r="E4" s="3">
-        <v>25800</v>
+        <v>10300</v>
       </c>
       <c r="F4" s="3">
-        <v>32500</v>
+        <v>11600</v>
       </c>
       <c r="G4" s="3">
-        <v>29300</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -502,22 +502,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>7198</v>
+        <v>974</v>
       </c>
       <c r="C5" s="3">
-        <v>14400</v>
+        <v>1889</v>
       </c>
       <c r="D5" s="3">
-        <v>21700</v>
+        <v>4404</v>
       </c>
       <c r="E5" s="3">
-        <v>23700</v>
+        <v>7656</v>
       </c>
       <c r="F5" s="3">
-        <v>26100</v>
+        <v>9277</v>
       </c>
       <c r="G5" s="3">
-        <v>25900</v>
+        <v>15900</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -556,22 +556,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="3">
-        <v>19600</v>
+        <v>15600</v>
       </c>
       <c r="C10" s="3">
-        <v>30400</v>
+        <v>16000</v>
       </c>
       <c r="D10" s="3">
-        <v>56200</v>
+        <v>28200</v>
       </c>
       <c r="E10" s="3">
-        <v>107000</v>
+        <v>72600</v>
       </c>
       <c r="F10" s="3">
-        <v>187000</v>
+        <v>134000</v>
       </c>
       <c r="G10" s="3">
-        <v>286000</v>
+        <v>236000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,22 +579,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="3">
-        <v>13300</v>
+        <v>8246</v>
       </c>
       <c r="C11" s="3">
-        <v>26400</v>
+        <v>14500</v>
       </c>
       <c r="D11" s="3">
-        <v>52700</v>
+        <v>27600</v>
       </c>
       <c r="E11" s="3">
-        <v>140000</v>
+        <v>55800</v>
       </c>
       <c r="F11" s="3">
-        <v>192000</v>
+        <v>98500</v>
       </c>
       <c r="G11" s="3">
-        <v>181000</v>
+        <v>126000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -602,22 +602,22 @@
         <v>3</v>
       </c>
       <c r="B12" s="3">
-        <v>15600</v>
+        <v>8626</v>
       </c>
       <c r="C12" s="3">
-        <v>41000</v>
+        <v>14300</v>
       </c>
       <c r="D12" s="3">
-        <v>81600</v>
+        <v>32200</v>
       </c>
       <c r="E12" s="3">
-        <v>144000</v>
+        <v>54900</v>
       </c>
       <c r="F12" s="3">
-        <v>180000</v>
+        <v>95800</v>
       </c>
       <c r="G12" s="3">
-        <v>180000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -656,22 +656,22 @@
         <v>1</v>
       </c>
       <c r="B17" s="3">
-        <v>4751</v>
+        <v>10800</v>
       </c>
       <c r="C17" s="3">
-        <v>5538</v>
+        <v>16400</v>
       </c>
       <c r="D17" s="3">
-        <v>5734</v>
+        <v>19700</v>
       </c>
       <c r="E17" s="3">
-        <v>5993</v>
+        <v>21300</v>
       </c>
       <c r="F17" s="3">
-        <v>5514</v>
+        <v>21800</v>
       </c>
       <c r="G17" s="3">
-        <v>4914</v>
+        <v>22200</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -679,22 +679,22 @@
         <v>2</v>
       </c>
       <c r="B18" s="3">
-        <v>4011</v>
+        <v>7211</v>
       </c>
       <c r="C18" s="3">
-        <v>5067</v>
+        <v>12300</v>
       </c>
       <c r="D18" s="3">
-        <v>5506</v>
+        <v>15800</v>
       </c>
       <c r="E18" s="3">
-        <v>5817</v>
+        <v>18300</v>
       </c>
       <c r="F18" s="3">
-        <v>5673</v>
+        <v>19100</v>
       </c>
       <c r="G18" s="3">
-        <v>4843</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -702,22 +702,22 @@
         <v>3</v>
       </c>
       <c r="B19" s="3">
-        <v>4015</v>
+        <v>7236</v>
       </c>
       <c r="C19" s="3">
-        <v>5128</v>
+        <v>13200</v>
       </c>
       <c r="D19" s="3">
-        <v>5496</v>
+        <v>13200</v>
       </c>
       <c r="E19" s="3">
-        <v>5955</v>
+        <v>17300</v>
       </c>
       <c r="F19" s="3">
-        <v>6089</v>
+        <v>17500</v>
       </c>
       <c r="G19" s="3">
-        <v>4773</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -756,22 +756,22 @@
         <v>1</v>
       </c>
       <c r="B24" s="3">
-        <v>381000</v>
+        <v>358000</v>
       </c>
       <c r="C24" s="3">
-        <v>484000</v>
+        <v>428000</v>
       </c>
       <c r="D24" s="3">
-        <v>622000</v>
+        <v>525000</v>
       </c>
       <c r="E24" s="3">
-        <v>647000</v>
+        <v>589000</v>
       </c>
       <c r="F24" s="3">
-        <v>200000</v>
+        <v>618000</v>
       </c>
       <c r="G24" s="3">
-        <v>122000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -779,22 +779,22 @@
         <v>2</v>
       </c>
       <c r="B25" s="3">
-        <v>117000</v>
+        <v>119000</v>
       </c>
       <c r="C25" s="3">
-        <v>201000</v>
+        <v>188000</v>
       </c>
       <c r="D25" s="3">
-        <v>294000</v>
+        <v>278000</v>
       </c>
       <c r="E25" s="3">
-        <v>175000</v>
+        <v>357000</v>
       </c>
       <c r="F25" s="3">
-        <v>129000</v>
+        <v>401000</v>
       </c>
       <c r="G25" s="3">
-        <v>130000</v>
+        <v>468000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -802,22 +802,22 @@
         <v>3</v>
       </c>
       <c r="B26" s="3">
-        <v>152000</v>
+        <v>143000</v>
       </c>
       <c r="C26" s="3">
-        <v>265000</v>
+        <v>167000</v>
       </c>
       <c r="D26" s="3">
-        <v>368000</v>
+        <v>323000</v>
       </c>
       <c r="E26" s="3">
-        <v>125000</v>
+        <v>416000</v>
       </c>
       <c r="F26" s="3">
-        <v>139000</v>
+        <v>384000</v>
       </c>
       <c r="G26" s="3">
-        <v>129000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -856,22 +856,22 @@
         <v>1</v>
       </c>
       <c r="B31" s="3">
-        <v>3312</v>
+        <v>22300</v>
       </c>
       <c r="C31" s="3">
-        <v>5221</v>
+        <v>41800</v>
       </c>
       <c r="D31" s="3">
-        <v>12300</v>
+        <v>42000</v>
       </c>
       <c r="E31" s="3">
-        <v>7488</v>
+        <v>41400</v>
       </c>
       <c r="F31" s="3">
-        <v>10500</v>
+        <v>41700</v>
       </c>
       <c r="G31" s="3">
-        <v>16200</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -879,22 +879,22 @@
         <v>2</v>
       </c>
       <c r="B32" s="3">
-        <v>3343</v>
+        <v>3190</v>
       </c>
       <c r="C32" s="3">
-        <v>4895</v>
+        <v>4179</v>
       </c>
       <c r="D32" s="3">
-        <v>8696</v>
+        <v>7627</v>
       </c>
       <c r="E32" s="3">
-        <v>11400</v>
+        <v>7827</v>
       </c>
       <c r="F32" s="3">
-        <v>10000</v>
+        <v>8255</v>
       </c>
       <c r="G32" s="3">
-        <v>14900</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -902,22 +902,22 @@
         <v>3</v>
       </c>
       <c r="B33" s="3">
-        <v>3893</v>
+        <v>18100</v>
       </c>
       <c r="C33" s="3">
-        <v>4641</v>
+        <v>4496</v>
       </c>
       <c r="D33" s="3">
-        <v>12400</v>
+        <v>5764</v>
       </c>
       <c r="E33" s="3">
-        <v>7434</v>
+        <v>7571</v>
       </c>
       <c r="F33" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="G33" s="3">
-        <v>15200</v>
+        <v>6858</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -956,22 +956,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>127000</v>
+        <v>110000</v>
       </c>
       <c r="C38" s="3">
-        <v>161000</v>
+        <v>1008000</v>
       </c>
       <c r="D38" s="3">
-        <v>411000</v>
+        <v>1074000</v>
       </c>
       <c r="E38" s="3">
-        <v>266000</v>
+        <v>1216000</v>
       </c>
       <c r="F38" s="3">
-        <v>343000</v>
+        <v>1226000</v>
       </c>
       <c r="G38" s="3">
-        <v>463000</v>
+        <v>1224000</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -979,22 +979,22 @@
         <v>2</v>
       </c>
       <c r="B39" s="3">
-        <v>112000</v>
+        <v>125000</v>
       </c>
       <c r="C39" s="3">
         <v>135000</v>
       </c>
       <c r="D39" s="3">
-        <v>245000</v>
+        <v>226000</v>
       </c>
       <c r="E39" s="3">
-        <v>344000</v>
+        <v>256000</v>
       </c>
       <c r="F39" s="3">
-        <v>353000</v>
+        <v>279000</v>
       </c>
       <c r="G39" s="3">
-        <v>502000</v>
+        <v>253000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1002,22 +1002,22 @@
         <v>3</v>
       </c>
       <c r="B40" s="3">
-        <v>144000</v>
+        <v>136000</v>
       </c>
       <c r="C40" s="3">
+        <v>153000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E40" s="3">
         <v>188000</v>
       </c>
-      <c r="D40" s="3">
-        <v>394000</v>
-      </c>
-      <c r="E40" s="3">
-        <v>240000</v>
-      </c>
       <c r="F40" s="3">
-        <v>689000</v>
+        <v>616000</v>
       </c>
       <c r="G40" s="3">
-        <v>468000</v>
+        <v>237000</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1056,22 +1056,22 @@
         <v>1</v>
       </c>
       <c r="B45" s="3">
-        <v>10800</v>
+        <v>10200</v>
       </c>
       <c r="C45" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="D45" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="E45" s="3">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="F45" s="3">
-        <v>15200</v>
+        <v>14100</v>
       </c>
       <c r="G45" s="3">
-        <v>3030</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1079,22 +1079,22 @@
         <v>2</v>
       </c>
       <c r="B46" s="3">
-        <v>2861</v>
+        <v>7501</v>
       </c>
       <c r="C46" s="3">
-        <v>3155</v>
+        <v>10100</v>
       </c>
       <c r="D46" s="3">
-        <v>3133</v>
+        <v>11700</v>
       </c>
       <c r="E46" s="3">
-        <v>3253</v>
+        <v>12900</v>
       </c>
       <c r="F46" s="3">
-        <v>3392</v>
+        <v>13600</v>
       </c>
       <c r="G46" s="3">
-        <v>3663</v>
+        <v>14100</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1102,22 +1102,22 @@
         <v>3</v>
       </c>
       <c r="B47" s="3">
-        <v>2890</v>
+        <v>7641</v>
       </c>
       <c r="C47" s="3">
-        <v>3130</v>
+        <v>9416</v>
       </c>
       <c r="D47" s="3">
-        <v>3459</v>
+        <v>11900</v>
       </c>
       <c r="E47" s="3">
-        <v>3750</v>
+        <v>13300</v>
       </c>
       <c r="F47" s="3">
-        <v>3867</v>
+        <v>13400</v>
       </c>
       <c r="G47" s="3">
-        <v>3880</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>1</v>
       </c>
       <c r="B52" s="3">
-        <v>322000</v>
+        <v>302000</v>
       </c>
       <c r="C52" s="3">
-        <v>386000</v>
+        <v>363000</v>
       </c>
       <c r="D52" s="3">
-        <v>450000</v>
+        <v>406000</v>
       </c>
       <c r="E52" s="3">
-        <v>476000</v>
+        <v>427000</v>
       </c>
       <c r="F52" s="3">
-        <v>490000</v>
+        <v>447000</v>
       </c>
       <c r="G52" s="3">
-        <v>492000</v>
+        <v>459000</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>2</v>
       </c>
       <c r="B53" s="3">
-        <v>99900</v>
+        <v>115000</v>
       </c>
       <c r="C53" s="3">
-        <v>188000</v>
+        <v>189000</v>
       </c>
       <c r="D53" s="3">
-        <v>278000</v>
+        <v>257000</v>
       </c>
       <c r="E53" s="3">
-        <v>401000</v>
+        <v>305000</v>
       </c>
       <c r="F53" s="3">
-        <v>456000</v>
+        <v>356000</v>
       </c>
       <c r="G53" s="3">
-        <v>91300</v>
+        <v>418000</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>3</v>
       </c>
       <c r="B54" s="3">
-        <v>58900</v>
+        <v>132000</v>
       </c>
       <c r="C54" s="3">
-        <v>73500</v>
+        <v>187000</v>
       </c>
       <c r="D54" s="3">
-        <v>78500</v>
+        <v>297000</v>
       </c>
       <c r="E54" s="3">
-        <v>85800</v>
+        <v>354000</v>
       </c>
       <c r="F54" s="3">
-        <v>99900</v>
+        <v>366000</v>
       </c>
       <c r="G54" s="3">
-        <v>112000</v>
+        <v>296000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/merged_summary.xlsx
+++ b/rfuse/merged_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>randread_128k_IOPS</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>rfuse</t>
+  </si>
+  <si>
+    <t>rfuse_busy</t>
   </si>
   <si>
     <t>randread_4k_IOPS</t>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,22 +459,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1279</v>
+        <v>1052</v>
       </c>
       <c r="C3" s="3">
-        <v>2319</v>
+        <v>2503</v>
       </c>
       <c r="D3" s="3">
-        <v>5139</v>
+        <v>4873</v>
       </c>
       <c r="E3" s="3">
-        <v>10500</v>
+        <v>8953</v>
       </c>
       <c r="F3" s="3">
-        <v>14800</v>
+        <v>10800</v>
       </c>
       <c r="G3" s="3">
-        <v>14500</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -479,22 +482,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="C4" s="3">
-        <v>1913</v>
+        <v>1925</v>
       </c>
       <c r="D4" s="3">
-        <v>3855</v>
+        <v>3680</v>
       </c>
       <c r="E4" s="3">
-        <v>10300</v>
+        <v>8596</v>
       </c>
       <c r="F4" s="3">
-        <v>11600</v>
+        <v>11100</v>
       </c>
       <c r="G4" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -502,734 +505,918 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C5" s="3">
-        <v>1889</v>
+        <v>1962</v>
       </c>
       <c r="D5" s="3">
-        <v>4404</v>
+        <v>3711</v>
       </c>
       <c r="E5" s="3">
-        <v>7656</v>
+        <v>8537</v>
       </c>
       <c r="F5" s="3">
-        <v>9277</v>
+        <v>12800</v>
       </c>
       <c r="G5" s="3">
-        <v>15900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8982</v>
+      </c>
+      <c r="C6" s="3">
+        <v>17600</v>
+      </c>
+      <c r="D6" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44900</v>
+      </c>
+      <c r="F6" s="3">
+        <v>49300</v>
+      </c>
+      <c r="G6" s="3">
+        <v>50200</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
         <v>8</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="1">
         <v>16</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G10" s="1">
         <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>15600</v>
-      </c>
-      <c r="C10" s="3">
-        <v>16000</v>
-      </c>
-      <c r="D10" s="3">
-        <v>28200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>72600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>134000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>236000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3">
-        <v>8246</v>
+        <v>10500</v>
       </c>
       <c r="C11" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="D11" s="3">
-        <v>27600</v>
+        <v>28700</v>
       </c>
       <c r="E11" s="3">
-        <v>55800</v>
+        <v>57500</v>
       </c>
       <c r="F11" s="3">
-        <v>98500</v>
+        <v>107000</v>
       </c>
       <c r="G11" s="3">
-        <v>126000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>8082</v>
+      </c>
+      <c r="C12" s="3">
+        <v>12900</v>
+      </c>
+      <c r="D12" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>58500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>92700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
-        <v>8626</v>
-      </c>
-      <c r="C12" s="3">
-        <v>14300</v>
-      </c>
-      <c r="D12" s="3">
-        <v>32200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>54900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>95800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="B13" s="3">
+        <v>6972</v>
+      </c>
+      <c r="C13" s="3">
+        <v>13800</v>
+      </c>
+      <c r="D13" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E13" s="3">
+        <v>62900</v>
+      </c>
+      <c r="F13" s="3">
+        <v>102000</v>
+      </c>
+      <c r="G13" s="3">
+        <v>158000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9010</v>
+      </c>
+      <c r="C14" s="3">
+        <v>17300</v>
+      </c>
+      <c r="D14" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>233000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>316000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
         <v>8</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F18" s="1">
         <v>16</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G18" s="1">
         <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3">
-        <v>10800</v>
-      </c>
-      <c r="C17" s="3">
-        <v>16400</v>
-      </c>
-      <c r="D17" s="3">
-        <v>19700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>21300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>21800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>22200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3">
-        <v>7211</v>
-      </c>
-      <c r="C18" s="3">
-        <v>12300</v>
-      </c>
-      <c r="D18" s="3">
-        <v>15800</v>
-      </c>
-      <c r="E18" s="3">
-        <v>18300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>19100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>18800</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>11800</v>
+      </c>
+      <c r="C19" s="3">
+        <v>15800</v>
+      </c>
+      <c r="D19" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E19" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F19" s="3">
+        <v>21600</v>
+      </c>
+      <c r="G19" s="3">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>7670</v>
+      </c>
+      <c r="C20" s="3">
+        <v>11900</v>
+      </c>
+      <c r="D20" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>18300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="3">
-        <v>7236</v>
-      </c>
-      <c r="C19" s="3">
-        <v>13200</v>
-      </c>
-      <c r="D19" s="3">
-        <v>13200</v>
-      </c>
-      <c r="E19" s="3">
-        <v>17300</v>
-      </c>
-      <c r="F19" s="3">
-        <v>17500</v>
-      </c>
-      <c r="G19" s="3">
-        <v>14400</v>
+      <c r="B21" s="3">
+        <v>7613</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10800</v>
+      </c>
+      <c r="D21" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>12500</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3">
+        <v>7876</v>
+      </c>
+      <c r="C22" s="3">
+        <v>12500</v>
+      </c>
+      <c r="D22" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>17600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>15700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
         <v>8</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F26" s="1">
         <v>16</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G26" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3">
-        <v>358000</v>
-      </c>
-      <c r="C24" s="3">
-        <v>428000</v>
-      </c>
-      <c r="D24" s="3">
-        <v>525000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>589000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>618000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>680000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3">
-        <v>119000</v>
-      </c>
-      <c r="C25" s="3">
-        <v>188000</v>
-      </c>
-      <c r="D25" s="3">
-        <v>278000</v>
-      </c>
-      <c r="E25" s="3">
-        <v>357000</v>
-      </c>
-      <c r="F25" s="3">
-        <v>401000</v>
-      </c>
-      <c r="G25" s="3">
-        <v>468000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3">
+        <v>366000</v>
+      </c>
+      <c r="C27" s="3">
+        <v>431000</v>
+      </c>
+      <c r="D27" s="3">
+        <v>542000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>630000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>612000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>633000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>110000</v>
+      </c>
+      <c r="C28" s="3">
+        <v>189000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E28" s="3">
+        <v>365000</v>
+      </c>
+      <c r="F28" s="3">
+        <v>406000</v>
+      </c>
+      <c r="G28" s="3">
+        <v>465000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="3">
-        <v>143000</v>
-      </c>
-      <c r="C26" s="3">
-        <v>167000</v>
-      </c>
-      <c r="D26" s="3">
-        <v>323000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>416000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>384000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="B29" s="3">
+        <v>129000</v>
+      </c>
+      <c r="C29" s="3">
+        <v>179000</v>
+      </c>
+      <c r="D29" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>203000</v>
+      </c>
+      <c r="F29" s="3">
+        <v>178000</v>
+      </c>
+      <c r="G29" s="3">
+        <v>149000</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>142000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>190000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E30" s="3">
+        <v>405000</v>
+      </c>
+      <c r="F30" s="3">
+        <v>442000</v>
+      </c>
+      <c r="G30" s="3">
+        <v>223000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="1">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
         <v>16</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G34" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3">
-        <v>22300</v>
-      </c>
-      <c r="C31" s="3">
-        <v>41800</v>
-      </c>
-      <c r="D31" s="3">
-        <v>42000</v>
-      </c>
-      <c r="E31" s="3">
-        <v>41400</v>
-      </c>
-      <c r="F31" s="3">
-        <v>41700</v>
-      </c>
-      <c r="G31" s="3">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="3">
-        <v>3190</v>
-      </c>
-      <c r="C32" s="3">
-        <v>4179</v>
-      </c>
-      <c r="D32" s="3">
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3282</v>
+      </c>
+      <c r="C35" s="3">
+        <v>5876</v>
+      </c>
+      <c r="D35" s="3">
+        <v>8799</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8489</v>
+      </c>
+      <c r="F35" s="3">
+        <v>7774</v>
+      </c>
+      <c r="G35" s="3">
         <v>7627</v>
       </c>
-      <c r="E32" s="3">
-        <v>7827</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8255</v>
-      </c>
-      <c r="G32" s="3">
-        <v>13400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2730</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4506</v>
+      </c>
+      <c r="D36" s="3">
+        <v>7816</v>
+      </c>
+      <c r="E36" s="3">
+        <v>9189</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8094</v>
+      </c>
+      <c r="G36" s="3">
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="3">
-        <v>18100</v>
-      </c>
-      <c r="C33" s="3">
-        <v>4496</v>
-      </c>
-      <c r="D33" s="3">
-        <v>5764</v>
-      </c>
-      <c r="E33" s="3">
-        <v>7571</v>
-      </c>
-      <c r="F33" s="3">
-        <v>11200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>6858</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1">
-        <v>8</v>
-      </c>
-      <c r="F37" s="1">
-        <v>16</v>
-      </c>
-      <c r="G37" s="1">
-        <v>32</v>
+      <c r="B37" s="3">
+        <v>3820</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3305</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6787</v>
+      </c>
+      <c r="E37" s="3">
+        <v>7454</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G37" s="3">
+        <v>7043</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B38" s="3">
-        <v>110000</v>
+        <v>3878</v>
       </c>
       <c r="C38" s="3">
-        <v>1008000</v>
+        <v>4240</v>
       </c>
       <c r="D38" s="3">
-        <v>1074000</v>
+        <v>6036</v>
       </c>
       <c r="E38" s="3">
-        <v>1216000</v>
+        <v>6720</v>
       </c>
       <c r="F38" s="3">
-        <v>1226000</v>
+        <v>7329</v>
       </c>
       <c r="G38" s="3">
-        <v>1224000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="3">
-        <v>125000</v>
-      </c>
-      <c r="C39" s="3">
-        <v>135000</v>
-      </c>
-      <c r="D39" s="3">
-        <v>226000</v>
-      </c>
-      <c r="E39" s="3">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1">
+        <v>8</v>
+      </c>
+      <c r="F42" s="1">
+        <v>16</v>
+      </c>
+      <c r="G42" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3">
+        <v>102000</v>
+      </c>
+      <c r="C43" s="3">
+        <v>163000</v>
+      </c>
+      <c r="D43" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>279000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>274000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>461000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3">
+        <v>123000</v>
+      </c>
+      <c r="C44" s="3">
+        <v>151000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>277000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>367000</v>
+      </c>
+      <c r="G44" s="3">
         <v>256000</v>
-      </c>
-      <c r="F39" s="3">
-        <v>279000</v>
-      </c>
-      <c r="G39" s="3">
-        <v>253000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="3">
-        <v>136000</v>
-      </c>
-      <c r="C40" s="3">
-        <v>153000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>247000</v>
-      </c>
-      <c r="E40" s="3">
-        <v>188000</v>
-      </c>
-      <c r="F40" s="3">
-        <v>616000</v>
-      </c>
-      <c r="G40" s="3">
-        <v>237000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="B43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2</v>
-      </c>
-      <c r="D44" s="1">
-        <v>4</v>
-      </c>
-      <c r="E44" s="1">
-        <v>8</v>
-      </c>
-      <c r="F44" s="1">
-        <v>16</v>
-      </c>
-      <c r="G44" s="1">
-        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B45" s="3">
-        <v>10200</v>
+        <v>73600</v>
       </c>
       <c r="C45" s="3">
-        <v>12300</v>
+        <v>153000</v>
       </c>
       <c r="D45" s="3">
-        <v>13300</v>
+        <v>239000</v>
       </c>
       <c r="E45" s="3">
-        <v>13500</v>
+        <v>262000</v>
       </c>
       <c r="F45" s="3">
-        <v>14100</v>
+        <v>348000</v>
       </c>
       <c r="G45" s="3">
-        <v>14600</v>
+        <v>236000</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B46" s="3">
-        <v>7501</v>
+        <v>130000</v>
       </c>
       <c r="C46" s="3">
-        <v>10100</v>
+        <v>148000</v>
       </c>
       <c r="D46" s="3">
-        <v>11700</v>
+        <v>215000</v>
       </c>
       <c r="E46" s="3">
-        <v>12900</v>
+        <v>231000</v>
       </c>
       <c r="F46" s="3">
-        <v>13600</v>
+        <v>279000</v>
       </c>
       <c r="G46" s="3">
+        <v>242000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1">
+        <v>16</v>
+      </c>
+      <c r="G50" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3">
+        <v>10200</v>
+      </c>
+      <c r="C51" s="3">
+        <v>12100</v>
+      </c>
+      <c r="D51" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E51" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F51" s="3">
         <v>14100</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="3">
-        <v>7641</v>
-      </c>
-      <c r="C47" s="3">
-        <v>9416</v>
-      </c>
-      <c r="D47" s="3">
-        <v>11900</v>
-      </c>
-      <c r="E47" s="3">
-        <v>13300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>13400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>13100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="B50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1">
-        <v>4</v>
-      </c>
-      <c r="E51" s="1">
-        <v>8</v>
-      </c>
-      <c r="F51" s="1">
-        <v>16</v>
-      </c>
-      <c r="G51" s="1">
-        <v>32</v>
+      <c r="G51" s="3">
+        <v>14600</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" s="3">
-        <v>302000</v>
+        <v>6872</v>
       </c>
       <c r="C52" s="3">
-        <v>363000</v>
+        <v>9846</v>
       </c>
       <c r="D52" s="3">
-        <v>406000</v>
+        <v>11700</v>
       </c>
       <c r="E52" s="3">
-        <v>427000</v>
+        <v>12900</v>
       </c>
       <c r="F52" s="3">
-        <v>447000</v>
+        <v>13400</v>
       </c>
       <c r="G52" s="3">
-        <v>459000</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B53" s="3">
-        <v>115000</v>
+        <v>6224</v>
       </c>
       <c r="C53" s="3">
-        <v>189000</v>
+        <v>8551</v>
       </c>
       <c r="D53" s="3">
-        <v>257000</v>
+        <v>8943</v>
       </c>
       <c r="E53" s="3">
-        <v>305000</v>
+        <v>9959</v>
       </c>
       <c r="F53" s="3">
-        <v>356000</v>
+        <v>9617</v>
       </c>
       <c r="G53" s="3">
-        <v>418000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3">
+        <v>7937</v>
+      </c>
+      <c r="C54" s="3">
+        <v>8587</v>
+      </c>
+      <c r="D54" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1">
+        <v>8</v>
+      </c>
+      <c r="F58" s="1">
+        <v>16</v>
+      </c>
+      <c r="G58" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="3">
+        <v>272000</v>
+      </c>
+      <c r="C59" s="3">
+        <v>350000</v>
+      </c>
+      <c r="D59" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>425000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>446000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>468000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="3">
+        <v>106000</v>
+      </c>
+      <c r="C60" s="3">
+        <v>192000</v>
+      </c>
+      <c r="D60" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>302000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>359000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>414000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="3">
-        <v>132000</v>
-      </c>
-      <c r="C54" s="3">
-        <v>187000</v>
-      </c>
-      <c r="D54" s="3">
-        <v>297000</v>
-      </c>
-      <c r="E54" s="3">
-        <v>354000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>366000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>296000</v>
+      <c r="B61" s="3">
+        <v>131000</v>
+      </c>
+      <c r="C61" s="3">
+        <v>167000</v>
+      </c>
+      <c r="D61" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>193000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>189000</v>
+      </c>
+      <c r="G61" s="3">
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="3">
+        <v>147000</v>
+      </c>
+      <c r="C62" s="3">
+        <v>169000</v>
+      </c>
+      <c r="D62" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>348000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>372000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>281000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B57:G57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rfuse/merged_summary.xlsx
+++ b/rfuse/merged_summary.xlsx
@@ -459,22 +459,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1052</v>
+        <v>1033</v>
       </c>
       <c r="C3" s="3">
-        <v>2503</v>
+        <v>2100</v>
       </c>
       <c r="D3" s="3">
-        <v>4873</v>
+        <v>3806</v>
       </c>
       <c r="E3" s="3">
-        <v>8953</v>
+        <v>7167</v>
       </c>
       <c r="F3" s="3">
-        <v>10800</v>
+        <v>11500</v>
       </c>
       <c r="G3" s="3">
-        <v>13000</v>
+        <v>9248</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -482,22 +482,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="C4" s="3">
-        <v>1925</v>
+        <v>1899</v>
       </c>
       <c r="D4" s="3">
-        <v>3680</v>
+        <v>3442</v>
       </c>
       <c r="E4" s="3">
-        <v>8596</v>
+        <v>6595</v>
       </c>
       <c r="F4" s="3">
         <v>11100</v>
       </c>
       <c r="G4" s="3">
-        <v>11900</v>
+        <v>20600</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -505,22 +505,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>972</v>
+        <v>3531</v>
       </c>
       <c r="C5" s="3">
-        <v>1962</v>
+        <v>9437</v>
       </c>
       <c r="D5" s="3">
-        <v>3711</v>
+        <v>19000</v>
       </c>
       <c r="E5" s="3">
-        <v>8537</v>
+        <v>26000</v>
       </c>
       <c r="F5" s="3">
-        <v>12800</v>
+        <v>32500</v>
       </c>
       <c r="G5" s="3">
-        <v>12400</v>
+        <v>26300</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -528,22 +528,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>8982</v>
+        <v>970</v>
       </c>
       <c r="C6" s="3">
-        <v>17600</v>
+        <v>1822</v>
       </c>
       <c r="D6" s="3">
-        <v>30900</v>
+        <v>3657</v>
       </c>
       <c r="E6" s="3">
-        <v>44900</v>
+        <v>6907</v>
       </c>
       <c r="F6" s="3">
-        <v>49300</v>
+        <v>11100</v>
       </c>
       <c r="G6" s="3">
-        <v>50200</v>
+        <v>33500</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -582,22 +582,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="3">
-        <v>10500</v>
+        <v>6253</v>
       </c>
       <c r="C11" s="3">
-        <v>14400</v>
+        <v>8360</v>
       </c>
       <c r="D11" s="3">
-        <v>28700</v>
+        <v>16600</v>
       </c>
       <c r="E11" s="3">
-        <v>57500</v>
+        <v>32300</v>
       </c>
       <c r="F11" s="3">
-        <v>107000</v>
+        <v>60900</v>
       </c>
       <c r="G11" s="3">
-        <v>175000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,22 +605,22 @@
         <v>2</v>
       </c>
       <c r="B12" s="3">
-        <v>8082</v>
+        <v>4006</v>
       </c>
       <c r="C12" s="3">
-        <v>12900</v>
+        <v>7069</v>
       </c>
       <c r="D12" s="3">
-        <v>27800</v>
+        <v>16300</v>
       </c>
       <c r="E12" s="3">
-        <v>58500</v>
+        <v>30400</v>
       </c>
       <c r="F12" s="3">
-        <v>92700</v>
+        <v>52200</v>
       </c>
       <c r="G12" s="3">
-        <v>125000</v>
+        <v>94300</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -628,22 +628,22 @@
         <v>3</v>
       </c>
       <c r="B13" s="3">
-        <v>6972</v>
+        <v>4020</v>
       </c>
       <c r="C13" s="3">
-        <v>13800</v>
+        <v>8171</v>
       </c>
       <c r="D13" s="3">
-        <v>28100</v>
+        <v>18600</v>
       </c>
       <c r="E13" s="3">
-        <v>62900</v>
+        <v>30300</v>
       </c>
       <c r="F13" s="3">
-        <v>102000</v>
+        <v>53700</v>
       </c>
       <c r="G13" s="3">
-        <v>158000</v>
+        <v>99100</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -651,22 +651,22 @@
         <v>4</v>
       </c>
       <c r="B14" s="3">
-        <v>9010</v>
+        <v>4426</v>
       </c>
       <c r="C14" s="3">
-        <v>17300</v>
+        <v>8001</v>
       </c>
       <c r="D14" s="3">
-        <v>31100</v>
+        <v>17000</v>
       </c>
       <c r="E14" s="3">
-        <v>233000</v>
+        <v>34000</v>
       </c>
       <c r="F14" s="3">
-        <v>316000</v>
+        <v>57200</v>
       </c>
       <c r="G14" s="3">
-        <v>320000</v>
+        <v>91900</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -705,22 +705,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="3">
-        <v>11800</v>
+        <v>8462</v>
       </c>
       <c r="C19" s="3">
-        <v>15800</v>
+        <v>14700</v>
       </c>
       <c r="D19" s="3">
-        <v>18700</v>
+        <v>17300</v>
       </c>
       <c r="E19" s="3">
-        <v>20600</v>
+        <v>19500</v>
       </c>
       <c r="F19" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="G19" s="3">
-        <v>21400</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -728,22 +728,22 @@
         <v>2</v>
       </c>
       <c r="B20" s="3">
-        <v>7670</v>
+        <v>2485</v>
       </c>
       <c r="C20" s="3">
-        <v>11900</v>
+        <v>4934</v>
       </c>
       <c r="D20" s="3">
-        <v>16200</v>
+        <v>10400</v>
       </c>
       <c r="E20" s="3">
-        <v>19100</v>
+        <v>16100</v>
       </c>
       <c r="F20" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="G20" s="3">
-        <v>18100</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -751,22 +751,22 @@
         <v>3</v>
       </c>
       <c r="B21" s="3">
-        <v>7613</v>
+        <v>7111</v>
       </c>
       <c r="C21" s="3">
-        <v>10800</v>
+        <v>10200</v>
       </c>
       <c r="D21" s="3">
-        <v>12800</v>
+        <v>11500</v>
       </c>
       <c r="E21" s="3">
-        <v>13500</v>
+        <v>11700</v>
       </c>
       <c r="F21" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="G21" s="3">
-        <v>12500</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -774,22 +774,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="3">
-        <v>7876</v>
+        <v>7366</v>
       </c>
       <c r="C22" s="3">
-        <v>12500</v>
+        <v>11300</v>
       </c>
       <c r="D22" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="E22" s="3">
-        <v>18100</v>
+        <v>16100</v>
       </c>
       <c r="F22" s="3">
-        <v>17600</v>
+        <v>16800</v>
       </c>
       <c r="G22" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="3">
-        <v>366000</v>
+        <v>318000</v>
       </c>
       <c r="C27" s="3">
-        <v>431000</v>
+        <v>390000</v>
       </c>
       <c r="D27" s="3">
-        <v>542000</v>
+        <v>466000</v>
       </c>
       <c r="E27" s="3">
-        <v>630000</v>
+        <v>521000</v>
       </c>
       <c r="F27" s="3">
-        <v>612000</v>
+        <v>570000</v>
       </c>
       <c r="G27" s="3">
-        <v>633000</v>
+        <v>637000</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -851,22 +851,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="3">
-        <v>110000</v>
+        <v>69900</v>
       </c>
       <c r="C28" s="3">
-        <v>189000</v>
+        <v>149000</v>
       </c>
       <c r="D28" s="3">
-        <v>286000</v>
+        <v>248000</v>
       </c>
       <c r="E28" s="3">
-        <v>365000</v>
+        <v>292000</v>
       </c>
       <c r="F28" s="3">
-        <v>406000</v>
+        <v>350000</v>
       </c>
       <c r="G28" s="3">
-        <v>465000</v>
+        <v>416000</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -874,22 +874,22 @@
         <v>3</v>
       </c>
       <c r="B29" s="3">
-        <v>129000</v>
+        <v>141000</v>
       </c>
       <c r="C29" s="3">
-        <v>179000</v>
+        <v>165000</v>
       </c>
       <c r="D29" s="3">
-        <v>199000</v>
+        <v>210000</v>
       </c>
       <c r="E29" s="3">
-        <v>203000</v>
+        <v>234000</v>
       </c>
       <c r="F29" s="3">
-        <v>178000</v>
+        <v>194000</v>
       </c>
       <c r="G29" s="3">
-        <v>149000</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -897,22 +897,22 @@
         <v>4</v>
       </c>
       <c r="B30" s="3">
-        <v>142000</v>
+        <v>139000</v>
       </c>
       <c r="C30" s="3">
-        <v>190000</v>
+        <v>184000</v>
       </c>
       <c r="D30" s="3">
-        <v>247000</v>
+        <v>342000</v>
       </c>
       <c r="E30" s="3">
-        <v>405000</v>
+        <v>509000</v>
       </c>
       <c r="F30" s="3">
-        <v>442000</v>
+        <v>373000</v>
       </c>
       <c r="G30" s="3">
-        <v>223000</v>
+        <v>267000</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -951,22 +951,22 @@
         <v>1</v>
       </c>
       <c r="B35" s="3">
-        <v>3282</v>
+        <v>13800</v>
       </c>
       <c r="C35" s="3">
-        <v>5876</v>
+        <v>23000</v>
       </c>
       <c r="D35" s="3">
-        <v>8799</v>
+        <v>29500</v>
       </c>
       <c r="E35" s="3">
-        <v>8489</v>
+        <v>32100</v>
       </c>
       <c r="F35" s="3">
-        <v>7774</v>
+        <v>34300</v>
       </c>
       <c r="G35" s="3">
-        <v>7627</v>
+        <v>38100</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -974,22 +974,22 @@
         <v>2</v>
       </c>
       <c r="B36" s="3">
-        <v>2730</v>
+        <v>4015</v>
       </c>
       <c r="C36" s="3">
-        <v>4506</v>
+        <v>4934</v>
       </c>
       <c r="D36" s="3">
-        <v>7816</v>
+        <v>7393</v>
       </c>
       <c r="E36" s="3">
-        <v>9189</v>
+        <v>8761</v>
       </c>
       <c r="F36" s="3">
-        <v>8094</v>
+        <v>10100</v>
       </c>
       <c r="G36" s="3">
-        <v>7440</v>
+        <v>9514</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -997,22 +997,22 @@
         <v>3</v>
       </c>
       <c r="B37" s="3">
-        <v>3820</v>
+        <v>3368</v>
       </c>
       <c r="C37" s="3">
-        <v>3305</v>
+        <v>4266</v>
       </c>
       <c r="D37" s="3">
-        <v>6787</v>
+        <v>5785</v>
       </c>
       <c r="E37" s="3">
-        <v>7454</v>
+        <v>9204</v>
       </c>
       <c r="F37" s="3">
-        <v>10400</v>
+        <v>9492</v>
       </c>
       <c r="G37" s="3">
-        <v>7043</v>
+        <v>9637</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1020,22 +1020,22 @@
         <v>4</v>
       </c>
       <c r="B38" s="3">
-        <v>3878</v>
+        <v>3923</v>
       </c>
       <c r="C38" s="3">
-        <v>4240</v>
+        <v>3764</v>
       </c>
       <c r="D38" s="3">
-        <v>6036</v>
+        <v>5752</v>
       </c>
       <c r="E38" s="3">
-        <v>6720</v>
+        <v>9235</v>
       </c>
       <c r="F38" s="3">
-        <v>7329</v>
+        <v>9615</v>
       </c>
       <c r="G38" s="3">
-        <v>6730</v>
+        <v>9564</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1074,22 +1074,22 @@
         <v>1</v>
       </c>
       <c r="B43" s="3">
-        <v>102000</v>
+        <v>415000</v>
       </c>
       <c r="C43" s="3">
-        <v>163000</v>
+        <v>676000</v>
       </c>
       <c r="D43" s="3">
-        <v>265000</v>
+        <v>950000</v>
       </c>
       <c r="E43" s="3">
-        <v>279000</v>
+        <v>1001000</v>
       </c>
       <c r="F43" s="3">
-        <v>274000</v>
+        <v>1044000</v>
       </c>
       <c r="G43" s="3">
-        <v>461000</v>
+        <v>1141000</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1097,22 +1097,22 @@
         <v>2</v>
       </c>
       <c r="B44" s="3">
-        <v>123000</v>
+        <v>125000</v>
       </c>
       <c r="C44" s="3">
-        <v>151000</v>
+        <v>150000</v>
       </c>
       <c r="D44" s="3">
-        <v>255000</v>
+        <v>227000</v>
       </c>
       <c r="E44" s="3">
-        <v>277000</v>
+        <v>266000</v>
       </c>
       <c r="F44" s="3">
-        <v>367000</v>
+        <v>301000</v>
       </c>
       <c r="G44" s="3">
-        <v>256000</v>
+        <v>394000</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1120,22 +1120,22 @@
         <v>3</v>
       </c>
       <c r="B45" s="3">
-        <v>73600</v>
+        <v>109000</v>
       </c>
       <c r="C45" s="3">
-        <v>153000</v>
+        <v>133000</v>
       </c>
       <c r="D45" s="3">
-        <v>239000</v>
+        <v>200000</v>
       </c>
       <c r="E45" s="3">
-        <v>262000</v>
+        <v>268000</v>
       </c>
       <c r="F45" s="3">
-        <v>348000</v>
+        <v>301000</v>
       </c>
       <c r="G45" s="3">
-        <v>236000</v>
+        <v>471000</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1143,22 +1143,22 @@
         <v>4</v>
       </c>
       <c r="B46" s="3">
-        <v>130000</v>
+        <v>127000</v>
       </c>
       <c r="C46" s="3">
-        <v>148000</v>
+        <v>157000</v>
       </c>
       <c r="D46" s="3">
-        <v>215000</v>
+        <v>210000</v>
       </c>
       <c r="E46" s="3">
-        <v>231000</v>
+        <v>288000</v>
       </c>
       <c r="F46" s="3">
-        <v>279000</v>
+        <v>280000</v>
       </c>
       <c r="G46" s="3">
-        <v>242000</v>
+        <v>424000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1197,22 +1197,22 @@
         <v>1</v>
       </c>
       <c r="B51" s="3">
+        <v>7937</v>
+      </c>
+      <c r="C51" s="3">
         <v>10200</v>
       </c>
-      <c r="C51" s="3">
-        <v>12100</v>
-      </c>
       <c r="D51" s="3">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="E51" s="3">
-        <v>13800</v>
+        <v>11000</v>
       </c>
       <c r="F51" s="3">
-        <v>14100</v>
+        <v>13200</v>
       </c>
       <c r="G51" s="3">
-        <v>14600</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1220,22 +1220,22 @@
         <v>2</v>
       </c>
       <c r="B52" s="3">
-        <v>6872</v>
+        <v>2015</v>
       </c>
       <c r="C52" s="3">
-        <v>9846</v>
+        <v>3976</v>
       </c>
       <c r="D52" s="3">
-        <v>11700</v>
+        <v>8659</v>
       </c>
       <c r="E52" s="3">
-        <v>12900</v>
+        <v>11500</v>
       </c>
       <c r="F52" s="3">
-        <v>13400</v>
+        <v>11900</v>
       </c>
       <c r="G52" s="3">
-        <v>14200</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1243,22 +1243,22 @@
         <v>3</v>
       </c>
       <c r="B53" s="3">
-        <v>6224</v>
+        <v>5720</v>
       </c>
       <c r="C53" s="3">
-        <v>8551</v>
+        <v>7447</v>
       </c>
       <c r="D53" s="3">
-        <v>8943</v>
+        <v>9002</v>
       </c>
       <c r="E53" s="3">
-        <v>9959</v>
+        <v>9834</v>
       </c>
       <c r="F53" s="3">
-        <v>9617</v>
+        <v>9220</v>
       </c>
       <c r="G53" s="3">
-        <v>11000</v>
+        <v>9049</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1266,22 +1266,22 @@
         <v>4</v>
       </c>
       <c r="B54" s="3">
-        <v>7937</v>
+        <v>5019</v>
       </c>
       <c r="C54" s="3">
-        <v>8587</v>
+        <v>8462</v>
       </c>
       <c r="D54" s="3">
-        <v>11800</v>
+        <v>10800</v>
       </c>
       <c r="E54" s="3">
-        <v>13100</v>
+        <v>11700</v>
       </c>
       <c r="F54" s="3">
-        <v>13200</v>
+        <v>12100</v>
       </c>
       <c r="G54" s="3">
-        <v>13200</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1320,22 +1320,22 @@
         <v>1</v>
       </c>
       <c r="B59" s="3">
-        <v>272000</v>
+        <v>262000</v>
       </c>
       <c r="C59" s="3">
-        <v>350000</v>
+        <v>299000</v>
       </c>
       <c r="D59" s="3">
-        <v>415000</v>
+        <v>318000</v>
       </c>
       <c r="E59" s="3">
-        <v>425000</v>
+        <v>378000</v>
       </c>
       <c r="F59" s="3">
-        <v>446000</v>
+        <v>419000</v>
       </c>
       <c r="G59" s="3">
-        <v>468000</v>
+        <v>399000</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1343,22 +1343,22 @@
         <v>2</v>
       </c>
       <c r="B60" s="3">
-        <v>106000</v>
+        <v>68700</v>
       </c>
       <c r="C60" s="3">
-        <v>192000</v>
+        <v>158000</v>
       </c>
       <c r="D60" s="3">
-        <v>237000</v>
+        <v>229000</v>
       </c>
       <c r="E60" s="3">
-        <v>302000</v>
+        <v>285000</v>
       </c>
       <c r="F60" s="3">
-        <v>359000</v>
+        <v>310000</v>
       </c>
       <c r="G60" s="3">
-        <v>414000</v>
+        <v>354000</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1366,22 +1366,22 @@
         <v>3</v>
       </c>
       <c r="B61" s="3">
-        <v>131000</v>
+        <v>120000</v>
       </c>
       <c r="C61" s="3">
-        <v>167000</v>
+        <v>172000</v>
       </c>
       <c r="D61" s="3">
-        <v>178000</v>
+        <v>172000</v>
       </c>
       <c r="E61" s="3">
-        <v>193000</v>
+        <v>201000</v>
       </c>
       <c r="F61" s="3">
-        <v>189000</v>
+        <v>184000</v>
       </c>
       <c r="G61" s="3">
-        <v>176000</v>
+        <v>161000</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1389,22 +1389,22 @@
         <v>4</v>
       </c>
       <c r="B62" s="3">
-        <v>147000</v>
+        <v>122000</v>
       </c>
       <c r="C62" s="3">
-        <v>169000</v>
+        <v>182000</v>
       </c>
       <c r="D62" s="3">
-        <v>276000</v>
+        <v>278000</v>
       </c>
       <c r="E62" s="3">
-        <v>348000</v>
+        <v>324000</v>
       </c>
       <c r="F62" s="3">
-        <v>372000</v>
+        <v>349000</v>
       </c>
       <c r="G62" s="3">
-        <v>281000</v>
+        <v>261000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/merged_summary.xlsx
+++ b/rfuse/merged_summary.xlsx
@@ -459,22 +459,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1033</v>
+        <v>957</v>
       </c>
       <c r="C3" s="3">
-        <v>2100</v>
+        <v>1882</v>
       </c>
       <c r="D3" s="3">
-        <v>3806</v>
+        <v>3838</v>
       </c>
       <c r="E3" s="3">
-        <v>7167</v>
+        <v>8587</v>
       </c>
       <c r="F3" s="3">
-        <v>11500</v>
+        <v>12200</v>
       </c>
       <c r="G3" s="3">
-        <v>9248</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -482,22 +482,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="C4" s="3">
-        <v>1899</v>
+        <v>1848</v>
       </c>
       <c r="D4" s="3">
-        <v>3442</v>
+        <v>3527</v>
       </c>
       <c r="E4" s="3">
-        <v>6595</v>
+        <v>6720</v>
       </c>
       <c r="F4" s="3">
         <v>11100</v>
       </c>
       <c r="G4" s="3">
-        <v>20600</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -505,22 +505,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>3531</v>
+        <v>970</v>
       </c>
       <c r="C5" s="3">
-        <v>9437</v>
+        <v>1802</v>
       </c>
       <c r="D5" s="3">
-        <v>19000</v>
+        <v>3653</v>
       </c>
       <c r="E5" s="3">
-        <v>26000</v>
+        <v>6742</v>
       </c>
       <c r="F5" s="3">
-        <v>32500</v>
+        <v>12200</v>
       </c>
       <c r="G5" s="3">
-        <v>26300</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -528,22 +528,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>970</v>
+        <v>988</v>
       </c>
       <c r="C6" s="3">
-        <v>1822</v>
+        <v>1910</v>
       </c>
       <c r="D6" s="3">
-        <v>3657</v>
+        <v>3503</v>
       </c>
       <c r="E6" s="3">
-        <v>6907</v>
+        <v>6104</v>
       </c>
       <c r="F6" s="3">
-        <v>11100</v>
+        <v>10300</v>
       </c>
       <c r="G6" s="3">
-        <v>33500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -582,22 +582,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="3">
-        <v>6253</v>
+        <v>7585</v>
       </c>
       <c r="C11" s="3">
-        <v>8360</v>
+        <v>8819</v>
       </c>
       <c r="D11" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="E11" s="3">
-        <v>32300</v>
+        <v>33400</v>
       </c>
       <c r="F11" s="3">
-        <v>60900</v>
+        <v>60100</v>
       </c>
       <c r="G11" s="3">
-        <v>105000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,22 +605,22 @@
         <v>2</v>
       </c>
       <c r="B12" s="3">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="C12" s="3">
-        <v>7069</v>
+        <v>9285</v>
       </c>
       <c r="D12" s="3">
-        <v>16300</v>
+        <v>16500</v>
       </c>
       <c r="E12" s="3">
-        <v>30400</v>
+        <v>29200</v>
       </c>
       <c r="F12" s="3">
-        <v>52200</v>
+        <v>53700</v>
       </c>
       <c r="G12" s="3">
-        <v>94300</v>
+        <v>85100</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -628,22 +628,22 @@
         <v>3</v>
       </c>
       <c r="B13" s="3">
-        <v>4020</v>
+        <v>3543</v>
       </c>
       <c r="C13" s="3">
-        <v>8171</v>
+        <v>8316</v>
       </c>
       <c r="D13" s="3">
-        <v>18600</v>
+        <v>16500</v>
       </c>
       <c r="E13" s="3">
-        <v>30300</v>
+        <v>32500</v>
       </c>
       <c r="F13" s="3">
-        <v>53700</v>
+        <v>59300</v>
       </c>
       <c r="G13" s="3">
-        <v>99100</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -651,22 +651,22 @@
         <v>4</v>
       </c>
       <c r="B14" s="3">
-        <v>4426</v>
+        <v>4519</v>
       </c>
       <c r="C14" s="3">
-        <v>8001</v>
+        <v>8689</v>
       </c>
       <c r="D14" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="E14" s="3">
-        <v>34000</v>
+        <v>33900</v>
       </c>
       <c r="F14" s="3">
-        <v>57200</v>
+        <v>59900</v>
       </c>
       <c r="G14" s="3">
-        <v>91900</v>
+        <v>103000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -705,22 +705,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="3">
-        <v>8462</v>
+        <v>9481</v>
       </c>
       <c r="C19" s="3">
-        <v>14700</v>
+        <v>13600</v>
       </c>
       <c r="D19" s="3">
-        <v>17300</v>
+        <v>16000</v>
       </c>
       <c r="E19" s="3">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="F19" s="3">
-        <v>21700</v>
+        <v>22300</v>
       </c>
       <c r="G19" s="3">
-        <v>22500</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -728,22 +728,22 @@
         <v>2</v>
       </c>
       <c r="B20" s="3">
-        <v>2485</v>
+        <v>2327</v>
       </c>
       <c r="C20" s="3">
-        <v>4934</v>
+        <v>4385</v>
       </c>
       <c r="D20" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="E20" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="F20" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="G20" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -754,19 +754,19 @@
         <v>7111</v>
       </c>
       <c r="C21" s="3">
-        <v>10200</v>
+        <v>9660</v>
       </c>
       <c r="D21" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="E21" s="3">
-        <v>11700</v>
+        <v>12600</v>
       </c>
       <c r="F21" s="3">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="G21" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -777,19 +777,19 @@
         <v>7366</v>
       </c>
       <c r="C22" s="3">
-        <v>11300</v>
+        <v>9941</v>
       </c>
       <c r="D22" s="3">
-        <v>14000</v>
+        <v>12200</v>
       </c>
       <c r="E22" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="F22" s="3">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="G22" s="3">
-        <v>15500</v>
+        <v>14800</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="3">
-        <v>318000</v>
+        <v>372000</v>
       </c>
       <c r="C27" s="3">
-        <v>390000</v>
+        <v>504000</v>
       </c>
       <c r="D27" s="3">
-        <v>466000</v>
+        <v>690000</v>
       </c>
       <c r="E27" s="3">
-        <v>521000</v>
+        <v>732000</v>
       </c>
       <c r="F27" s="3">
-        <v>570000</v>
+        <v>564000</v>
       </c>
       <c r="G27" s="3">
-        <v>637000</v>
+        <v>655000</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -851,22 +851,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="3">
-        <v>69900</v>
+        <v>53500</v>
       </c>
       <c r="C28" s="3">
-        <v>149000</v>
+        <v>95500</v>
       </c>
       <c r="D28" s="3">
-        <v>248000</v>
+        <v>236000</v>
       </c>
       <c r="E28" s="3">
-        <v>292000</v>
+        <v>287000</v>
       </c>
       <c r="F28" s="3">
-        <v>350000</v>
+        <v>366000</v>
       </c>
       <c r="G28" s="3">
-        <v>416000</v>
+        <v>419000</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -874,22 +874,22 @@
         <v>3</v>
       </c>
       <c r="B29" s="3">
-        <v>141000</v>
+        <v>128000</v>
       </c>
       <c r="C29" s="3">
-        <v>165000</v>
+        <v>196000</v>
       </c>
       <c r="D29" s="3">
-        <v>210000</v>
+        <v>221000</v>
       </c>
       <c r="E29" s="3">
-        <v>234000</v>
+        <v>237000</v>
       </c>
       <c r="F29" s="3">
-        <v>194000</v>
+        <v>181000</v>
       </c>
       <c r="G29" s="3">
-        <v>147000</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -897,22 +897,22 @@
         <v>4</v>
       </c>
       <c r="B30" s="3">
-        <v>139000</v>
+        <v>129000</v>
       </c>
       <c r="C30" s="3">
-        <v>184000</v>
+        <v>178000</v>
       </c>
       <c r="D30" s="3">
-        <v>342000</v>
+        <v>308000</v>
       </c>
       <c r="E30" s="3">
-        <v>509000</v>
+        <v>393000</v>
       </c>
       <c r="F30" s="3">
-        <v>373000</v>
+        <v>456000</v>
       </c>
       <c r="G30" s="3">
-        <v>267000</v>
+        <v>214000</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -951,22 +951,22 @@
         <v>1</v>
       </c>
       <c r="B35" s="3">
-        <v>13800</v>
+        <v>4266</v>
       </c>
       <c r="C35" s="3">
-        <v>23000</v>
+        <v>4222</v>
       </c>
       <c r="D35" s="3">
-        <v>29500</v>
+        <v>7543</v>
       </c>
       <c r="E35" s="3">
-        <v>32100</v>
+        <v>10100</v>
       </c>
       <c r="F35" s="3">
-        <v>34300</v>
+        <v>10000</v>
       </c>
       <c r="G35" s="3">
-        <v>38100</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -974,22 +974,22 @@
         <v>2</v>
       </c>
       <c r="B36" s="3">
-        <v>4015</v>
+        <v>10200</v>
       </c>
       <c r="C36" s="3">
-        <v>4934</v>
+        <v>18600</v>
       </c>
       <c r="D36" s="3">
-        <v>7393</v>
+        <v>31300</v>
       </c>
       <c r="E36" s="3">
-        <v>8761</v>
+        <v>28800</v>
       </c>
       <c r="F36" s="3">
-        <v>10100</v>
+        <v>34900</v>
       </c>
       <c r="G36" s="3">
-        <v>9514</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -997,22 +997,22 @@
         <v>3</v>
       </c>
       <c r="B37" s="3">
-        <v>3368</v>
+        <v>3631</v>
       </c>
       <c r="C37" s="3">
-        <v>4266</v>
+        <v>4551</v>
       </c>
       <c r="D37" s="3">
-        <v>5785</v>
+        <v>6638</v>
       </c>
       <c r="E37" s="3">
-        <v>9204</v>
+        <v>9405</v>
       </c>
       <c r="F37" s="3">
-        <v>9492</v>
+        <v>9887</v>
       </c>
       <c r="G37" s="3">
-        <v>9637</v>
+        <v>9617</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1020,22 +1020,22 @@
         <v>4</v>
       </c>
       <c r="B38" s="3">
-        <v>3923</v>
+        <v>12600</v>
       </c>
       <c r="C38" s="3">
-        <v>3764</v>
+        <v>18600</v>
       </c>
       <c r="D38" s="3">
-        <v>5752</v>
+        <v>25900</v>
       </c>
       <c r="E38" s="3">
-        <v>9235</v>
+        <v>30700</v>
       </c>
       <c r="F38" s="3">
-        <v>9615</v>
+        <v>33400</v>
       </c>
       <c r="G38" s="3">
-        <v>9564</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1074,22 +1074,22 @@
         <v>1</v>
       </c>
       <c r="B43" s="3">
-        <v>415000</v>
+        <v>110000</v>
       </c>
       <c r="C43" s="3">
-        <v>676000</v>
+        <v>146000</v>
       </c>
       <c r="D43" s="3">
-        <v>950000</v>
+        <v>284000</v>
       </c>
       <c r="E43" s="3">
-        <v>1001000</v>
+        <v>280000</v>
       </c>
       <c r="F43" s="3">
-        <v>1044000</v>
+        <v>316000</v>
       </c>
       <c r="G43" s="3">
-        <v>1141000</v>
+        <v>304000</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1097,22 +1097,22 @@
         <v>2</v>
       </c>
       <c r="B44" s="3">
-        <v>125000</v>
+        <v>462000</v>
       </c>
       <c r="C44" s="3">
-        <v>150000</v>
+        <v>546000</v>
       </c>
       <c r="D44" s="3">
-        <v>227000</v>
+        <v>835000</v>
       </c>
       <c r="E44" s="3">
-        <v>266000</v>
+        <v>895000</v>
       </c>
       <c r="F44" s="3">
-        <v>301000</v>
+        <v>964000</v>
       </c>
       <c r="G44" s="3">
-        <v>394000</v>
+        <v>985000</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1120,22 +1120,22 @@
         <v>3</v>
       </c>
       <c r="B45" s="3">
-        <v>109000</v>
+        <v>105000</v>
       </c>
       <c r="C45" s="3">
-        <v>133000</v>
+        <v>112000</v>
       </c>
       <c r="D45" s="3">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="E45" s="3">
-        <v>268000</v>
+        <v>282000</v>
       </c>
       <c r="F45" s="3">
-        <v>301000</v>
+        <v>295000</v>
       </c>
       <c r="G45" s="3">
-        <v>471000</v>
+        <v>414000</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1143,22 +1143,22 @@
         <v>4</v>
       </c>
       <c r="B46" s="3">
-        <v>127000</v>
+        <v>426000</v>
       </c>
       <c r="C46" s="3">
-        <v>157000</v>
+        <v>624000</v>
       </c>
       <c r="D46" s="3">
-        <v>210000</v>
+        <v>794000</v>
       </c>
       <c r="E46" s="3">
-        <v>288000</v>
+        <v>901000</v>
       </c>
       <c r="F46" s="3">
-        <v>280000</v>
+        <v>987000</v>
       </c>
       <c r="G46" s="3">
-        <v>424000</v>
+        <v>994000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1197,22 +1197,22 @@
         <v>1</v>
       </c>
       <c r="B51" s="3">
-        <v>7937</v>
+        <v>7262</v>
       </c>
       <c r="C51" s="3">
-        <v>10200</v>
+        <v>9225</v>
       </c>
       <c r="D51" s="3">
-        <v>11000</v>
+        <v>10100</v>
       </c>
       <c r="E51" s="3">
-        <v>11000</v>
+        <v>11600</v>
       </c>
       <c r="F51" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="G51" s="3">
-        <v>13300</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1220,19 +1220,19 @@
         <v>2</v>
       </c>
       <c r="B52" s="3">
-        <v>2015</v>
+        <v>2031</v>
       </c>
       <c r="C52" s="3">
-        <v>3976</v>
+        <v>3915</v>
       </c>
       <c r="D52" s="3">
-        <v>8659</v>
+        <v>8605</v>
       </c>
       <c r="E52" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="F52" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="G52" s="3">
         <v>11900</v>
@@ -1243,22 +1243,22 @@
         <v>3</v>
       </c>
       <c r="B53" s="3">
-        <v>5720</v>
+        <v>5389</v>
       </c>
       <c r="C53" s="3">
-        <v>7447</v>
+        <v>7787</v>
       </c>
       <c r="D53" s="3">
-        <v>9002</v>
+        <v>8962</v>
       </c>
       <c r="E53" s="3">
-        <v>9834</v>
+        <v>9671</v>
       </c>
       <c r="F53" s="3">
-        <v>9220</v>
+        <v>9153</v>
       </c>
       <c r="G53" s="3">
-        <v>9049</v>
+        <v>8689</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1266,22 +1266,22 @@
         <v>4</v>
       </c>
       <c r="B54" s="3">
-        <v>5019</v>
+        <v>5595</v>
       </c>
       <c r="C54" s="3">
-        <v>8462</v>
+        <v>9183</v>
       </c>
       <c r="D54" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="E54" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="F54" s="3">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="G54" s="3">
-        <v>11700</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1320,22 +1320,22 @@
         <v>1</v>
       </c>
       <c r="B59" s="3">
-        <v>262000</v>
+        <v>250000</v>
       </c>
       <c r="C59" s="3">
         <v>299000</v>
       </c>
       <c r="D59" s="3">
-        <v>318000</v>
+        <v>343000</v>
       </c>
       <c r="E59" s="3">
-        <v>378000</v>
+        <v>367000</v>
       </c>
       <c r="F59" s="3">
-        <v>419000</v>
+        <v>427000</v>
       </c>
       <c r="G59" s="3">
-        <v>399000</v>
+        <v>391000</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1343,22 +1343,22 @@
         <v>2</v>
       </c>
       <c r="B60" s="3">
-        <v>68700</v>
+        <v>75500</v>
       </c>
       <c r="C60" s="3">
-        <v>158000</v>
+        <v>159000</v>
       </c>
       <c r="D60" s="3">
-        <v>229000</v>
+        <v>224000</v>
       </c>
       <c r="E60" s="3">
-        <v>285000</v>
+        <v>265000</v>
       </c>
       <c r="F60" s="3">
-        <v>310000</v>
+        <v>301000</v>
       </c>
       <c r="G60" s="3">
-        <v>354000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1366,22 +1366,22 @@
         <v>3</v>
       </c>
       <c r="B61" s="3">
-        <v>120000</v>
+        <v>114000</v>
       </c>
       <c r="C61" s="3">
-        <v>172000</v>
+        <v>158000</v>
       </c>
       <c r="D61" s="3">
-        <v>172000</v>
+        <v>178000</v>
       </c>
       <c r="E61" s="3">
-        <v>201000</v>
+        <v>199000</v>
       </c>
       <c r="F61" s="3">
-        <v>184000</v>
+        <v>171000</v>
       </c>
       <c r="G61" s="3">
-        <v>161000</v>
+        <v>158000</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1389,22 +1389,22 @@
         <v>4</v>
       </c>
       <c r="B62" s="3">
-        <v>122000</v>
+        <v>147000</v>
       </c>
       <c r="C62" s="3">
-        <v>182000</v>
+        <v>209000</v>
       </c>
       <c r="D62" s="3">
-        <v>278000</v>
+        <v>266000</v>
       </c>
       <c r="E62" s="3">
-        <v>324000</v>
+        <v>319000</v>
       </c>
       <c r="F62" s="3">
-        <v>349000</v>
+        <v>342000</v>
       </c>
       <c r="G62" s="3">
-        <v>261000</v>
+        <v>236000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/merged_summary.xlsx
+++ b/rfuse/merged_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>randread_128k_IOPS</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>rfuse</t>
+  </si>
+  <si>
+    <t>rfuse_rr</t>
+  </si>
+  <si>
+    <t>rfuse_thr</t>
   </si>
   <si>
     <t>rfuse_busy</t>
@@ -413,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,22 +465,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1045</v>
+        <v>8605</v>
       </c>
       <c r="C3" s="3">
-        <v>4173</v>
+        <v>15900</v>
       </c>
       <c r="D3" s="3">
-        <v>5197</v>
+        <v>23000</v>
       </c>
       <c r="E3" s="3">
-        <v>10600</v>
+        <v>29600</v>
       </c>
       <c r="F3" s="3">
-        <v>28200</v>
+        <v>29600</v>
       </c>
       <c r="G3" s="3">
-        <v>11600</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -482,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>953</v>
+        <v>6168</v>
       </c>
       <c r="C4" s="3">
-        <v>4633</v>
+        <v>13200</v>
       </c>
       <c r="D4" s="3">
-        <v>3813</v>
+        <v>21200</v>
       </c>
       <c r="E4" s="3">
-        <v>9706</v>
+        <v>27200</v>
       </c>
       <c r="F4" s="3">
-        <v>13300</v>
+        <v>29700</v>
       </c>
       <c r="G4" s="3">
-        <v>21200</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -505,22 +511,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>961</v>
+        <v>5446</v>
       </c>
       <c r="C5" s="3">
-        <v>2568</v>
+        <v>11400</v>
       </c>
       <c r="D5" s="3">
-        <v>3673</v>
+        <v>21000</v>
       </c>
       <c r="E5" s="3">
-        <v>13200</v>
+        <v>27800</v>
       </c>
       <c r="F5" s="3">
-        <v>11000</v>
+        <v>31600</v>
       </c>
       <c r="G5" s="3">
-        <v>15000</v>
+        <v>26300</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -528,519 +534,580 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>969</v>
+        <v>5305</v>
       </c>
       <c r="C6" s="3">
-        <v>4079</v>
+        <v>11400</v>
       </c>
       <c r="D6" s="3">
-        <v>3929</v>
+        <v>19800</v>
       </c>
       <c r="E6" s="3">
-        <v>11300</v>
+        <v>24600</v>
       </c>
       <c r="F6" s="3">
-        <v>10500</v>
+        <v>26600</v>
       </c>
       <c r="G6" s="3">
-        <v>20900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="1" t="s">
+        <v>22900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
+      <c r="B7" s="3">
+        <v>5305</v>
+      </c>
+      <c r="C7" s="3">
+        <v>11400</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E7" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F7" s="3">
+        <v>29900</v>
+      </c>
+      <c r="G7" s="3">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6965</v>
+      </c>
+      <c r="C8" s="3">
+        <v>13000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>28100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D12" s="1">
         <v>4</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E12" s="1">
         <v>8</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F12" s="1">
         <v>16</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G12" s="1">
         <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>26300</v>
-      </c>
-      <c r="C11" s="3">
-        <v>22600</v>
-      </c>
-      <c r="D11" s="3">
-        <v>41600</v>
-      </c>
-      <c r="E11" s="3">
-        <v>83500</v>
-      </c>
-      <c r="F11" s="3">
-        <v>160000</v>
-      </c>
-      <c r="G11" s="3">
-        <v>256000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3">
-        <v>12100</v>
-      </c>
-      <c r="C12" s="3">
-        <v>20600</v>
-      </c>
-      <c r="D12" s="3">
-        <v>43400</v>
-      </c>
-      <c r="E12" s="3">
-        <v>81700</v>
-      </c>
-      <c r="F12" s="3">
-        <v>147000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>184000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>12600</v>
+        <v>4063</v>
       </c>
       <c r="C13" s="3">
-        <v>19300</v>
+        <v>8485</v>
       </c>
       <c r="D13" s="3">
-        <v>41200</v>
+        <v>16900</v>
       </c>
       <c r="E13" s="3">
-        <v>81700</v>
+        <v>161000</v>
       </c>
       <c r="F13" s="3">
-        <v>151000</v>
+        <v>267000</v>
       </c>
       <c r="G13" s="3">
-        <v>194000</v>
+        <v>377000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4087</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7991</v>
+      </c>
+      <c r="D14" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>31900</v>
+      </c>
+      <c r="F14" s="3">
+        <v>193000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>194000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4112</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8038</v>
+      </c>
+      <c r="D15" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>31600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>216000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>282000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
-        <v>14400</v>
-      </c>
-      <c r="C14" s="3">
-        <v>23400</v>
-      </c>
-      <c r="D14" s="3">
-        <v>46500</v>
-      </c>
-      <c r="E14" s="3">
-        <v>81300</v>
-      </c>
-      <c r="F14" s="3">
-        <v>150000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>172000</v>
+      <c r="B16" s="3">
+        <v>3555</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8014</v>
+      </c>
+      <c r="D16" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E16" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F16" s="3">
+        <v>208000</v>
+      </c>
+      <c r="G16" s="3">
+        <v>264000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6531</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7942</v>
+      </c>
+      <c r="D17" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>210000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>267000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
+        <v>13300</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8120</v>
+      </c>
+      <c r="D18" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>179000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>247000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D22" s="1">
         <v>4</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E22" s="1">
         <v>8</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F22" s="1">
         <v>16</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G22" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="3">
-        <v>2938</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3540</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3696</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3560</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3674</v>
-      </c>
-      <c r="G19" s="3">
-        <v>4099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
+      <c r="B23" s="3">
+        <v>13800</v>
+      </c>
+      <c r="C23" s="3">
+        <v>17100</v>
+      </c>
+      <c r="D23" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="3">
-        <v>7353</v>
-      </c>
-      <c r="C20" s="3">
-        <v>12800</v>
-      </c>
-      <c r="D20" s="3">
-        <v>16500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3727</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3593</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
+      <c r="B24" s="3">
+        <v>7816</v>
+      </c>
+      <c r="C24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>19300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="3">
-        <v>2836</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3207</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3366</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3604</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3804</v>
-      </c>
-      <c r="G21" s="3">
-        <v>4835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
+      <c r="B25" s="3">
+        <v>7529</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9990</v>
+      </c>
+      <c r="D25" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E25" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F25" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G25" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="3">
-        <v>3047</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3424</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3606</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3740</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3942</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1">
-        <v>8</v>
-      </c>
-      <c r="F26" s="1">
-        <v>16</v>
-      </c>
-      <c r="G26" s="1">
-        <v>32</v>
+      <c r="B26" s="3">
+        <v>7474</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10800</v>
+      </c>
+      <c r="D26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>12200</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" s="3">
-        <v>364000</v>
+        <v>7420</v>
       </c>
       <c r="C27" s="3">
-        <v>466000</v>
+        <v>10600</v>
       </c>
       <c r="D27" s="3">
-        <v>572000</v>
+        <v>12100</v>
       </c>
       <c r="E27" s="3">
-        <v>599000</v>
+        <v>12400</v>
       </c>
       <c r="F27" s="3">
-        <v>648000</v>
+        <v>12600</v>
       </c>
       <c r="G27" s="3">
-        <v>188000</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3">
+        <v>7314</v>
+      </c>
+      <c r="C28" s="3">
+        <v>8982</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E28" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F28" s="3">
+        <v>13300</v>
+      </c>
+      <c r="G28" s="3">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
         <v>2</v>
       </c>
-      <c r="B28" s="3">
-        <v>117000</v>
-      </c>
-      <c r="C28" s="3">
-        <v>194000</v>
-      </c>
-      <c r="D28" s="3">
-        <v>285000</v>
-      </c>
-      <c r="E28" s="3">
-        <v>361000</v>
-      </c>
-      <c r="F28" s="3">
-        <v>438000</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3">
+        <v>318000</v>
+      </c>
+      <c r="C33" s="3">
         <v>478000</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3">
-        <v>138000</v>
-      </c>
-      <c r="C29" s="3">
-        <v>162000</v>
-      </c>
-      <c r="D29" s="3">
-        <v>184000</v>
-      </c>
-      <c r="E29" s="3">
-        <v>193000</v>
-      </c>
-      <c r="F29" s="3">
-        <v>185000</v>
-      </c>
-      <c r="G29" s="3">
-        <v>117000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3">
-        <v>121000</v>
-      </c>
-      <c r="C30" s="3">
-        <v>211000</v>
-      </c>
-      <c r="D30" s="3">
-        <v>308000</v>
-      </c>
-      <c r="E30" s="3">
-        <v>431000</v>
-      </c>
-      <c r="F30" s="3">
-        <v>410000</v>
-      </c>
-      <c r="G30" s="3">
-        <v>158000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="B33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="D33" s="3">
+        <v>555000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>617000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>648000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>664000</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="1">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1">
-        <v>8</v>
-      </c>
-      <c r="F34" s="1">
-        <v>16</v>
-      </c>
-      <c r="G34" s="1">
-        <v>32</v>
+      <c r="B34" s="3">
+        <v>112000</v>
+      </c>
+      <c r="C34" s="3">
+        <v>187000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E34" s="3">
+        <v>352000</v>
+      </c>
+      <c r="F34" s="3">
+        <v>412000</v>
+      </c>
+      <c r="G34" s="3">
+        <v>458000</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3">
-        <v>3459</v>
+        <v>137000</v>
       </c>
       <c r="C35" s="3">
-        <v>5512</v>
+        <v>160000</v>
       </c>
       <c r="D35" s="3">
-        <v>8747</v>
+        <v>199000</v>
       </c>
       <c r="E35" s="3">
-        <v>9651</v>
+        <v>206000</v>
       </c>
       <c r="F35" s="3">
-        <v>9295</v>
+        <v>174000</v>
       </c>
       <c r="G35" s="3">
-        <v>20700</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" s="3">
-        <v>3346</v>
+        <v>136000</v>
       </c>
       <c r="C36" s="3">
-        <v>4242</v>
+        <v>162000</v>
       </c>
       <c r="D36" s="3">
-        <v>7447</v>
+        <v>188000</v>
       </c>
       <c r="E36" s="3">
-        <v>7634</v>
+        <v>202000</v>
       </c>
       <c r="F36" s="3">
-        <v>10900</v>
+        <v>178000</v>
       </c>
       <c r="G36" s="3">
-        <v>10800</v>
+        <v>162000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B37" s="3">
-        <v>3700</v>
+        <v>137000</v>
       </c>
       <c r="C37" s="3">
-        <v>3527</v>
+        <v>194000</v>
       </c>
       <c r="D37" s="3">
-        <v>7613</v>
+        <v>193000</v>
       </c>
       <c r="E37" s="3">
-        <v>9448</v>
+        <v>208000</v>
       </c>
       <c r="F37" s="3">
-        <v>9542</v>
+        <v>180000</v>
       </c>
       <c r="G37" s="3">
-        <v>10400</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" s="3">
-        <v>4087</v>
+        <v>127000</v>
       </c>
       <c r="C38" s="3">
-        <v>4518</v>
+        <v>156000</v>
       </c>
       <c r="D38" s="3">
-        <v>6180</v>
+        <v>200000</v>
       </c>
       <c r="E38" s="3">
-        <v>14800</v>
+        <v>217000</v>
       </c>
       <c r="F38" s="3">
-        <v>8770</v>
+        <v>232000</v>
       </c>
       <c r="G38" s="3">
-        <v>20300</v>
+        <v>283000</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1074,22 +1141,22 @@
         <v>1</v>
       </c>
       <c r="B43" s="3">
-        <v>152000</v>
+        <v>3379</v>
       </c>
       <c r="C43" s="3">
-        <v>180000</v>
+        <v>5785</v>
       </c>
       <c r="D43" s="3">
-        <v>271000</v>
+        <v>7846</v>
       </c>
       <c r="E43" s="3">
-        <v>300000</v>
+        <v>8705</v>
       </c>
       <c r="F43" s="3">
-        <v>281000</v>
+        <v>8419</v>
       </c>
       <c r="G43" s="3">
-        <v>767000</v>
+        <v>8443</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1097,22 +1164,22 @@
         <v>2</v>
       </c>
       <c r="B44" s="3">
-        <v>121000</v>
+        <v>2694</v>
       </c>
       <c r="C44" s="3">
-        <v>139000</v>
+        <v>4162</v>
       </c>
       <c r="D44" s="3">
-        <v>254000</v>
+        <v>7772</v>
       </c>
       <c r="E44" s="3">
-        <v>451000</v>
+        <v>7984</v>
       </c>
       <c r="F44" s="3">
-        <v>255000</v>
+        <v>6770</v>
       </c>
       <c r="G44" s="3">
-        <v>701000</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1120,22 +1187,22 @@
         <v>3</v>
       </c>
       <c r="B45" s="3">
-        <v>91300</v>
+        <v>2708</v>
       </c>
       <c r="C45" s="3">
-        <v>105000</v>
+        <v>3362</v>
       </c>
       <c r="D45" s="3">
-        <v>334000</v>
+        <v>8515</v>
       </c>
       <c r="E45" s="3">
-        <v>304000</v>
+        <v>8175</v>
       </c>
       <c r="F45" s="3">
-        <v>309000</v>
+        <v>8000</v>
       </c>
       <c r="G45" s="3">
-        <v>367000</v>
+        <v>8777</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1143,280 +1210,587 @@
         <v>4</v>
       </c>
       <c r="B46" s="3">
-        <v>87400</v>
+        <v>2343</v>
       </c>
       <c r="C46" s="3">
-        <v>152000</v>
+        <v>3543</v>
       </c>
       <c r="D46" s="3">
-        <v>265000</v>
+        <v>7968</v>
       </c>
       <c r="E46" s="3">
-        <v>242000</v>
+        <v>8078</v>
       </c>
       <c r="F46" s="3">
-        <v>267000</v>
+        <v>8135</v>
       </c>
       <c r="G46" s="3">
-        <v>646000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="B49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2403</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3683</v>
+      </c>
+      <c r="D47" s="3">
+        <v>8274</v>
+      </c>
+      <c r="E47" s="3">
+        <v>8551</v>
+      </c>
+      <c r="F47" s="3">
+        <v>8371</v>
+      </c>
+      <c r="G47" s="3">
+        <v>7046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2687</v>
+      </c>
+      <c r="C48" s="3">
+        <v>3065</v>
+      </c>
+      <c r="D48" s="3">
+        <v>5126</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8159</v>
+      </c>
+      <c r="F48" s="3">
+        <v>7775</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1">
         <v>1</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C52" s="1">
         <v>2</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D52" s="1">
         <v>4</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E52" s="1">
         <v>8</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F52" s="1">
         <v>16</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G52" s="1">
         <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="3">
-        <v>10600</v>
-      </c>
-      <c r="C51" s="3">
-        <v>12700</v>
-      </c>
-      <c r="D51" s="3">
-        <v>13800</v>
-      </c>
-      <c r="E51" s="3">
-        <v>14100</v>
-      </c>
-      <c r="F51" s="3">
-        <v>14700</v>
-      </c>
-      <c r="G51" s="3">
-        <v>14800</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="3">
-        <v>7314</v>
-      </c>
-      <c r="C52" s="3">
-        <v>9929</v>
-      </c>
-      <c r="D52" s="3">
-        <v>11000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>13200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>14400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>14800</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53" s="3">
-        <v>7275</v>
+        <v>115000</v>
       </c>
       <c r="C53" s="3">
-        <v>9051</v>
+        <v>184000</v>
       </c>
       <c r="D53" s="3">
-        <v>9929</v>
+        <v>301000</v>
       </c>
       <c r="E53" s="3">
-        <v>10600</v>
+        <v>312000</v>
       </c>
       <c r="F53" s="3">
-        <v>12100</v>
+        <v>293000</v>
       </c>
       <c r="G53" s="3">
-        <v>12700</v>
+        <v>272000</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="3">
+        <v>98100</v>
+      </c>
+      <c r="C54" s="3">
+        <v>153000</v>
+      </c>
+      <c r="D54" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>237000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>220000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>259000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3">
+        <v>79100</v>
+      </c>
+      <c r="C55" s="3">
+        <v>113000</v>
+      </c>
+      <c r="D55" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E55" s="3">
+        <v>293000</v>
+      </c>
+      <c r="F55" s="3">
+        <v>287000</v>
+      </c>
+      <c r="G55" s="3">
+        <v>347000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="3">
-        <v>6872</v>
-      </c>
-      <c r="C54" s="3">
-        <v>9102</v>
-      </c>
-      <c r="D54" s="3">
-        <v>11700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>12000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>13900</v>
+      <c r="B56" s="3">
+        <v>79900</v>
+      </c>
+      <c r="C56" s="3">
+        <v>115000</v>
+      </c>
+      <c r="D56" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E56" s="3">
+        <v>302000</v>
+      </c>
+      <c r="F56" s="3">
+        <v>246000</v>
+      </c>
+      <c r="G56" s="3">
+        <v>350000</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="B57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="A57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="3">
+        <v>78800</v>
+      </c>
+      <c r="C57" s="3">
+        <v>113000</v>
+      </c>
+      <c r="D57" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>277000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>273000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>372000</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1">
+      <c r="A58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3">
+        <v>98100</v>
+      </c>
+      <c r="C58" s="3">
+        <v>82200</v>
+      </c>
+      <c r="D58" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>266000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>256000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>238000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="B61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1">
         <v>1</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C62" s="1">
         <v>2</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D62" s="1">
         <v>4</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E62" s="1">
         <v>8</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F62" s="1">
         <v>16</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G62" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="2" t="s">
+    <row r="63" spans="1:7">
+      <c r="A63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="3">
-        <v>309000</v>
-      </c>
-      <c r="C59" s="3">
-        <v>379000</v>
-      </c>
-      <c r="D59" s="3">
-        <v>434000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>436000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>467000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>482000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="2" t="s">
+      <c r="B63" s="3">
+        <v>9225</v>
+      </c>
+      <c r="C63" s="3">
+        <v>10600</v>
+      </c>
+      <c r="D63" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E63" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F63" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G63" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="3">
-        <v>116000</v>
-      </c>
-      <c r="C60" s="3">
-        <v>197000</v>
-      </c>
-      <c r="D60" s="3">
-        <v>261000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>327000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>419000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>457000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="2" t="s">
+      <c r="B64" s="3">
+        <v>6692</v>
+      </c>
+      <c r="C64" s="3">
+        <v>8904</v>
+      </c>
+      <c r="D64" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E64" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F64" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G64" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="3">
-        <v>131000</v>
-      </c>
-      <c r="C61" s="3">
-        <v>163000</v>
-      </c>
-      <c r="D61" s="3">
-        <v>183000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>221000</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="B65" s="3">
+        <v>5688</v>
+      </c>
+      <c r="C65" s="3">
+        <v>7613</v>
+      </c>
+      <c r="D65" s="3">
+        <v>8808</v>
+      </c>
+      <c r="E65" s="3">
+        <v>9547</v>
+      </c>
+      <c r="F65" s="3">
+        <v>9235</v>
+      </c>
+      <c r="G65" s="3">
+        <v>8724</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5953</v>
+      </c>
+      <c r="C66" s="3">
+        <v>7185</v>
+      </c>
+      <c r="D66" s="3">
+        <v>9394</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9426</v>
+      </c>
+      <c r="F66" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>8841</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="3">
+        <v>5626</v>
+      </c>
+      <c r="C67" s="3">
+        <v>7557</v>
+      </c>
+      <c r="D67" s="3">
+        <v>9163</v>
+      </c>
+      <c r="E67" s="3">
+        <v>9298</v>
+      </c>
+      <c r="F67" s="3">
+        <v>8972</v>
+      </c>
+      <c r="G67" s="3">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="3">
+        <v>5752</v>
+      </c>
+      <c r="C68" s="3">
+        <v>7816</v>
+      </c>
+      <c r="D68" s="3">
+        <v>8445</v>
+      </c>
+      <c r="E68" s="3">
+        <v>9405</v>
+      </c>
+      <c r="F68" s="3">
+        <v>9935</v>
+      </c>
+      <c r="G68" s="3">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="B71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1">
+        <v>8</v>
+      </c>
+      <c r="F72" s="1">
+        <v>16</v>
+      </c>
+      <c r="G72" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="3">
+        <v>341000</v>
+      </c>
+      <c r="C73" s="3">
+        <v>428000</v>
+      </c>
+      <c r="D73" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E73" s="3">
+        <v>551000</v>
+      </c>
+      <c r="F73" s="3">
+        <v>583000</v>
+      </c>
+      <c r="G73" s="3">
+        <v>519000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="3">
+        <v>106000</v>
+      </c>
+      <c r="C74" s="3">
+        <v>157000</v>
+      </c>
+      <c r="D74" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E74" s="3">
+        <v>347000</v>
+      </c>
+      <c r="F74" s="3">
+        <v>392000</v>
+      </c>
+      <c r="G74" s="3">
+        <v>404000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="3">
+        <v>134000</v>
+      </c>
+      <c r="C75" s="3">
+        <v>180000</v>
+      </c>
+      <c r="D75" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E75" s="3">
+        <v>212000</v>
+      </c>
+      <c r="F75" s="3">
+        <v>182000</v>
+      </c>
+      <c r="G75" s="3">
+        <v>167000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="3">
+        <v>137000</v>
+      </c>
+      <c r="C76" s="3">
+        <v>168000</v>
+      </c>
+      <c r="D76" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E76" s="3">
         <v>216000</v>
       </c>
-      <c r="G61" s="3">
-        <v>182000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="3">
-        <v>152000</v>
-      </c>
-      <c r="C62" s="3">
-        <v>177000</v>
-      </c>
-      <c r="D62" s="3">
-        <v>278000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>364000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>434000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>258000</v>
+      <c r="F76" s="3">
+        <v>196000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>167000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="3">
+        <v>134000</v>
+      </c>
+      <c r="C77" s="3">
+        <v>168000</v>
+      </c>
+      <c r="D77" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E77" s="3">
+        <v>224000</v>
+      </c>
+      <c r="F77" s="3">
+        <v>196000</v>
+      </c>
+      <c r="G77" s="3">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="3">
+        <v>119000</v>
+      </c>
+      <c r="C78" s="3">
+        <v>161000</v>
+      </c>
+      <c r="D78" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E78" s="3">
+        <v>206000</v>
+      </c>
+      <c r="F78" s="3">
+        <v>233000</v>
+      </c>
+      <c r="G78" s="3">
+        <v>286000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B31:G31"/>
     <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B71:G71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rfuse/merged_summary.xlsx
+++ b/rfuse/merged_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>8605</v>
+        <v>8462</v>
       </c>
       <c r="C3" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="D3" s="3">
-        <v>23000</v>
+        <v>24100</v>
       </c>
       <c r="E3" s="3">
-        <v>29600</v>
+        <v>28900</v>
       </c>
       <c r="F3" s="3">
-        <v>29600</v>
+        <v>31600</v>
       </c>
       <c r="G3" s="3">
-        <v>24400</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>6168</v>
+        <v>6564</v>
       </c>
       <c r="C4" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="D4" s="3">
-        <v>21200</v>
+        <v>23100</v>
       </c>
       <c r="E4" s="3">
-        <v>27200</v>
+        <v>30700</v>
       </c>
       <c r="F4" s="3">
-        <v>29700</v>
+        <v>34200</v>
       </c>
       <c r="G4" s="3">
-        <v>30100</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>5446</v>
+        <v>4491</v>
       </c>
       <c r="C5" s="3">
-        <v>11400</v>
+        <v>10600</v>
       </c>
       <c r="D5" s="3">
-        <v>21000</v>
+        <v>19300</v>
       </c>
       <c r="E5" s="3">
-        <v>27800</v>
+        <v>28500</v>
       </c>
       <c r="F5" s="3">
-        <v>31600</v>
+        <v>31800</v>
       </c>
       <c r="G5" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>5305</v>
+        <v>5535</v>
       </c>
       <c r="C6" s="3">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="3">
-        <v>19800</v>
+        <v>21000</v>
       </c>
       <c r="E6" s="3">
-        <v>24600</v>
+        <v>26100</v>
       </c>
       <c r="F6" s="3">
-        <v>26600</v>
+        <v>29000</v>
       </c>
       <c r="G6" s="3">
-        <v>22900</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -563,19 +563,19 @@
         <v>5305</v>
       </c>
       <c r="C7" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="D7" s="3">
-        <v>20700</v>
+        <v>20200</v>
       </c>
       <c r="E7" s="3">
-        <v>28200</v>
+        <v>25500</v>
       </c>
       <c r="F7" s="3">
-        <v>29900</v>
+        <v>29200</v>
       </c>
       <c r="G7" s="3">
-        <v>23000</v>
+        <v>27600</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -583,22 +583,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>6965</v>
+        <v>6736</v>
       </c>
       <c r="C8" s="3">
-        <v>13000</v>
+        <v>12200</v>
       </c>
       <c r="D8" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="E8" s="3">
-        <v>24700</v>
+        <v>25500</v>
       </c>
       <c r="F8" s="3">
-        <v>28100</v>
+        <v>29200</v>
       </c>
       <c r="G8" s="3">
-        <v>27500</v>
+        <v>30600</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -606,22 +606,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>5565</v>
+        <v>5505</v>
       </c>
       <c r="C9" s="3">
         <v>12400</v>
       </c>
       <c r="D9" s="3">
-        <v>18900</v>
+        <v>20200</v>
       </c>
       <c r="E9" s="3">
-        <v>26000</v>
+        <v>26900</v>
       </c>
       <c r="F9" s="3">
-        <v>30200</v>
+        <v>30300</v>
       </c>
       <c r="G9" s="3">
-        <v>27500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -660,22 +660,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="3">
-        <v>4063</v>
+        <v>4253</v>
       </c>
       <c r="C14" s="3">
-        <v>8485</v>
+        <v>8078</v>
       </c>
       <c r="D14" s="3">
-        <v>16900</v>
+        <v>16600</v>
       </c>
       <c r="E14" s="3">
-        <v>161000</v>
+        <v>33800</v>
       </c>
       <c r="F14" s="3">
-        <v>267000</v>
+        <v>263000</v>
       </c>
       <c r="G14" s="3">
-        <v>377000</v>
+        <v>369000</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,22 +683,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="3">
-        <v>4087</v>
+        <v>3979</v>
       </c>
       <c r="C15" s="3">
-        <v>7991</v>
+        <v>7992</v>
       </c>
       <c r="D15" s="3">
         <v>16500</v>
       </c>
       <c r="E15" s="3">
-        <v>31900</v>
+        <v>31000</v>
       </c>
       <c r="F15" s="3">
-        <v>193000</v>
+        <v>199000</v>
       </c>
       <c r="G15" s="3">
-        <v>194000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="3">
-        <v>4112</v>
+        <v>3993</v>
       </c>
       <c r="C16" s="3">
-        <v>8038</v>
+        <v>7947</v>
       </c>
       <c r="D16" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="E16" s="3">
-        <v>31600</v>
+        <v>31900</v>
       </c>
       <c r="F16" s="3">
-        <v>216000</v>
+        <v>217000</v>
       </c>
       <c r="G16" s="3">
-        <v>282000</v>
+        <v>271000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -729,22 +729,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="3">
-        <v>3555</v>
+        <v>4230</v>
       </c>
       <c r="C17" s="3">
-        <v>8014</v>
+        <v>7416</v>
       </c>
       <c r="D17" s="3">
-        <v>16300</v>
+        <v>15900</v>
       </c>
       <c r="E17" s="3">
-        <v>31000</v>
+        <v>137000</v>
       </c>
       <c r="F17" s="3">
-        <v>208000</v>
+        <v>211000</v>
       </c>
       <c r="G17" s="3">
-        <v>264000</v>
+        <v>273000</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -752,22 +752,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="3">
-        <v>6531</v>
+        <v>3419</v>
       </c>
       <c r="C18" s="3">
-        <v>7942</v>
+        <v>7956</v>
       </c>
       <c r="D18" s="3">
-        <v>16100</v>
+        <v>16900</v>
       </c>
       <c r="E18" s="3">
-        <v>31000</v>
+        <v>27500</v>
       </c>
       <c r="F18" s="3">
-        <v>210000</v>
+        <v>211000</v>
       </c>
       <c r="G18" s="3">
-        <v>267000</v>
+        <v>274000</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -775,22 +775,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="3">
-        <v>13300</v>
+        <v>4003</v>
       </c>
       <c r="C19" s="3">
-        <v>8120</v>
+        <v>7393</v>
       </c>
       <c r="D19" s="3">
-        <v>15200</v>
+        <v>15900</v>
       </c>
       <c r="E19" s="3">
-        <v>30100</v>
+        <v>109000</v>
       </c>
       <c r="F19" s="3">
-        <v>179000</v>
+        <v>174000</v>
       </c>
       <c r="G19" s="3">
-        <v>247000</v>
+        <v>244000</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -798,22 +798,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="3">
-        <v>4008</v>
+        <v>4001</v>
       </c>
       <c r="C20" s="3">
-        <v>8060</v>
+        <v>7532</v>
       </c>
       <c r="D20" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="E20" s="3">
-        <v>29600</v>
+        <v>29900</v>
       </c>
       <c r="F20" s="3">
-        <v>177000</v>
+        <v>179000</v>
       </c>
       <c r="G20" s="3">
-        <v>234000</v>
+        <v>238000</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -852,22 +852,22 @@
         <v>1</v>
       </c>
       <c r="B25" s="3">
-        <v>13800</v>
+        <v>11300</v>
       </c>
       <c r="C25" s="3">
-        <v>17100</v>
+        <v>16100</v>
       </c>
       <c r="D25" s="3">
-        <v>18700</v>
+        <v>17400</v>
       </c>
       <c r="E25" s="3">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="F25" s="3">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="G25" s="3">
-        <v>21200</v>
+        <v>20700</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -875,22 +875,22 @@
         <v>2</v>
       </c>
       <c r="B26" s="3">
-        <v>7816</v>
+        <v>7876</v>
       </c>
       <c r="C26" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="D26" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="E26" s="3">
-        <v>18600</v>
+        <v>18300</v>
       </c>
       <c r="F26" s="3">
-        <v>19300</v>
+        <v>18300</v>
       </c>
       <c r="G26" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -898,22 +898,22 @@
         <v>3</v>
       </c>
       <c r="B27" s="3">
-        <v>7529</v>
+        <v>7314</v>
       </c>
       <c r="C27" s="3">
-        <v>9990</v>
+        <v>10200</v>
       </c>
       <c r="D27" s="3">
-        <v>11100</v>
+        <v>12300</v>
       </c>
       <c r="E27" s="3">
-        <v>11800</v>
+        <v>12100</v>
       </c>
       <c r="F27" s="3">
-        <v>13100</v>
+        <v>12400</v>
       </c>
       <c r="G27" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -921,22 +921,22 @@
         <v>4</v>
       </c>
       <c r="B28" s="3">
-        <v>7474</v>
+        <v>7366</v>
       </c>
       <c r="C28" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="D28" s="3">
-        <v>10000</v>
+        <v>13400</v>
       </c>
       <c r="E28" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="F28" s="3">
-        <v>12300</v>
+        <v>12900</v>
       </c>
       <c r="G28" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -944,19 +944,19 @@
         <v>5</v>
       </c>
       <c r="B29" s="3">
-        <v>7420</v>
+        <v>7013</v>
       </c>
       <c r="C29" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="D29" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E29" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F29" s="3">
         <v>12100</v>
-      </c>
-      <c r="E29" s="3">
-        <v>12400</v>
-      </c>
-      <c r="F29" s="3">
-        <v>12600</v>
       </c>
       <c r="G29" s="3">
         <v>12400</v>
@@ -967,22 +967,22 @@
         <v>6</v>
       </c>
       <c r="B30" s="3">
-        <v>7314</v>
+        <v>8325</v>
       </c>
       <c r="C30" s="3">
-        <v>8982</v>
+        <v>9022</v>
       </c>
       <c r="D30" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="E30" s="3">
-        <v>11300</v>
+        <v>12400</v>
       </c>
       <c r="F30" s="3">
-        <v>13300</v>
+        <v>11700</v>
       </c>
       <c r="G30" s="3">
-        <v>13200</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -990,22 +990,22 @@
         <v>7</v>
       </c>
       <c r="B31" s="3">
-        <v>6826</v>
+        <v>6564</v>
       </c>
       <c r="C31" s="3">
-        <v>8677</v>
+        <v>8605</v>
       </c>
       <c r="D31" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="E31" s="3">
-        <v>12700</v>
+        <v>14300</v>
       </c>
       <c r="F31" s="3">
-        <v>13200</v>
+        <v>12600</v>
       </c>
       <c r="G31" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1044,22 +1044,22 @@
         <v>1</v>
       </c>
       <c r="B36" s="3">
-        <v>318000</v>
+        <v>386000</v>
       </c>
       <c r="C36" s="3">
-        <v>478000</v>
+        <v>485000</v>
       </c>
       <c r="D36" s="3">
-        <v>555000</v>
+        <v>572000</v>
       </c>
       <c r="E36" s="3">
-        <v>617000</v>
+        <v>620000</v>
       </c>
       <c r="F36" s="3">
-        <v>648000</v>
+        <v>618000</v>
       </c>
       <c r="G36" s="3">
-        <v>664000</v>
+        <v>631000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1067,22 +1067,22 @@
         <v>2</v>
       </c>
       <c r="B37" s="3">
-        <v>112000</v>
+        <v>113000</v>
       </c>
       <c r="C37" s="3">
-        <v>187000</v>
+        <v>199000</v>
       </c>
       <c r="D37" s="3">
-        <v>287000</v>
+        <v>286000</v>
       </c>
       <c r="E37" s="3">
-        <v>352000</v>
+        <v>358000</v>
       </c>
       <c r="F37" s="3">
-        <v>412000</v>
+        <v>403000</v>
       </c>
       <c r="G37" s="3">
-        <v>458000</v>
+        <v>452000</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1090,22 +1090,22 @@
         <v>3</v>
       </c>
       <c r="B38" s="3">
-        <v>137000</v>
+        <v>128000</v>
       </c>
       <c r="C38" s="3">
-        <v>160000</v>
+        <v>156000</v>
       </c>
       <c r="D38" s="3">
-        <v>199000</v>
+        <v>194000</v>
       </c>
       <c r="E38" s="3">
-        <v>206000</v>
+        <v>201000</v>
       </c>
       <c r="F38" s="3">
-        <v>174000</v>
+        <v>175000</v>
       </c>
       <c r="G38" s="3">
-        <v>156000</v>
+        <v>157000</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1113,19 +1113,19 @@
         <v>4</v>
       </c>
       <c r="B39" s="3">
-        <v>136000</v>
+        <v>137000</v>
       </c>
       <c r="C39" s="3">
-        <v>162000</v>
+        <v>180000</v>
       </c>
       <c r="D39" s="3">
-        <v>188000</v>
+        <v>197000</v>
       </c>
       <c r="E39" s="3">
-        <v>202000</v>
+        <v>210000</v>
       </c>
       <c r="F39" s="3">
-        <v>178000</v>
+        <v>185000</v>
       </c>
       <c r="G39" s="3">
         <v>162000</v>
@@ -1136,22 +1136,22 @@
         <v>5</v>
       </c>
       <c r="B40" s="3">
-        <v>137000</v>
+        <v>135000</v>
       </c>
       <c r="C40" s="3">
-        <v>194000</v>
+        <v>164000</v>
       </c>
       <c r="D40" s="3">
-        <v>193000</v>
+        <v>199000</v>
       </c>
       <c r="E40" s="3">
-        <v>208000</v>
+        <v>202000</v>
       </c>
       <c r="F40" s="3">
         <v>180000</v>
       </c>
       <c r="G40" s="3">
-        <v>160000</v>
+        <v>167000</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1159,22 +1159,22 @@
         <v>6</v>
       </c>
       <c r="B41" s="3">
-        <v>127000</v>
+        <v>115000</v>
       </c>
       <c r="C41" s="3">
-        <v>156000</v>
+        <v>161000</v>
       </c>
       <c r="D41" s="3">
-        <v>200000</v>
+        <v>177000</v>
       </c>
       <c r="E41" s="3">
-        <v>217000</v>
+        <v>214000</v>
       </c>
       <c r="F41" s="3">
-        <v>232000</v>
+        <v>233000</v>
       </c>
       <c r="G41" s="3">
-        <v>283000</v>
+        <v>276000</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1182,22 +1182,22 @@
         <v>7</v>
       </c>
       <c r="B42" s="3">
-        <v>110000</v>
+        <v>103000</v>
       </c>
       <c r="C42" s="3">
-        <v>161000</v>
+        <v>156000</v>
       </c>
       <c r="D42" s="3">
-        <v>191000</v>
+        <v>180000</v>
       </c>
       <c r="E42" s="3">
-        <v>211000</v>
+        <v>237000</v>
       </c>
       <c r="F42" s="3">
-        <v>231000</v>
+        <v>216000</v>
       </c>
       <c r="G42" s="3">
-        <v>220000</v>
+        <v>243000</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1236,22 +1236,22 @@
         <v>1</v>
       </c>
       <c r="B47" s="3">
-        <v>3379</v>
+        <v>3605</v>
       </c>
       <c r="C47" s="3">
-        <v>5785</v>
+        <v>5801</v>
       </c>
       <c r="D47" s="3">
-        <v>7846</v>
+        <v>8258</v>
       </c>
       <c r="E47" s="3">
-        <v>8705</v>
+        <v>9214</v>
       </c>
       <c r="F47" s="3">
-        <v>8419</v>
+        <v>6279</v>
       </c>
       <c r="G47" s="3">
-        <v>8443</v>
+        <v>8436</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1259,22 +1259,22 @@
         <v>2</v>
       </c>
       <c r="B48" s="3">
-        <v>2694</v>
+        <v>2645</v>
       </c>
       <c r="C48" s="3">
-        <v>4162</v>
+        <v>4320</v>
       </c>
       <c r="D48" s="3">
-        <v>7772</v>
+        <v>8846</v>
       </c>
       <c r="E48" s="3">
-        <v>7984</v>
+        <v>8258</v>
       </c>
       <c r="F48" s="3">
-        <v>6770</v>
+        <v>5803</v>
       </c>
       <c r="G48" s="3">
-        <v>8291</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1282,22 +1282,22 @@
         <v>3</v>
       </c>
       <c r="B49" s="3">
-        <v>2708</v>
+        <v>1777</v>
       </c>
       <c r="C49" s="3">
-        <v>3362</v>
+        <v>2592</v>
       </c>
       <c r="D49" s="3">
-        <v>8515</v>
+        <v>5375</v>
       </c>
       <c r="E49" s="3">
-        <v>8175</v>
+        <v>7742</v>
       </c>
       <c r="F49" s="3">
-        <v>8000</v>
+        <v>8414</v>
       </c>
       <c r="G49" s="3">
-        <v>8777</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1305,22 +1305,22 @@
         <v>4</v>
       </c>
       <c r="B50" s="3">
-        <v>2343</v>
+        <v>2235</v>
       </c>
       <c r="C50" s="3">
-        <v>3543</v>
+        <v>3878</v>
       </c>
       <c r="D50" s="3">
-        <v>7968</v>
+        <v>8031</v>
       </c>
       <c r="E50" s="3">
-        <v>8078</v>
+        <v>9525</v>
       </c>
       <c r="F50" s="3">
-        <v>8135</v>
+        <v>8808</v>
       </c>
       <c r="G50" s="3">
-        <v>10800</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1328,22 +1328,22 @@
         <v>5</v>
       </c>
       <c r="B51" s="3">
-        <v>2403</v>
+        <v>2752</v>
       </c>
       <c r="C51" s="3">
-        <v>3683</v>
+        <v>3806</v>
       </c>
       <c r="D51" s="3">
-        <v>8274</v>
+        <v>7353</v>
       </c>
       <c r="E51" s="3">
-        <v>8551</v>
+        <v>9525</v>
       </c>
       <c r="F51" s="3">
-        <v>8371</v>
+        <v>8502</v>
       </c>
       <c r="G51" s="3">
-        <v>7046</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1351,22 +1351,22 @@
         <v>6</v>
       </c>
       <c r="B52" s="3">
-        <v>2687</v>
+        <v>2797</v>
       </c>
       <c r="C52" s="3">
-        <v>3065</v>
+        <v>3075</v>
       </c>
       <c r="D52" s="3">
-        <v>5126</v>
+        <v>5152</v>
       </c>
       <c r="E52" s="3">
-        <v>8159</v>
+        <v>8445</v>
       </c>
       <c r="F52" s="3">
-        <v>7775</v>
+        <v>7553</v>
       </c>
       <c r="G52" s="3">
-        <v>7400</v>
+        <v>19400</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1374,22 +1374,22 @@
         <v>7</v>
       </c>
       <c r="B53" s="3">
-        <v>2515</v>
+        <v>2708</v>
       </c>
       <c r="C53" s="3">
-        <v>3413</v>
+        <v>2909</v>
       </c>
       <c r="D53" s="3">
-        <v>5649</v>
+        <v>6131</v>
       </c>
       <c r="E53" s="3">
-        <v>8031</v>
+        <v>7930</v>
       </c>
       <c r="F53" s="3">
-        <v>7926</v>
+        <v>8262</v>
       </c>
       <c r="G53" s="3">
-        <v>8092</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1428,22 +1428,22 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <v>115000</v>
+        <v>120000</v>
       </c>
       <c r="C58" s="3">
-        <v>184000</v>
+        <v>182000</v>
       </c>
       <c r="D58" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E58" s="3">
         <v>301000</v>
       </c>
-      <c r="E58" s="3">
-        <v>312000</v>
-      </c>
       <c r="F58" s="3">
-        <v>293000</v>
+        <v>273000</v>
       </c>
       <c r="G58" s="3">
-        <v>272000</v>
+        <v>354000</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1451,22 +1451,22 @@
         <v>2</v>
       </c>
       <c r="B59" s="3">
-        <v>98100</v>
+        <v>88600</v>
       </c>
       <c r="C59" s="3">
-        <v>153000</v>
+        <v>128000</v>
       </c>
       <c r="D59" s="3">
-        <v>255000</v>
+        <v>268000</v>
       </c>
       <c r="E59" s="3">
-        <v>237000</v>
+        <v>271000</v>
       </c>
       <c r="F59" s="3">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="G59" s="3">
-        <v>259000</v>
+        <v>333000</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1474,22 +1474,22 @@
         <v>3</v>
       </c>
       <c r="B60" s="3">
-        <v>79100</v>
+        <v>82500</v>
       </c>
       <c r="C60" s="3">
-        <v>113000</v>
+        <v>112000</v>
       </c>
       <c r="D60" s="3">
-        <v>248000</v>
+        <v>244000</v>
       </c>
       <c r="E60" s="3">
-        <v>293000</v>
+        <v>282000</v>
       </c>
       <c r="F60" s="3">
-        <v>287000</v>
+        <v>282000</v>
       </c>
       <c r="G60" s="3">
-        <v>347000</v>
+        <v>342000</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1497,22 +1497,22 @@
         <v>4</v>
       </c>
       <c r="B61" s="3">
-        <v>79900</v>
+        <v>83400</v>
       </c>
       <c r="C61" s="3">
-        <v>115000</v>
+        <v>114000</v>
       </c>
       <c r="D61" s="3">
         <v>259000</v>
       </c>
       <c r="E61" s="3">
-        <v>302000</v>
+        <v>306000</v>
       </c>
       <c r="F61" s="3">
-        <v>246000</v>
+        <v>256000</v>
       </c>
       <c r="G61" s="3">
-        <v>350000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1520,22 +1520,22 @@
         <v>5</v>
       </c>
       <c r="B62" s="3">
-        <v>78800</v>
+        <v>84500</v>
       </c>
       <c r="C62" s="3">
-        <v>113000</v>
+        <v>128000</v>
       </c>
       <c r="D62" s="3">
-        <v>245000</v>
+        <v>239000</v>
       </c>
       <c r="E62" s="3">
-        <v>277000</v>
+        <v>295000</v>
       </c>
       <c r="F62" s="3">
-        <v>273000</v>
+        <v>297000</v>
       </c>
       <c r="G62" s="3">
-        <v>372000</v>
+        <v>403000</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1543,22 +1543,22 @@
         <v>6</v>
       </c>
       <c r="B63" s="3">
-        <v>98100</v>
+        <v>90500</v>
       </c>
       <c r="C63" s="3">
-        <v>82200</v>
+        <v>115000</v>
       </c>
       <c r="D63" s="3">
-        <v>169000</v>
+        <v>171000</v>
       </c>
       <c r="E63" s="3">
-        <v>266000</v>
+        <v>247000</v>
       </c>
       <c r="F63" s="3">
-        <v>256000</v>
+        <v>262000</v>
       </c>
       <c r="G63" s="3">
-        <v>238000</v>
+        <v>272000</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1566,22 +1566,22 @@
         <v>7</v>
       </c>
       <c r="B64" s="3">
-        <v>83200</v>
+        <v>88800</v>
       </c>
       <c r="C64" s="3">
-        <v>97800</v>
+        <v>81600</v>
       </c>
       <c r="D64" s="3">
-        <v>178000</v>
+        <v>184000</v>
       </c>
       <c r="E64" s="3">
-        <v>303000</v>
+        <v>255000</v>
       </c>
       <c r="F64" s="3">
-        <v>273000</v>
+        <v>255000</v>
       </c>
       <c r="G64" s="3">
-        <v>470000</v>
+        <v>266000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1620,22 +1620,22 @@
         <v>1</v>
       </c>
       <c r="B69" s="3">
-        <v>9225</v>
+        <v>8982</v>
       </c>
       <c r="C69" s="3">
-        <v>10600</v>
+        <v>11800</v>
       </c>
       <c r="D69" s="3">
-        <v>11900</v>
+        <v>12600</v>
       </c>
       <c r="E69" s="3">
-        <v>13600</v>
+        <v>12000</v>
       </c>
       <c r="F69" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="G69" s="3">
-        <v>13000</v>
+        <v>13800</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1643,22 +1643,22 @@
         <v>2</v>
       </c>
       <c r="B70" s="3">
-        <v>6692</v>
+        <v>6826</v>
       </c>
       <c r="C70" s="3">
-        <v>8904</v>
+        <v>9022</v>
       </c>
       <c r="D70" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="E70" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="F70" s="3">
-        <v>13100</v>
+        <v>12600</v>
       </c>
       <c r="G70" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -1666,22 +1666,22 @@
         <v>3</v>
       </c>
       <c r="B71" s="3">
-        <v>5688</v>
+        <v>5953</v>
       </c>
       <c r="C71" s="3">
-        <v>7613</v>
+        <v>7340</v>
       </c>
       <c r="D71" s="3">
-        <v>8808</v>
+        <v>9287</v>
       </c>
       <c r="E71" s="3">
-        <v>9547</v>
+        <v>9340</v>
       </c>
       <c r="F71" s="3">
-        <v>9235</v>
+        <v>9443</v>
       </c>
       <c r="G71" s="3">
-        <v>8724</v>
+        <v>8863</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -1689,22 +1689,22 @@
         <v>4</v>
       </c>
       <c r="B72" s="3">
-        <v>5953</v>
+        <v>5851</v>
       </c>
       <c r="C72" s="3">
-        <v>7185</v>
+        <v>7728</v>
       </c>
       <c r="D72" s="3">
-        <v>9394</v>
+        <v>8623</v>
       </c>
       <c r="E72" s="3">
-        <v>9426</v>
+        <v>9383</v>
       </c>
       <c r="F72" s="3">
-        <v>10000</v>
+        <v>9383</v>
       </c>
       <c r="G72" s="3">
-        <v>8841</v>
+        <v>8735</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -1712,22 +1712,22 @@
         <v>5</v>
       </c>
       <c r="B73" s="3">
-        <v>5626</v>
+        <v>5657</v>
       </c>
       <c r="C73" s="3">
-        <v>7557</v>
+        <v>7340</v>
       </c>
       <c r="D73" s="3">
-        <v>9163</v>
+        <v>8827</v>
       </c>
       <c r="E73" s="3">
-        <v>9298</v>
+        <v>9558</v>
       </c>
       <c r="F73" s="3">
-        <v>8972</v>
+        <v>9351</v>
       </c>
       <c r="G73" s="3">
-        <v>8740</v>
+        <v>8664</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -1735,22 +1735,22 @@
         <v>6</v>
       </c>
       <c r="B74" s="3">
-        <v>5752</v>
+        <v>5785</v>
       </c>
       <c r="C74" s="3">
-        <v>7816</v>
+        <v>7393</v>
       </c>
       <c r="D74" s="3">
-        <v>8445</v>
+        <v>8175</v>
       </c>
       <c r="E74" s="3">
-        <v>9405</v>
+        <v>9340</v>
       </c>
       <c r="F74" s="3">
-        <v>9935</v>
+        <v>9810</v>
       </c>
       <c r="G74" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -1758,22 +1758,22 @@
         <v>7</v>
       </c>
       <c r="B75" s="3">
-        <v>5333</v>
+        <v>5197</v>
       </c>
       <c r="C75" s="3">
-        <v>7288</v>
+        <v>7062</v>
       </c>
       <c r="D75" s="3">
-        <v>8827</v>
+        <v>8923</v>
       </c>
       <c r="E75" s="3">
+        <v>9362</v>
+      </c>
+      <c r="F75" s="3">
+        <v>9346</v>
+      </c>
+      <c r="G75" s="3">
         <v>10000</v>
-      </c>
-      <c r="F75" s="3">
-        <v>9875</v>
-      </c>
-      <c r="G75" s="3">
-        <v>10200</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -1812,22 +1812,22 @@
         <v>1</v>
       </c>
       <c r="B80" s="3">
-        <v>341000</v>
+        <v>331000</v>
       </c>
       <c r="C80" s="3">
         <v>428000</v>
       </c>
       <c r="D80" s="3">
-        <v>512000</v>
+        <v>500000</v>
       </c>
       <c r="E80" s="3">
-        <v>551000</v>
+        <v>545000</v>
       </c>
       <c r="F80" s="3">
-        <v>583000</v>
+        <v>570000</v>
       </c>
       <c r="G80" s="3">
-        <v>519000</v>
+        <v>522000</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -1835,22 +1835,22 @@
         <v>2</v>
       </c>
       <c r="B81" s="3">
-        <v>106000</v>
+        <v>110000</v>
       </c>
       <c r="C81" s="3">
-        <v>157000</v>
+        <v>204000</v>
       </c>
       <c r="D81" s="3">
-        <v>272000</v>
+        <v>274000</v>
       </c>
       <c r="E81" s="3">
-        <v>347000</v>
+        <v>350000</v>
       </c>
       <c r="F81" s="3">
         <v>392000</v>
       </c>
       <c r="G81" s="3">
-        <v>404000</v>
+        <v>392000</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -1858,22 +1858,22 @@
         <v>3</v>
       </c>
       <c r="B82" s="3">
-        <v>134000</v>
+        <v>138000</v>
       </c>
       <c r="C82" s="3">
-        <v>180000</v>
+        <v>155000</v>
       </c>
       <c r="D82" s="3">
-        <v>218000</v>
+        <v>204000</v>
       </c>
       <c r="E82" s="3">
-        <v>212000</v>
+        <v>215000</v>
       </c>
       <c r="F82" s="3">
-        <v>182000</v>
+        <v>201000</v>
       </c>
       <c r="G82" s="3">
-        <v>167000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -1881,22 +1881,22 @@
         <v>4</v>
       </c>
       <c r="B83" s="3">
-        <v>137000</v>
+        <v>118000</v>
       </c>
       <c r="C83" s="3">
-        <v>168000</v>
+        <v>185000</v>
       </c>
       <c r="D83" s="3">
-        <v>206000</v>
+        <v>200000</v>
       </c>
       <c r="E83" s="3">
-        <v>216000</v>
+        <v>218000</v>
       </c>
       <c r="F83" s="3">
-        <v>196000</v>
+        <v>181000</v>
       </c>
       <c r="G83" s="3">
-        <v>167000</v>
+        <v>162000</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -1904,22 +1904,22 @@
         <v>5</v>
       </c>
       <c r="B84" s="3">
-        <v>134000</v>
+        <v>122000</v>
       </c>
       <c r="C84" s="3">
-        <v>168000</v>
+        <v>172000</v>
       </c>
       <c r="D84" s="3">
         <v>212000</v>
       </c>
       <c r="E84" s="3">
-        <v>224000</v>
+        <v>218000</v>
       </c>
       <c r="F84" s="3">
-        <v>196000</v>
+        <v>182000</v>
       </c>
       <c r="G84" s="3">
-        <v>165000</v>
+        <v>161000</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -1927,22 +1927,22 @@
         <v>6</v>
       </c>
       <c r="B85" s="3">
-        <v>119000</v>
+        <v>121000</v>
       </c>
       <c r="C85" s="3">
-        <v>161000</v>
+        <v>166000</v>
       </c>
       <c r="D85" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E85" s="3">
         <v>215000</v>
       </c>
-      <c r="E85" s="3">
-        <v>206000</v>
-      </c>
       <c r="F85" s="3">
-        <v>233000</v>
+        <v>241000</v>
       </c>
       <c r="G85" s="3">
-        <v>286000</v>
+        <v>283000</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -1950,22 +1950,22 @@
         <v>7</v>
       </c>
       <c r="B86" s="3">
-        <v>112000</v>
+        <v>111000</v>
       </c>
       <c r="C86" s="3">
-        <v>161000</v>
+        <v>159000</v>
       </c>
       <c r="D86" s="3">
-        <v>210000</v>
+        <v>196000</v>
       </c>
       <c r="E86" s="3">
-        <v>216000</v>
+        <v>230000</v>
       </c>
       <c r="F86" s="3">
-        <v>228000</v>
+        <v>213000</v>
       </c>
       <c r="G86" s="3">
-        <v>234000</v>
+        <v>237000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/merged_summary.xlsx
+++ b/rfuse/merged_summary.xlsx
@@ -458,19 +458,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>3303</v>
+        <v>3210</v>
       </c>
       <c r="C3" s="3">
-        <v>6320</v>
+        <v>5851</v>
       </c>
       <c r="D3" s="3">
-        <v>9416</v>
+        <v>9163</v>
       </c>
       <c r="E3" s="3">
         <v>12800</v>
       </c>
       <c r="F3" s="3">
-        <v>19600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -478,19 +478,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>3984</v>
+        <v>4284</v>
       </c>
       <c r="C4" s="3">
-        <v>8359</v>
+        <v>9990</v>
       </c>
       <c r="D4" s="3">
-        <v>15500</v>
+        <v>16900</v>
       </c>
       <c r="E4" s="3">
-        <v>28700</v>
+        <v>27000</v>
       </c>
       <c r="F4" s="3">
-        <v>39600</v>
+        <v>36500</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -498,19 +498,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>2280</v>
+        <v>2285</v>
       </c>
       <c r="C5" s="3">
-        <v>4137</v>
+        <v>4154</v>
       </c>
       <c r="D5" s="3">
-        <v>8031</v>
+        <v>8733</v>
       </c>
       <c r="E5" s="3">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="F5" s="3">
-        <v>24400</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -518,19 +518,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>1192</v>
+        <v>1278</v>
       </c>
       <c r="C6" s="3">
-        <v>2615</v>
+        <v>2556</v>
       </c>
       <c r="D6" s="3">
-        <v>4835</v>
+        <v>4394</v>
       </c>
       <c r="E6" s="3">
-        <v>8714</v>
+        <v>9330</v>
       </c>
       <c r="F6" s="3">
-        <v>15100</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -538,19 +538,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="C7" s="3">
-        <v>731</v>
+        <v>695</v>
       </c>
       <c r="D7" s="3">
-        <v>1400</v>
+        <v>1359</v>
       </c>
       <c r="E7" s="3">
-        <v>2720</v>
+        <v>2733</v>
       </c>
       <c r="F7" s="3">
-        <v>4838</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -585,19 +585,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="C12" s="3">
-        <v>25200</v>
+        <v>24900</v>
       </c>
       <c r="D12" s="3">
-        <v>39200</v>
+        <v>36800</v>
       </c>
       <c r="E12" s="3">
-        <v>60600</v>
+        <v>55100</v>
       </c>
       <c r="F12" s="3">
-        <v>97000</v>
+        <v>87700</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -605,19 +605,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="3">
-        <v>9109</v>
+        <v>9893</v>
       </c>
       <c r="C13" s="3">
-        <v>20200</v>
+        <v>21100</v>
       </c>
       <c r="D13" s="3">
-        <v>46600</v>
+        <v>43300</v>
       </c>
       <c r="E13" s="3">
-        <v>92200</v>
+        <v>83400</v>
       </c>
       <c r="F13" s="3">
-        <v>172000</v>
+        <v>158000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -625,19 +625,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="3">
-        <v>2604</v>
+        <v>2569</v>
       </c>
       <c r="C14" s="3">
-        <v>5636</v>
+        <v>5680</v>
       </c>
       <c r="D14" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="E14" s="3">
-        <v>28600</v>
+        <v>29300</v>
       </c>
       <c r="F14" s="3">
-        <v>65400</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -645,19 +645,19 @@
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>1622</v>
+        <v>1636</v>
       </c>
       <c r="C15" s="3">
-        <v>3330</v>
+        <v>3313</v>
       </c>
       <c r="D15" s="3">
-        <v>7209</v>
+        <v>7193</v>
       </c>
       <c r="E15" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="F15" s="3">
-        <v>33400</v>
+        <v>33300</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -665,19 +665,19 @@
         <v>5</v>
       </c>
       <c r="B16" s="3">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C16" s="3">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="D16" s="3">
-        <v>1435</v>
+        <v>1420</v>
       </c>
       <c r="E16" s="3">
-        <v>2825</v>
+        <v>2802</v>
       </c>
       <c r="F16" s="3">
-        <v>5590</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -712,19 +712,19 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>8258</v>
+        <v>8533</v>
       </c>
       <c r="C21" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="D21" s="3">
-        <v>12600</v>
+        <v>10800</v>
       </c>
       <c r="E21" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="F21" s="3">
-        <v>12200</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -732,19 +732,19 @@
         <v>2</v>
       </c>
       <c r="B22" s="3">
-        <v>4129</v>
+        <v>4551</v>
       </c>
       <c r="C22" s="3">
-        <v>6585</v>
+        <v>7420</v>
       </c>
       <c r="D22" s="3">
-        <v>7816</v>
+        <v>8696</v>
       </c>
       <c r="E22" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="F22" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -752,19 +752,19 @@
         <v>3</v>
       </c>
       <c r="B23" s="3">
-        <v>1903</v>
+        <v>1932</v>
       </c>
       <c r="C23" s="3">
-        <v>3716</v>
+        <v>3357</v>
       </c>
       <c r="D23" s="3">
-        <v>5490</v>
+        <v>6122</v>
       </c>
       <c r="E23" s="3">
-        <v>7025</v>
+        <v>9683</v>
       </c>
       <c r="F23" s="3">
-        <v>9153</v>
+        <v>9740</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -772,19 +772,19 @@
         <v>4</v>
       </c>
       <c r="B24" s="3">
-        <v>1684</v>
+        <v>1060</v>
       </c>
       <c r="C24" s="3">
-        <v>2386</v>
+        <v>2356</v>
       </c>
       <c r="D24" s="3">
-        <v>4124</v>
+        <v>4691</v>
       </c>
       <c r="E24" s="3">
-        <v>7380</v>
+        <v>7333</v>
       </c>
       <c r="F24" s="3">
-        <v>6784</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -792,19 +792,19 @@
         <v>5</v>
       </c>
       <c r="B25" s="3">
-        <v>362</v>
+        <v>237</v>
       </c>
       <c r="C25" s="3">
-        <v>419</v>
+        <v>737</v>
       </c>
       <c r="D25" s="3">
-        <v>1469</v>
+        <v>1014</v>
       </c>
       <c r="E25" s="3">
-        <v>1916</v>
+        <v>2099</v>
       </c>
       <c r="F25" s="3">
-        <v>3579</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -839,19 +839,19 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>124000</v>
+        <v>116000</v>
       </c>
       <c r="C30" s="3">
-        <v>186000</v>
+        <v>168000</v>
       </c>
       <c r="D30" s="3">
-        <v>199000</v>
+        <v>200000</v>
       </c>
       <c r="E30" s="3">
-        <v>215000</v>
+        <v>210000</v>
       </c>
       <c r="F30" s="3">
-        <v>250000</v>
+        <v>257000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -859,19 +859,19 @@
         <v>2</v>
       </c>
       <c r="B31" s="3">
-        <v>20500</v>
+        <v>27400</v>
       </c>
       <c r="C31" s="3">
-        <v>48400</v>
+        <v>62500</v>
       </c>
       <c r="D31" s="3">
-        <v>93800</v>
+        <v>89700</v>
       </c>
       <c r="E31" s="3">
-        <v>106000</v>
+        <v>108000</v>
       </c>
       <c r="F31" s="3">
-        <v>142000</v>
+        <v>162000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -879,19 +879,19 @@
         <v>3</v>
       </c>
       <c r="B32" s="3">
-        <v>5248</v>
+        <v>8600</v>
       </c>
       <c r="C32" s="3">
-        <v>12300</v>
+        <v>11400</v>
       </c>
       <c r="D32" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="E32" s="3">
-        <v>29800</v>
+        <v>35000</v>
       </c>
       <c r="F32" s="3">
-        <v>46300</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -899,19 +899,19 @@
         <v>4</v>
       </c>
       <c r="B33" s="3">
-        <v>2283</v>
+        <v>2396</v>
       </c>
       <c r="C33" s="3">
-        <v>5635</v>
+        <v>5214</v>
       </c>
       <c r="D33" s="3">
-        <v>9669</v>
+        <v>11200</v>
       </c>
       <c r="E33" s="3">
-        <v>22700</v>
+        <v>24100</v>
       </c>
       <c r="F33" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -919,19 +919,19 @@
         <v>5</v>
       </c>
       <c r="B34" s="3">
-        <v>1183</v>
+        <v>1084</v>
       </c>
       <c r="C34" s="3">
-        <v>2282</v>
+        <v>2252</v>
       </c>
       <c r="D34" s="3">
-        <v>4211</v>
+        <v>3896</v>
       </c>
       <c r="E34" s="3">
-        <v>6945</v>
+        <v>5983</v>
       </c>
       <c r="F34" s="3">
-        <v>8785</v>
+        <v>8935</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -966,19 +966,19 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>8258</v>
+        <v>2645</v>
       </c>
       <c r="C39" s="3">
-        <v>7062</v>
+        <v>2684</v>
       </c>
       <c r="D39" s="3">
-        <v>8846</v>
+        <v>3558</v>
       </c>
       <c r="E39" s="3">
-        <v>13100</v>
+        <v>5221</v>
       </c>
       <c r="F39" s="3">
-        <v>25300</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -986,19 +986,19 @@
         <v>2</v>
       </c>
       <c r="B40" s="3">
-        <v>7111</v>
+        <v>8533</v>
       </c>
       <c r="C40" s="3">
-        <v>13500</v>
+        <v>12400</v>
       </c>
       <c r="D40" s="3">
-        <v>20200</v>
+        <v>21400</v>
       </c>
       <c r="E40" s="3">
-        <v>31000</v>
+        <v>28100</v>
       </c>
       <c r="F40" s="3">
-        <v>32000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1006,19 +1006,19 @@
         <v>3</v>
       </c>
       <c r="B41" s="3">
-        <v>4338</v>
+        <v>4266</v>
       </c>
       <c r="C41" s="3">
-        <v>8258</v>
+        <v>6649</v>
       </c>
       <c r="D41" s="3">
-        <v>11900</v>
+        <v>12800</v>
       </c>
       <c r="E41" s="3">
-        <v>22300</v>
+        <v>21000</v>
       </c>
       <c r="F41" s="3">
-        <v>31300</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1026,19 +1026,19 @@
         <v>4</v>
       </c>
       <c r="B42" s="3">
-        <v>2572</v>
+        <v>2566</v>
       </c>
       <c r="C42" s="3">
-        <v>4958</v>
+        <v>4995</v>
       </c>
       <c r="D42" s="3">
-        <v>9102</v>
+        <v>8865</v>
       </c>
       <c r="E42" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="F42" s="3">
-        <v>20800</v>
+        <v>17200</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1046,19 +1046,19 @@
         <v>5</v>
       </c>
       <c r="B43" s="3">
-        <v>772</v>
+        <v>817</v>
       </c>
       <c r="C43" s="3">
-        <v>1541</v>
+        <v>1566</v>
       </c>
       <c r="D43" s="3">
-        <v>2818</v>
+        <v>2923</v>
       </c>
       <c r="E43" s="3">
         <v>4827</v>
       </c>
       <c r="F43" s="3">
-        <v>8062</v>
+        <v>7746</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1096,16 +1096,16 @@
         <v>93100</v>
       </c>
       <c r="C48" s="3">
-        <v>94000</v>
+        <v>85800</v>
       </c>
       <c r="D48" s="3">
-        <v>114000</v>
+        <v>111000</v>
       </c>
       <c r="E48" s="3">
-        <v>177000</v>
+        <v>174000</v>
       </c>
       <c r="F48" s="3">
-        <v>258000</v>
+        <v>245000</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1113,19 +1113,19 @@
         <v>2</v>
       </c>
       <c r="B49" s="3">
-        <v>67400</v>
+        <v>169000</v>
       </c>
       <c r="C49" s="3">
-        <v>417000</v>
+        <v>437000</v>
       </c>
       <c r="D49" s="3">
         <v>683000</v>
       </c>
       <c r="E49" s="3">
-        <v>946000</v>
+        <v>846000</v>
       </c>
       <c r="F49" s="3">
-        <v>1001000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1133,19 +1133,19 @@
         <v>3</v>
       </c>
       <c r="B50" s="3">
-        <v>46900</v>
+        <v>90800</v>
       </c>
       <c r="C50" s="3">
-        <v>231000</v>
+        <v>207000</v>
       </c>
       <c r="D50" s="3">
-        <v>362000</v>
+        <v>496000</v>
       </c>
       <c r="E50" s="3">
-        <v>728000</v>
+        <v>669000</v>
       </c>
       <c r="F50" s="3">
-        <v>955000</v>
+        <v>967000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1153,19 +1153,19 @@
         <v>4</v>
       </c>
       <c r="B51" s="3">
-        <v>68400</v>
+        <v>19200</v>
       </c>
       <c r="C51" s="3">
-        <v>125000</v>
+        <v>107000</v>
       </c>
       <c r="D51" s="3">
-        <v>290000</v>
+        <v>272000</v>
       </c>
       <c r="E51" s="3">
-        <v>502000</v>
+        <v>367000</v>
       </c>
       <c r="F51" s="3">
-        <v>574000</v>
+        <v>619000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1173,19 +1173,19 @@
         <v>5</v>
       </c>
       <c r="B52" s="3">
-        <v>10700</v>
+        <v>11500</v>
       </c>
       <c r="C52" s="3">
-        <v>48400</v>
+        <v>48700</v>
       </c>
       <c r="D52" s="3">
-        <v>88700</v>
+        <v>86600</v>
       </c>
       <c r="E52" s="3">
-        <v>151000</v>
+        <v>152000</v>
       </c>
       <c r="F52" s="3">
-        <v>255000</v>
+        <v>251000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1220,19 +1220,19 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>6360</v>
+        <v>6522</v>
       </c>
       <c r="C57" s="3">
-        <v>7937</v>
+        <v>8192</v>
       </c>
       <c r="D57" s="3">
-        <v>9459</v>
+        <v>9287</v>
       </c>
       <c r="E57" s="3">
-        <v>9581</v>
+        <v>8856</v>
       </c>
       <c r="F57" s="3">
-        <v>9609</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1240,19 +1240,19 @@
         <v>2</v>
       </c>
       <c r="B58" s="3">
-        <v>2449</v>
+        <v>2852</v>
       </c>
       <c r="C58" s="3">
-        <v>5305</v>
+        <v>4452</v>
       </c>
       <c r="D58" s="3">
-        <v>6671</v>
+        <v>6491</v>
       </c>
       <c r="E58" s="3">
-        <v>7420</v>
+        <v>7627</v>
       </c>
       <c r="F58" s="3">
-        <v>8928</v>
+        <v>8055</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1260,19 +1260,19 @@
         <v>3</v>
       </c>
       <c r="B59" s="3">
-        <v>997</v>
+        <v>928</v>
       </c>
       <c r="C59" s="3">
-        <v>2273</v>
+        <v>1801</v>
       </c>
       <c r="D59" s="3">
-        <v>3462</v>
+        <v>3153</v>
       </c>
       <c r="E59" s="3">
-        <v>5851</v>
+        <v>5505</v>
       </c>
       <c r="F59" s="3">
-        <v>6886</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1280,19 +1280,19 @@
         <v>4</v>
       </c>
       <c r="B60" s="3">
-        <v>446</v>
+        <v>1125</v>
       </c>
       <c r="C60" s="3">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="D60" s="3">
-        <v>1720</v>
+        <v>1773</v>
       </c>
       <c r="E60" s="3">
-        <v>3477</v>
+        <v>3645</v>
       </c>
       <c r="F60" s="3">
-        <v>4841</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1300,16 +1300,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="3">
-        <v>354</v>
+        <v>228</v>
       </c>
       <c r="C61" s="3">
-        <v>415</v>
+        <v>506</v>
       </c>
       <c r="D61" s="3">
-        <v>796</v>
+        <v>900</v>
       </c>
       <c r="E61" s="3">
-        <v>1878</v>
+        <v>1554</v>
       </c>
       <c r="F61" s="3">
         <v>2609</v>
@@ -1347,19 +1347,19 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>121000</v>
+        <v>125000</v>
       </c>
       <c r="C66" s="3">
-        <v>192000</v>
+        <v>178000</v>
       </c>
       <c r="D66" s="3">
-        <v>209000</v>
+        <v>196000</v>
       </c>
       <c r="E66" s="3">
-        <v>235000</v>
+        <v>247000</v>
       </c>
       <c r="F66" s="3">
-        <v>207000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1367,19 +1367,19 @@
         <v>2</v>
       </c>
       <c r="B67" s="3">
-        <v>23700</v>
+        <v>17800</v>
       </c>
       <c r="C67" s="3">
-        <v>29000</v>
+        <v>30600</v>
       </c>
       <c r="D67" s="3">
-        <v>74100</v>
+        <v>71800</v>
       </c>
       <c r="E67" s="3">
-        <v>143000</v>
+        <v>112000</v>
       </c>
       <c r="F67" s="3">
-        <v>136000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1387,19 +1387,19 @@
         <v>3</v>
       </c>
       <c r="B68" s="3">
-        <v>4597</v>
+        <v>4393</v>
       </c>
       <c r="C68" s="3">
-        <v>9391</v>
+        <v>9099</v>
       </c>
       <c r="D68" s="3">
-        <v>19300</v>
+        <v>19900</v>
       </c>
       <c r="E68" s="3">
-        <v>32800</v>
+        <v>29800</v>
       </c>
       <c r="F68" s="3">
-        <v>49500</v>
+        <v>48500</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1407,19 +1407,19 @@
         <v>4</v>
       </c>
       <c r="B69" s="3">
-        <v>2363</v>
+        <v>2188</v>
       </c>
       <c r="C69" s="3">
-        <v>6037</v>
+        <v>4729</v>
       </c>
       <c r="D69" s="3">
-        <v>10700</v>
+        <v>11800</v>
       </c>
       <c r="E69" s="3">
-        <v>19400</v>
+        <v>21500</v>
       </c>
       <c r="F69" s="3">
-        <v>21700</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1427,19 +1427,19 @@
         <v>5</v>
       </c>
       <c r="B70" s="3">
-        <v>1304</v>
+        <v>1319</v>
       </c>
       <c r="C70" s="3">
-        <v>2617</v>
+        <v>2314</v>
       </c>
       <c r="D70" s="3">
-        <v>4350</v>
+        <v>4361</v>
       </c>
       <c r="E70" s="3">
-        <v>6089</v>
+        <v>6113</v>
       </c>
       <c r="F70" s="3">
-        <v>8945</v>
+        <v>8837</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/merged_summary.xlsx
+++ b/rfuse/merged_summary.xlsx
@@ -19,19 +19,19 @@
     <t>randread_128k_IOPS</t>
   </si>
   <si>
-    <t>rfuse</t>
+    <t>fuse</t>
   </si>
   <si>
-    <t>rfuse_busy_5</t>
+    <t>fuse_busy_10</t>
   </si>
   <si>
-    <t>rfuse_busy_10</t>
+    <t>fuse_busy_20</t>
   </si>
   <si>
-    <t>rfuse_busy_20</t>
+    <t>fuse_busy_40</t>
   </si>
   <si>
-    <t>rfuse_busy_40</t>
+    <t>fuse_busy_5</t>
   </si>
   <si>
     <t>randread_4k_IOPS</t>
@@ -59,6 +59,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -111,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -120,6 +123,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>3835</v>
+        <v>4213</v>
       </c>
       <c r="C3" s="3">
         <v>7670</v>
       </c>
       <c r="D3" s="3">
-        <v>13500</v>
+        <v>14700</v>
       </c>
       <c r="E3" s="3">
-        <v>18200</v>
+        <v>25700</v>
       </c>
       <c r="F3" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G3" s="3">
         <v>16700</v>
-      </c>
-      <c r="G3" s="3">
-        <v>15400</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -485,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>3723</v>
+        <v>4338</v>
       </c>
       <c r="C4" s="3">
-        <v>6759</v>
+        <v>8126</v>
       </c>
       <c r="D4" s="3">
-        <v>12000</v>
+        <v>11300</v>
       </c>
       <c r="E4" s="3">
-        <v>15300</v>
+        <v>13200</v>
       </c>
       <c r="F4" s="3">
-        <v>14900</v>
+        <v>15700</v>
       </c>
       <c r="G4" s="3">
-        <v>14400</v>
+        <v>14800</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -508,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>3683</v>
+        <v>2370</v>
       </c>
       <c r="C5" s="3">
-        <v>6360</v>
+        <v>4023</v>
       </c>
       <c r="D5" s="3">
-        <v>10200</v>
+        <v>6440</v>
       </c>
       <c r="E5" s="3">
-        <v>13100</v>
+        <v>9547</v>
       </c>
       <c r="F5" s="3">
-        <v>13300</v>
+        <v>11900</v>
       </c>
       <c r="G5" s="3">
-        <v>13600</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -531,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2077</v>
+        <v>1695</v>
       </c>
       <c r="C6" s="3">
-        <v>3663</v>
+        <v>3282</v>
       </c>
       <c r="D6" s="3">
-        <v>6196</v>
+        <v>5527</v>
       </c>
       <c r="E6" s="3">
-        <v>8687</v>
+        <v>8506</v>
       </c>
       <c r="F6" s="3">
-        <v>10000</v>
+        <v>10900</v>
       </c>
       <c r="G6" s="3">
-        <v>11300</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -554,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>1071</v>
+        <v>4320</v>
       </c>
       <c r="C7" s="3">
-        <v>2253</v>
+        <v>7613</v>
       </c>
       <c r="D7" s="3">
-        <v>4039</v>
+        <v>11800</v>
       </c>
       <c r="E7" s="3">
-        <v>5897</v>
+        <v>13700</v>
       </c>
       <c r="F7" s="3">
-        <v>7816</v>
+        <v>16400</v>
       </c>
       <c r="G7" s="3">
-        <v>9375</v>
+        <v>16100</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -608,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>17400</v>
+        <v>19000</v>
       </c>
       <c r="C12" s="3">
-        <v>36100</v>
+        <v>37800</v>
       </c>
       <c r="D12" s="3">
-        <v>69000</v>
+        <v>79700</v>
       </c>
       <c r="E12" s="3">
-        <v>152000</v>
+        <v>174000</v>
       </c>
       <c r="F12" s="3">
-        <v>294000</v>
+        <v>291000</v>
       </c>
       <c r="G12" s="3">
-        <v>453000</v>
+        <v>275000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -631,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="3">
-        <v>17600</v>
+        <v>19700</v>
       </c>
       <c r="C13" s="3">
-        <v>35500</v>
+        <v>37900</v>
       </c>
       <c r="D13" s="3">
-        <v>71500</v>
+        <v>72300</v>
       </c>
       <c r="E13" s="3">
-        <v>143000</v>
+        <v>111000</v>
       </c>
       <c r="F13" s="3">
-        <v>266000</v>
+        <v>147000</v>
       </c>
       <c r="G13" s="3">
-        <v>380000</v>
+        <v>176000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -654,45 +660,43 @@
         <v>3</v>
       </c>
       <c r="B14" s="3">
-        <v>16000</v>
+        <v>7841</v>
       </c>
       <c r="C14" s="3">
-        <v>34200</v>
+        <v>14000</v>
       </c>
       <c r="D14" s="3">
-        <v>67700</v>
+        <v>27800</v>
       </c>
       <c r="E14" s="3">
-        <v>132000</v>
+        <v>48000</v>
       </c>
       <c r="F14" s="3">
-        <v>230000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>212000</v>
-      </c>
+        <v>78500</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>9796</v>
+        <v>3196</v>
       </c>
       <c r="C15" s="3">
-        <v>18400</v>
+        <v>6162</v>
       </c>
       <c r="D15" s="3">
-        <v>34800</v>
+        <v>11900</v>
       </c>
       <c r="E15" s="3">
-        <v>64600</v>
+        <v>22300</v>
       </c>
       <c r="F15" s="3">
-        <v>106000</v>
+        <v>40400</v>
       </c>
       <c r="G15" s="3">
-        <v>141000</v>
+        <v>65500</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -700,22 +704,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="3">
-        <v>5353</v>
+        <v>22100</v>
       </c>
       <c r="C16" s="3">
-        <v>10400</v>
+        <v>43900</v>
       </c>
       <c r="D16" s="3">
-        <v>20600</v>
+        <v>86600</v>
       </c>
       <c r="E16" s="3">
-        <v>37600</v>
+        <v>160000</v>
       </c>
       <c r="F16" s="3">
-        <v>56500</v>
+        <v>207000</v>
       </c>
       <c r="G16" s="3">
-        <v>60100</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -754,22 +758,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>5785</v>
+        <v>3864</v>
       </c>
       <c r="C21" s="3">
-        <v>10100</v>
+        <v>7062</v>
       </c>
       <c r="D21" s="3">
-        <v>15100</v>
+        <v>11600</v>
       </c>
       <c r="E21" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="F21" s="3">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="G21" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -777,22 +781,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="3">
-        <v>4511</v>
+        <v>5145</v>
       </c>
       <c r="C22" s="3">
-        <v>9102</v>
+        <v>8533</v>
       </c>
       <c r="D22" s="3">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="E22" s="3">
-        <v>12000</v>
+        <v>11100</v>
       </c>
       <c r="F22" s="3">
         <v>10800</v>
       </c>
       <c r="G22" s="3">
-        <v>13800</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -800,22 +804,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="3">
-        <v>5851</v>
+        <v>2632</v>
       </c>
       <c r="C23" s="3">
-        <v>7474</v>
+        <v>5184</v>
       </c>
       <c r="D23" s="3">
-        <v>12500</v>
+        <v>6196</v>
       </c>
       <c r="E23" s="3">
-        <v>11000</v>
+        <v>7211</v>
       </c>
       <c r="F23" s="3">
-        <v>10500</v>
+        <v>8441</v>
       </c>
       <c r="G23" s="3">
-        <v>12900</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -823,22 +827,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="3">
-        <v>4511</v>
+        <v>2723</v>
       </c>
       <c r="C24" s="3">
-        <v>6781</v>
+        <v>4686</v>
       </c>
       <c r="D24" s="3">
-        <v>7543</v>
+        <v>7501</v>
       </c>
       <c r="E24" s="3">
-        <v>8062</v>
+        <v>8151</v>
       </c>
       <c r="F24" s="3">
-        <v>8650</v>
+        <v>9092</v>
       </c>
       <c r="G24" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -846,22 +850,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="3">
-        <v>1980</v>
+        <v>4394</v>
       </c>
       <c r="C25" s="3">
-        <v>4571</v>
+        <v>7288</v>
       </c>
       <c r="D25" s="3">
-        <v>5237</v>
+        <v>10000</v>
       </c>
       <c r="E25" s="3">
-        <v>5919</v>
+        <v>12500</v>
       </c>
       <c r="F25" s="3">
-        <v>7095</v>
+        <v>12700</v>
       </c>
       <c r="G25" s="3">
-        <v>9674</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -900,22 +904,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>74300</v>
+        <v>29200</v>
       </c>
       <c r="C30" s="3">
-        <v>117000</v>
+        <v>72500</v>
       </c>
       <c r="D30" s="3">
-        <v>226000</v>
+        <v>131000</v>
       </c>
       <c r="E30" s="3">
-        <v>348000</v>
+        <v>220000</v>
       </c>
       <c r="F30" s="3">
-        <v>425000</v>
+        <v>293000</v>
       </c>
       <c r="G30" s="3">
-        <v>458000</v>
+        <v>379000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -923,22 +927,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="3">
-        <v>58700</v>
+        <v>39500</v>
       </c>
       <c r="C31" s="3">
-        <v>111000</v>
+        <v>73600</v>
       </c>
       <c r="D31" s="3">
-        <v>192000</v>
+        <v>124000</v>
       </c>
       <c r="E31" s="3">
-        <v>282000</v>
+        <v>132000</v>
       </c>
       <c r="F31" s="3">
-        <v>321000</v>
+        <v>164000</v>
       </c>
       <c r="G31" s="3">
-        <v>363000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -946,22 +950,22 @@
         <v>3</v>
       </c>
       <c r="B32" s="3">
-        <v>53800</v>
+        <v>34700</v>
       </c>
       <c r="C32" s="3">
-        <v>108000</v>
+        <v>58900</v>
       </c>
       <c r="D32" s="3">
-        <v>184000</v>
+        <v>91000</v>
       </c>
       <c r="E32" s="3">
-        <v>322000</v>
+        <v>113000</v>
       </c>
       <c r="F32" s="3">
-        <v>376000</v>
+        <v>135000</v>
       </c>
       <c r="G32" s="3">
-        <v>324000</v>
+        <v>174000</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -969,22 +973,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="3">
-        <v>52900</v>
+        <v>30400</v>
       </c>
       <c r="C33" s="3">
-        <v>91000</v>
+        <v>57500</v>
       </c>
       <c r="D33" s="3">
-        <v>172000</v>
+        <v>96600</v>
       </c>
       <c r="E33" s="3">
-        <v>234000</v>
+        <v>122000</v>
       </c>
       <c r="F33" s="3">
-        <v>206000</v>
+        <v>144000</v>
       </c>
       <c r="G33" s="3">
-        <v>318000</v>
+        <v>178000</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -992,22 +996,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="3">
-        <v>29800</v>
+        <v>38100</v>
       </c>
       <c r="C34" s="3">
-        <v>56200</v>
+        <v>76000</v>
       </c>
       <c r="D34" s="3">
-        <v>117000</v>
+        <v>137000</v>
       </c>
       <c r="E34" s="3">
-        <v>157000</v>
+        <v>203000</v>
       </c>
       <c r="F34" s="3">
-        <v>176000</v>
+        <v>271000</v>
       </c>
       <c r="G34" s="3">
-        <v>198000</v>
+        <v>322000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1046,22 +1050,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>6440</v>
+        <v>8605</v>
       </c>
       <c r="C39" s="3">
-        <v>10300</v>
+        <v>13200</v>
       </c>
       <c r="D39" s="3">
-        <v>13100</v>
+        <v>19600</v>
       </c>
       <c r="E39" s="3">
-        <v>10900</v>
+        <v>19100</v>
       </c>
       <c r="F39" s="3">
-        <v>10100</v>
+        <v>13000</v>
       </c>
       <c r="G39" s="3">
-        <v>8948</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1069,22 +1073,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="3">
-        <v>6206</v>
+        <v>4853</v>
       </c>
       <c r="C40" s="3">
-        <v>8827</v>
+        <v>5919</v>
       </c>
       <c r="D40" s="3">
-        <v>11200</v>
+        <v>8445</v>
       </c>
       <c r="E40" s="3">
-        <v>10400</v>
+        <v>11400</v>
       </c>
       <c r="F40" s="3">
-        <v>9869</v>
+        <v>10700</v>
       </c>
       <c r="G40" s="3">
-        <v>8634</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1092,22 +1096,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="3">
-        <v>6360</v>
+        <v>3240</v>
       </c>
       <c r="C41" s="3">
-        <v>7160</v>
+        <v>4796</v>
       </c>
       <c r="D41" s="3">
-        <v>9525</v>
+        <v>7366</v>
       </c>
       <c r="E41" s="3">
-        <v>9717</v>
+        <v>8733</v>
       </c>
       <c r="F41" s="3">
-        <v>9335</v>
+        <v>9620</v>
       </c>
       <c r="G41" s="3">
-        <v>8200</v>
+        <v>9680</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1115,22 +1119,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="3">
-        <v>2942</v>
+        <v>1872</v>
       </c>
       <c r="C42" s="3">
-        <v>4751</v>
+        <v>3580</v>
       </c>
       <c r="D42" s="3">
-        <v>6450</v>
+        <v>5769</v>
       </c>
       <c r="E42" s="3">
-        <v>7327</v>
+        <v>6895</v>
       </c>
       <c r="F42" s="3">
-        <v>7363</v>
+        <v>8224</v>
       </c>
       <c r="G42" s="3">
-        <v>7365</v>
+        <v>8634</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1138,22 +1142,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="3">
-        <v>1519</v>
+        <v>7699</v>
       </c>
       <c r="C43" s="3">
-        <v>2479</v>
+        <v>11300</v>
       </c>
       <c r="D43" s="3">
-        <v>4222</v>
+        <v>13400</v>
       </c>
       <c r="E43" s="3">
-        <v>5553</v>
+        <v>13500</v>
       </c>
       <c r="F43" s="3">
-        <v>6447</v>
+        <v>12100</v>
       </c>
       <c r="G43" s="3">
-        <v>7006</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1192,22 +1196,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>140000</v>
+        <v>241000</v>
       </c>
       <c r="C48" s="3">
-        <v>347000</v>
+        <v>443000</v>
       </c>
       <c r="D48" s="3">
-        <v>506000</v>
+        <v>697000</v>
       </c>
       <c r="E48" s="3">
-        <v>441000</v>
+        <v>718000</v>
       </c>
       <c r="F48" s="3">
-        <v>401000</v>
+        <v>575000</v>
       </c>
       <c r="G48" s="3">
-        <v>345000</v>
+        <v>498000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1215,22 +1219,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="3">
-        <v>188000</v>
+        <v>117000</v>
       </c>
       <c r="C49" s="3">
-        <v>326000</v>
+        <v>201000</v>
       </c>
       <c r="D49" s="3">
-        <v>450000</v>
+        <v>311000</v>
       </c>
       <c r="E49" s="3">
-        <v>426000</v>
+        <v>440000</v>
       </c>
       <c r="F49" s="3">
-        <v>401000</v>
+        <v>447000</v>
       </c>
       <c r="G49" s="3">
-        <v>344000</v>
+        <v>410000</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1238,22 +1242,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="3">
-        <v>111000</v>
+        <v>81300</v>
       </c>
       <c r="C50" s="3">
-        <v>277000</v>
+        <v>161000</v>
       </c>
       <c r="D50" s="3">
-        <v>372000</v>
+        <v>259000</v>
       </c>
       <c r="E50" s="3">
-        <v>380000</v>
+        <v>362000</v>
       </c>
       <c r="F50" s="3">
-        <v>372000</v>
+        <v>396000</v>
       </c>
       <c r="G50" s="3">
-        <v>315000</v>
+        <v>389000</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1261,22 +1265,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="3">
-        <v>78800</v>
+        <v>54200</v>
       </c>
       <c r="C51" s="3">
-        <v>204000</v>
+        <v>115000</v>
       </c>
       <c r="D51" s="3">
-        <v>243000</v>
+        <v>201000</v>
       </c>
       <c r="E51" s="3">
-        <v>269000</v>
+        <v>262000</v>
       </c>
       <c r="F51" s="3">
-        <v>280000</v>
+        <v>323000</v>
       </c>
       <c r="G51" s="3">
-        <v>275000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1284,22 +1288,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="3">
-        <v>57100</v>
+        <v>228000</v>
       </c>
       <c r="C52" s="3">
-        <v>94000</v>
+        <v>372000</v>
       </c>
       <c r="D52" s="3">
-        <v>124000</v>
+        <v>423000</v>
       </c>
       <c r="E52" s="3">
-        <v>199000</v>
+        <v>465000</v>
       </c>
       <c r="F52" s="3">
-        <v>237000</v>
+        <v>542000</v>
       </c>
       <c r="G52" s="3">
-        <v>261000</v>
+        <v>475000</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1338,22 +1342,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>4675</v>
+        <v>3313</v>
       </c>
       <c r="C57" s="3">
-        <v>8031</v>
+        <v>5885</v>
       </c>
       <c r="D57" s="3">
-        <v>11200</v>
+        <v>9082</v>
       </c>
       <c r="E57" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="F57" s="3">
-        <v>12900</v>
+        <v>11900</v>
       </c>
       <c r="G57" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1361,22 +1365,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="3">
-        <v>3670</v>
+        <v>4179</v>
       </c>
       <c r="C58" s="3">
-        <v>7211</v>
+        <v>5389</v>
       </c>
       <c r="D58" s="3">
-        <v>7787</v>
+        <v>8923</v>
       </c>
       <c r="E58" s="3">
-        <v>10200</v>
+        <v>9405</v>
       </c>
       <c r="F58" s="3">
-        <v>9497</v>
+        <v>9362</v>
       </c>
       <c r="G58" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1384,22 +1388,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="3">
-        <v>4452</v>
+        <v>2250</v>
       </c>
       <c r="C59" s="3">
-        <v>6918</v>
+        <v>3465</v>
       </c>
       <c r="D59" s="3">
-        <v>8062</v>
+        <v>4982</v>
       </c>
       <c r="E59" s="3">
-        <v>10200</v>
+        <v>5859</v>
       </c>
       <c r="F59" s="3">
-        <v>9272</v>
+        <v>7457</v>
       </c>
       <c r="G59" s="3">
-        <v>11300</v>
+        <v>9301</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1407,22 +1411,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="3">
-        <v>2497</v>
+        <v>2560</v>
       </c>
       <c r="C60" s="3">
-        <v>4633</v>
+        <v>3696</v>
       </c>
       <c r="D60" s="3">
-        <v>6301</v>
+        <v>5264</v>
       </c>
       <c r="E60" s="3">
-        <v>6742</v>
+        <v>6415</v>
       </c>
       <c r="F60" s="3">
-        <v>7360</v>
+        <v>7869</v>
       </c>
       <c r="G60" s="3">
-        <v>10200</v>
+        <v>9890</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1430,22 +1434,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="3">
-        <v>1709</v>
+        <v>3644</v>
       </c>
       <c r="C61" s="3">
-        <v>2981</v>
+        <v>6059</v>
       </c>
       <c r="D61" s="3">
-        <v>4740</v>
+        <v>9503</v>
       </c>
       <c r="E61" s="3">
-        <v>5400</v>
+        <v>11000</v>
       </c>
       <c r="F61" s="3">
-        <v>6440</v>
+        <v>10600</v>
       </c>
       <c r="G61" s="3">
-        <v>8975</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1484,22 +1488,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>73800</v>
+        <v>28500</v>
       </c>
       <c r="C66" s="3">
-        <v>130000</v>
+        <v>65700</v>
       </c>
       <c r="D66" s="3">
-        <v>217000</v>
+        <v>132000</v>
       </c>
       <c r="E66" s="3">
-        <v>337000</v>
+        <v>204000</v>
       </c>
       <c r="F66" s="3">
-        <v>460000</v>
+        <v>317000</v>
       </c>
       <c r="G66" s="3">
-        <v>474000</v>
+        <v>429000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1507,22 +1511,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="3">
-        <v>59400</v>
+        <v>44500</v>
       </c>
       <c r="C67" s="3">
-        <v>118000</v>
+        <v>72700</v>
       </c>
       <c r="D67" s="3">
-        <v>190000</v>
+        <v>122000</v>
       </c>
       <c r="E67" s="3">
-        <v>273000</v>
+        <v>125000</v>
       </c>
       <c r="F67" s="3">
-        <v>354000</v>
+        <v>168000</v>
       </c>
       <c r="G67" s="3">
-        <v>445000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1530,22 +1534,22 @@
         <v>3</v>
       </c>
       <c r="B68" s="3">
-        <v>62400</v>
+        <v>31400</v>
       </c>
       <c r="C68" s="3">
-        <v>126000</v>
+        <v>57000</v>
       </c>
       <c r="D68" s="3">
-        <v>218000</v>
+        <v>87400</v>
       </c>
       <c r="E68" s="3">
-        <v>310000</v>
+        <v>110000</v>
       </c>
       <c r="F68" s="3">
-        <v>318000</v>
+        <v>145000</v>
       </c>
       <c r="G68" s="3">
-        <v>395000</v>
+        <v>189000</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1553,22 +1557,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="3">
-        <v>48000</v>
+        <v>30300</v>
       </c>
       <c r="C69" s="3">
-        <v>92000</v>
+        <v>57200</v>
       </c>
       <c r="D69" s="3">
-        <v>154000</v>
+        <v>92300</v>
       </c>
       <c r="E69" s="3">
-        <v>196000</v>
+        <v>118000</v>
       </c>
       <c r="F69" s="3">
-        <v>240000</v>
+        <v>152000</v>
       </c>
       <c r="G69" s="3">
-        <v>315000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1576,22 +1580,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="3">
-        <v>30700</v>
+        <v>38200</v>
       </c>
       <c r="C70" s="3">
-        <v>61700</v>
+        <v>74900</v>
       </c>
       <c r="D70" s="3">
-        <v>109000</v>
+        <v>131000</v>
       </c>
       <c r="E70" s="3">
-        <v>152000</v>
+        <v>161000</v>
       </c>
       <c r="F70" s="3">
-        <v>186000</v>
+        <v>219000</v>
       </c>
       <c r="G70" s="3">
-        <v>262000</v>
+        <v>274000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/merged_summary.xlsx
+++ b/rfuse/merged_summary.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>randread_128k_IOPS</t>
+  </si>
+  <si>
+    <t>rfuse_busy_12</t>
   </si>
   <si>
     <t>rfuse_busy</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,254 +449,307 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
+        <v>1321</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2775</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5834</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9547</v>
+      </c>
+      <c r="F3" s="3">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
         <v>1239</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="3">
         <v>2332</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>4923</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="3">
         <v>9893</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>8</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1872</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3820</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8192</v>
+      </c>
+      <c r="E9" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
         <v>1457</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C10" s="3">
         <v>3090</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D10" s="3">
         <v>7244</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E10" s="3">
         <v>16300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F10" s="3">
         <v>35700</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
+    <row r="13" spans="1:6">
+      <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="1">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F14" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1549</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2723</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4917</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8316</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
         <v>1294</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C16" s="3">
         <v>2386</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D16" s="3">
         <v>4796</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E16" s="3">
         <v>8427</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F16" s="3">
         <v>7176</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="1" t="s">
+    <row r="19" spans="1:6">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="E20" s="1">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2776</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5567</v>
+      </c>
+      <c r="D21" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>23700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2321</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5013</v>
+      </c>
+      <c r="D22" s="3">
+        <v>9389</v>
+      </c>
+      <c r="E22" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>23700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
         <v>4</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E26" s="1">
         <v>8</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F26" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2321</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5013</v>
-      </c>
-      <c r="D18" s="3">
-        <v>9389</v>
-      </c>
-      <c r="E18" s="3">
-        <v>21400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>23700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2455</v>
-      </c>
-      <c r="C23" s="3">
-        <v>4830</v>
-      </c>
-      <c r="D23" s="3">
-        <v>9437</v>
-      </c>
-      <c r="E23" s="3">
-        <v>15700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1">
-        <v>16</v>
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3482</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5785</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>24700</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="3">
-        <v>71100</v>
+        <v>2455</v>
       </c>
       <c r="C28" s="3">
-        <v>153000</v>
+        <v>4830</v>
       </c>
       <c r="D28" s="3">
-        <v>359000</v>
+        <v>9437</v>
       </c>
       <c r="E28" s="3">
-        <v>532000</v>
+        <v>15700</v>
       </c>
       <c r="F28" s="3">
-        <v>803000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -728,78 +784,185 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
+        <v>21400</v>
+      </c>
+      <c r="C33" s="3">
+        <v>47900</v>
+      </c>
+      <c r="D33" s="3">
+        <v>295000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>599000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>889000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3">
+        <v>71100</v>
+      </c>
+      <c r="C34" s="3">
+        <v>153000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>359000</v>
+      </c>
+      <c r="E34" s="3">
+        <v>532000</v>
+      </c>
+      <c r="F34" s="3">
+        <v>803000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3">
+        <v>430</v>
+      </c>
+      <c r="C39" s="3">
+        <v>855</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1568</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2961</v>
+      </c>
+      <c r="F39" s="3">
+        <v>6047</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="3">
         <v>575</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C40" s="3">
         <v>1439</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D40" s="3">
         <v>2208</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E40" s="3">
         <v>3723</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F40" s="3">
         <v>4671</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="B36" s="1" t="s">
+    <row r="43" spans="1:6">
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
         <v>8</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1">
-        <v>8</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="F44" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3">
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2614</v>
+      </c>
+      <c r="C45" s="3">
+        <v>5416</v>
+      </c>
+      <c r="D45" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="3">
         <v>2050</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C46" s="3">
         <v>5003</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D46" s="3">
         <v>10200</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E46" s="3">
         <v>21300</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F46" s="3">
         <v>24100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B25:F25"/>
     <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B43:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
